--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Documents\GitHub\Practica_SI\NominasSI\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C090AE8-4483-49B3-8BBC-7B16A6143BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FBB9-9941-4C6C-AB7A-86454904C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="516">
   <si>
     <t>Nombre</t>
   </si>
@@ -774,6 +774,12 @@
     <t>09548505D</t>
   </si>
   <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Aparicio</t>
+  </si>
+  <si>
     <t>María</t>
   </si>
   <si>
@@ -960,9 +966,15 @@
     <t>99558741836555551120</t>
   </si>
   <si>
+    <t>09548150L</t>
+  </si>
+  <si>
     <t>32541112811220000588</t>
   </si>
   <si>
+    <t>09548416X</t>
+  </si>
+  <si>
     <t>12548521518742146695</t>
   </si>
   <si>
@@ -981,6 +993,9 @@
     <t>31215643855060225021</t>
   </si>
   <si>
+    <t>09548443Q</t>
+  </si>
+  <si>
     <t>20960043013468900000</t>
   </si>
   <si>
@@ -1029,6 +1044,9 @@
     <t>65168874641561561500</t>
   </si>
   <si>
+    <t>09548295P</t>
+  </si>
+  <si>
     <t>36952365020014425254</t>
   </si>
   <si>
@@ -1071,6 +1089,9 @@
     <t>36585214290025478551</t>
   </si>
   <si>
+    <t>09785530J</t>
+  </si>
+  <si>
     <t>21651651812511133551</t>
   </si>
   <si>
@@ -1107,6 +1128,9 @@
     <t>X8996448K</t>
   </si>
   <si>
+    <t>09548827E</t>
+  </si>
+  <si>
     <t>66552211148855332200</t>
   </si>
   <si>
@@ -1206,27 +1230,42 @@
     <t>25894363475485700145</t>
   </si>
   <si>
+    <t>21584976902154655487</t>
+  </si>
+  <si>
     <t>23215465315456411515</t>
   </si>
   <si>
     <t>32566221522587754554</t>
   </si>
   <si>
+    <t>21564975243245467995</t>
+  </si>
+  <si>
     <t>Y1337652D</t>
   </si>
   <si>
     <t>21651484690980008984</t>
   </si>
   <si>
+    <t>20125003305201112544</t>
+  </si>
+  <si>
     <t>36520125638451012515</t>
   </si>
   <si>
     <t>24561937521546497521</t>
   </si>
   <si>
+    <t>32569523016220165156</t>
+  </si>
+  <si>
     <t>65614874165615445616</t>
   </si>
   <si>
+    <t>31645124473461205164</t>
+  </si>
+  <si>
     <t>Gerardo</t>
   </si>
   <si>
@@ -1269,310 +1308,274 @@
     <t>0945</t>
   </si>
   <si>
-    <t>09548416N</t>
-  </si>
-  <si>
-    <t>ssssssssssssssss</t>
-  </si>
-  <si>
-    <t>DIABLO</t>
-  </si>
-  <si>
-    <t>QUE PASOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
     <t>DIABLddddO LOCO</t>
   </si>
   <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>locura</t>
-  </si>
-  <si>
-    <t>GMM00@P2272621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>RFM00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>ALM00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>ALN00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>RGO00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>SDO00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>VDO00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>VBP00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>ABP00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>DDD00@DIABLddddO LOCOESTA MAL.com</t>
-  </si>
-  <si>
-    <t>ACP00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>LBP00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>AGP00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>LBR00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>SBR00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>AGR00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>DGR00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>PGS00@P2272621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CIS00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MQ00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>BV00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>PP00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>PC00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>GMM00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CGM00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>GMM00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CSN00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>ALO00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>TCP00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CCP00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CAP00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>SFP00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>ELR00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>DLR00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>HAR00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>SPR00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>GPR00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>SAS00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>BFS00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>DFG00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>GMG00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MLG00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>IAG00@P2272621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>IAG00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>GPG00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>RGG00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>APG00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>AFG00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>APM00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>GMM00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>LDM00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>AD00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>LR00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>LC00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>SBG00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>AFG00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>DGG00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>ROG00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>SOG00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>VVG00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>VMG00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MBG00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CBG00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MSH00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>FDL00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>SDM00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>EGM00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>GPM00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>EAM00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MMM00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MG00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>JAC00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>BDC00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>NGC00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MLC00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MH00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MLC00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CFC00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CGC00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>HSC00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>KSC00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MHC00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CLD00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MFD00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>FGD00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>IVC00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>DMC00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>EBC00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>NBC00@P2456841AESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MSC00@P2492876RESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MDC00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>MFC00@P2472621IESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CDD00@P2463928TESTA MAL.com</t>
-  </si>
-  <si>
-    <t>CGD00@P2418823CESTA MAL.com</t>
-  </si>
-  <si>
-    <t>HPD00@P2492876RESTA MAL.com</t>
+    <t>AD00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>LR00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>LC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>SBG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>AFG00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>DGG00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>ROG00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>SOG00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>VVG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>VMG00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>MBG00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>CBG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>MSH00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>FDL00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>SDM00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>EGM00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>GPM00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>EAM00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>MMM00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>MG00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>JAC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>BDC00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>NGC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>MLC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>MH00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>MLC00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>CFC00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>CGC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>HSC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>KSC00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>MHC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>CLD00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>MFD00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>FGD00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>GMM00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>IVC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>DMC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>EBC00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>NBC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>MSC00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>MDC00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>MFC00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>CDD00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>CGD00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>HPD00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>RFM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>ALM00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>ALN00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>RGO00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>SDO00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>VDO00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>VBP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>ABP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>MAP00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>ACP00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>LBP00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>AGP00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>LBR00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>SBR00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>AGR00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>DGR00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>PGS00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>CIS00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>MQ00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>BV00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>PP00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>PC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>GMM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>CGM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>CSN00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>ALO00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>TCP00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>CCP00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>CAP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>SFP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>ELR00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>DLR00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>HAR00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>SPR00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>GPR00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>SAS00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>BFS00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>DFG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>GMG00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>MLG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>IAG00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>GPG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>RGG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>APG00@APhonSA.com</t>
   </si>
 </sst>
 </file>
@@ -1987,21 +1990,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125"/>
-    <col min="12" max="12" style="2" width="11.42578125"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875"/>
+    <col min="12" max="12" style="2" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
@@ -2042,21 +2045,22 @@
         <v>61</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>416</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" t="s" s="0">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
@@ -2092,24 +2096,25 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>398</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" t="s" s="0">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>38</v>
@@ -2130,21 +2135,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>414</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="0">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>82</v>
@@ -2168,24 +2174,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>397</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="0">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>11</v>
@@ -2206,24 +2213,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>396</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s" s="0">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>10</v>
@@ -2244,15 +2252,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>415</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="0">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="E7" s="1">
         <v>43222</v>
@@ -2282,24 +2291,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>414</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" t="s" s="0">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>40</v>
@@ -2320,21 +2330,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>395</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="0">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>82</v>
@@ -2358,21 +2369,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="0">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>82</v>
@@ -2387,7 +2399,7 @@
         <v>121</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
@@ -2396,65 +2408,66 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>417</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>418</v>
+        <v>403</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>426</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>429</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>417</v>
+        <v>480</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41030</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>417</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>417</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>417</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>417</v>
+        <v>249</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>417</v>
+        <v>203</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>393</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="0">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>41</v>
@@ -2466,33 +2479,34 @@
         <v>127</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>392</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="0">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>10</v>
@@ -2513,24 +2527,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>386</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="0">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>11</v>
@@ -2545,30 +2560,37 @@
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="0">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>391</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="0">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>9</v>
@@ -2580,7 +2602,7 @@
         <v>34</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
@@ -2589,24 +2611,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>390</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="0">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>8</v>
@@ -2627,24 +2650,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>389</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="0">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>8</v>
@@ -2659,21 +2683,22 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>388</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="0">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="E19" s="1">
         <v>40909</v>
@@ -2703,15 +2728,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>387</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="0">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="E20" s="1">
         <v>40269</v>
@@ -2735,21 +2761,22 @@
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>386</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="0">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="E21" s="1">
         <v>43282</v>
@@ -2779,15 +2806,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>384</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="0">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="E22" s="1">
         <v>41306</v>
@@ -2814,65 +2842,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="0">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s" s="0">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>382</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="0">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s" s="0">
         <v>230</v>
@@ -2884,30 +2914,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>381</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="0">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s" s="0">
         <v>227</v>
@@ -2919,24 +2950,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="0">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>380</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="0">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>8</v>
@@ -2948,7 +2986,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
@@ -2957,24 +2995,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>379</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="0">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>12</v>
@@ -2995,15 +3034,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>378</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="0">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="E29" s="1">
         <v>35827</v>
@@ -3018,13 +3058,13 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>242</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
@@ -3033,24 +3073,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>377</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="0">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>38</v>
@@ -3065,21 +3106,22 @@
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>376</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="0">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="E31" s="1">
         <v>38139</v>
@@ -3094,7 +3136,7 @@
         <v>56</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>231</v>
@@ -3103,21 +3145,22 @@
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>375</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="0">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="E32" s="1">
         <v>37530</v>
@@ -3132,30 +3175,49 @@
         <v>11</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="0">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="0">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="0">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="E36" s="1">
         <v>35551</v>
@@ -3170,7 +3232,7 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s" s="0">
         <v>203</v>
@@ -3179,30 +3241,31 @@
         <v>205</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>370</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="0">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>39</v>
@@ -3223,21 +3286,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>369</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="0">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s" s="0">
         <v>82</v>
@@ -3255,27 +3319,28 @@
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>368</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="0">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s" s="0">
         <v>82</v>
@@ -3299,24 +3364,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>367</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="0">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s" s="0">
         <v>44</v>
@@ -3337,21 +3403,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="0">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>82</v>
@@ -3375,21 +3442,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>365</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="0">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G42" t="s" s="0">
         <v>82</v>
@@ -3407,27 +3475,28 @@
         <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>363</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="0">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s" s="0">
         <v>82</v>
@@ -3451,24 +3520,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>362</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="0">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>10</v>
@@ -3489,24 +3559,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>361</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="0">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>10</v>
@@ -3527,15 +3598,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>360</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="0">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="E46" s="1">
         <v>39052</v>
@@ -3565,21 +3637,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>359</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="0">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G47" t="s" s="0">
         <v>82</v>
@@ -3603,24 +3676,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="0">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>44</v>
@@ -3635,27 +3709,28 @@
         <v>189</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>357</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="0">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G49" t="s" s="0">
         <v>82</v>
@@ -3673,22 +3748,20 @@
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>462</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
@@ -3711,22 +3784,20 @@
         <v>198</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D51" t="s" s="0">
-        <v>463</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
@@ -3755,24 +3826,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D52" t="s" s="0">
-        <v>464</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H52" t="s" s="0">
         <v>11</v>
@@ -3793,24 +3862,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D53" t="s" s="0">
-        <v>465</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>9</v>
@@ -3831,24 +3898,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>466</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>9</v>
@@ -3863,21 +3928,22 @@
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>350</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="0">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="E55" s="1">
         <v>40330</v>
@@ -3901,30 +3967,55 @@
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="0">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="0">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="0">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>334</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="0">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>38</v>
@@ -3936,33 +4027,34 @@
         <v>233</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>346</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="0">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>56</v>
@@ -3974,30 +4066,31 @@
         <v>17</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>345</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="0">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G62" t="s" s="0">
         <v>82</v>
@@ -4012,30 +4105,31 @@
         <v>167</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>344</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="0">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>82</v>
@@ -4059,24 +4153,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>343</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="0">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H64" t="s" s="0">
         <v>10</v>
@@ -4094,24 +4189,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>342</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="0">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H65" t="s" s="0">
         <v>41</v>
@@ -4129,21 +4225,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="0">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G66" t="s" s="0">
         <v>82</v>
@@ -4155,7 +4252,7 @@
         <v>238</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>195</v>
@@ -4164,21 +4261,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="0">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G67" t="s" s="0">
         <v>82</v>
@@ -4196,30 +4294,31 @@
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>338</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="0">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H68" t="s" s="0">
         <v>9</v>
@@ -4234,30 +4333,31 @@
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>337</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="0">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H69" t="s" s="0">
         <v>11</v>
@@ -4278,24 +4378,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>336</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="0">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H70" t="s" s="0">
         <v>44</v>
@@ -4310,30 +4411,31 @@
         <v>223</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>334</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="0">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H71" t="s" s="0">
         <v>10</v>
@@ -4354,21 +4456,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>333</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="0">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G72" t="s" s="0">
         <v>82</v>
@@ -4392,24 +4495,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>332</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="0">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H73" t="s" s="0">
         <v>38</v>
@@ -4430,15 +4534,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>331</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="0">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="E74" s="1">
         <v>41061</v>
@@ -4468,21 +4573,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="0">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G75" t="s" s="0">
         <v>82</v>
@@ -4506,15 +4612,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>329</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="0">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="E76" s="1">
         <v>44044</v>
@@ -4535,33 +4642,34 @@
         <v>131</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="0">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H77" t="s" s="0">
         <v>44</v>
@@ -4573,30 +4681,31 @@
         <v>220</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>328</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="0">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G79" t="s" s="0">
         <v>82</v>
@@ -4620,21 +4729,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G80" t="s" s="0">
         <v>82</v>
@@ -4652,30 +4761,31 @@
         <v>173</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M80" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>327</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="0">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H81" t="s" s="0">
         <v>45</v>
@@ -4696,21 +4806,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>326</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="0">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G82" t="s" s="0">
         <v>82</v>
@@ -4734,24 +4845,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H83" t="s" s="0">
         <v>43</v>
@@ -4763,24 +4874,25 @@
         <v>183</v>
       </c>
       <c r="K83" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>325</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="0">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="E84" s="1">
         <v>41730</v>
@@ -4798,30 +4910,37 @@
         <v>28</v>
       </c>
       <c r="K84" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="0">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>323</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="0">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G86" t="s" s="0">
         <v>82</v>
@@ -4836,7 +4955,7 @@
         <v>160</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>199</v>
@@ -4845,24 +4964,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>322</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="0">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H87" t="s" s="0">
         <v>9</v>
@@ -4883,21 +5003,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>321</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="0">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G88" t="s" s="0">
         <v>82</v>
@@ -4909,10 +5030,10 @@
         <v>28</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>219</v>
@@ -4921,24 +5042,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>320</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="0">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H89" t="s" s="0">
         <v>10</v>
@@ -4947,36 +5069,37 @@
         <v>145</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K89" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>319</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="0">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H90" t="s" s="0">
         <v>41</v>
@@ -4988,30 +5111,31 @@
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>318</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="0">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H91" t="s" s="0">
         <v>8</v>
@@ -5032,24 +5156,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>317</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="0">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H92" t="s" s="0">
         <v>8</v>
@@ -5070,24 +5195,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>316</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="0">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H93" t="s" s="0">
         <v>56</v>
@@ -5102,30 +5228,31 @@
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="0">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
       <c r="F94" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H94" t="s" s="0">
         <v>8</v>
@@ -5143,15 +5270,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="0">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="E95" s="1">
         <v>39661</v>
@@ -5175,30 +5303,54 @@
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="0">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="0">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="0">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="0">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H102" t="s" s="0">
         <v>12</v>
@@ -5219,24 +5371,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D103" t="s" s="0">
-        <v>502</v>
+        <v>285</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H103" t="s" s="0">
         <v>45</v>
@@ -5251,22 +5400,20 @@
         <v>151</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M103" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D104" t="s" s="0">
-        <v>503</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
@@ -5286,7 +5433,7 @@
         <v>148</v>
       </c>
       <c r="K104" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>163</v>
@@ -5295,21 +5442,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D105" t="s" s="0">
-        <v>504</v>
+        <v>382</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G105" t="s" s="0">
         <v>82</v>
@@ -5324,24 +5468,21 @@
         <v>114</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" t="s" s="0">
-        <v>445</v>
+        <v>284</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
@@ -5356,7 +5497,7 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="J106" t="s" s="0">
         <v>17</v>
@@ -5365,27 +5506,24 @@
         <v>134</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D127" t="s" s="0">
-        <v>505</v>
+        <v>313</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
       <c r="F127" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G127" t="s" s="0">
         <v>82</v>
@@ -5397,36 +5535,33 @@
         <v>31</v>
       </c>
       <c r="J127" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K127" t="s" s="0">
         <v>196</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M127" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D128" t="s" s="0">
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
       <c r="F128" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G128" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H128" t="s" s="0">
         <v>45</v>
@@ -5435,7 +5570,7 @@
         <v>141</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K128" t="s" s="0">
         <v>157</v>
@@ -5447,24 +5582,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D129" t="s" s="0">
-        <v>507</v>
+        <v>329</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
       <c r="F129" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G129" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H129" t="s" s="0">
         <v>39</v>
@@ -5473,33 +5605,30 @@
         <v>243</v>
       </c>
       <c r="J129" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K129" t="s" s="0">
         <v>166</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D130" t="s" s="0">
-        <v>508</v>
+        <v>316</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
       <c r="F130" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G130" t="s" s="0">
         <v>82</v>
@@ -5514,33 +5643,30 @@
         <v>103</v>
       </c>
       <c r="K130" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D131" t="s" s="0">
-        <v>509</v>
+        <v>315</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
       <c r="F131" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G131" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H131" t="s" s="0">
         <v>41</v>
@@ -5549,10 +5675,10 @@
         <v>214</v>
       </c>
       <c r="J131" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K131" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>142</v>
@@ -5561,16 +5687,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D132" t="s" s="0">
-        <v>510</v>
-      </c>
       <c r="E132" s="1">
         <v>40909</v>
       </c>
@@ -5587,7 +5710,7 @@
         <v>229</v>
       </c>
       <c r="J132" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K132" t="s" s="0">
         <v>22</v>
@@ -5599,15 +5722,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D133" t="s" s="0">
-        <v>511</v>
+        <v>354</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
@@ -5637,24 +5757,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D134" t="s" s="0">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
       <c r="F134" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G134" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H134" t="s" s="0">
         <v>9</v>
@@ -5675,24 +5792,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D135" t="s" s="0">
-        <v>513</v>
+        <v>381</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
       <c r="F135" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G135" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H135" t="s" s="0">
         <v>8</v>
@@ -5710,24 +5824,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D136" t="s" s="0">
-        <v>514</v>
+        <v>380</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G136" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H136" t="s" s="0">
         <v>10</v>
@@ -5761,18 +5872,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125"/>
     <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.85546875"/>
+    <col min="7" max="7" customWidth="true" width="15.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
@@ -5783,7 +5894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>12500</v>
       </c>
@@ -5794,7 +5905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -5805,7 +5916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -5816,7 +5927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>19000</v>
       </c>
@@ -5827,7 +5938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>26000</v>
       </c>
@@ -5838,7 +5949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>17500</v>
       </c>
@@ -5849,7 +5960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>21000</v>
       </c>
@@ -5860,7 +5971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>31000</v>
       </c>
@@ -5871,7 +5982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>12500</v>
       </c>
@@ -5882,7 +5993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>14500</v>
       </c>
@@ -5893,7 +6004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>20500</v>
       </c>
@@ -5904,7 +6015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>16500</v>
       </c>
@@ -5915,7 +6026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>11000</v>
       </c>
@@ -5926,7 +6037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>31000</v>
       </c>
@@ -5950,13 +6061,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" width="18.28515625"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
@@ -5964,7 +6075,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -5972,7 +6083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -5980,7 +6091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -5988,7 +6099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -5996,7 +6107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -6004,7 +6115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -6012,7 +6123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -6020,7 +6131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -6028,7 +6139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -6036,7 +6147,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -6044,7 +6155,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -6052,7 +6163,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -6060,7 +6171,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -6068,7 +6179,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -6076,7 +6187,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -6084,7 +6195,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>16</v>
       </c>
@@ -6092,7 +6203,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>17</v>
       </c>
@@ -6100,7 +6211,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>18</v>
       </c>
@@ -6121,13 +6232,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.42578125"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125"/>
+    <col min="6" max="6" customWidth="true" width="41.44140625"/>
+    <col min="8" max="8" customWidth="true" width="41.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
@@ -6141,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>12000</v>
       </c>
@@ -6155,7 +6266,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -6169,7 +6280,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -6183,7 +6294,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>15000</v>
       </c>
@@ -6197,7 +6308,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>16000</v>
       </c>
@@ -6211,7 +6322,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>17000</v>
       </c>
@@ -6225,7 +6336,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>18000</v>
       </c>
@@ -6239,7 +6350,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>19000</v>
       </c>
@@ -6247,13 +6358,13 @@
         <v>11.75</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>20000</v>
       </c>
@@ -6261,13 +6372,13 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>21000</v>
       </c>
@@ -6275,7 +6386,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>22000</v>
       </c>
@@ -6283,7 +6394,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>23000</v>
       </c>
@@ -6291,7 +6402,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>24000</v>
       </c>
@@ -6299,7 +6410,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>25000</v>
       </c>
@@ -6307,7 +6418,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>26000</v>
       </c>
@@ -6315,7 +6426,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>27000</v>
       </c>
@@ -6323,7 +6434,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>28000</v>
       </c>
@@ -6331,7 +6442,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>29000</v>
       </c>
@@ -6339,7 +6450,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>30000</v>
       </c>
@@ -6347,7 +6458,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>31000</v>
       </c>
@@ -6355,7 +6466,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>32000</v>
       </c>
@@ -6363,7 +6474,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>33000</v>
       </c>
@@ -6371,7 +6482,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>34000</v>
       </c>
@@ -6379,7 +6490,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>35000</v>
       </c>
@@ -6387,7 +6498,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>36000</v>
       </c>
@@ -6395,7 +6506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>37000</v>
       </c>
@@ -6403,7 +6514,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>38000</v>
       </c>
@@ -6411,7 +6522,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>39000</v>
       </c>
@@ -6419,7 +6530,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>40000</v>
       </c>
@@ -6427,7 +6538,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>41000</v>
       </c>
@@ -6435,7 +6546,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>42000</v>
       </c>
@@ -6443,7 +6554,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>43000</v>
       </c>
@@ -6451,7 +6562,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>44000</v>
       </c>
@@ -6459,7 +6570,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>45000</v>
       </c>
@@ -6467,7 +6578,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>46000</v>
       </c>
@@ -6475,7 +6586,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>47000</v>
       </c>
@@ -6483,7 +6594,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>48000</v>
       </c>
@@ -6491,7 +6602,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>49000</v>
       </c>
@@ -6499,7 +6610,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>50000</v>
       </c>
@@ -6507,7 +6618,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>51000</v>
       </c>
@@ -6515,7 +6626,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>52000</v>
       </c>
@@ -6523,7 +6634,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="0">
         <v>53000</v>
       </c>
@@ -6531,7 +6642,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="0">
         <v>54000</v>
       </c>
@@ -6539,7 +6650,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="0">
         <v>55000</v>
       </c>
@@ -6547,7 +6658,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="0">
         <v>56000</v>
       </c>
@@ -6555,7 +6666,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="0">
         <v>57000</v>
       </c>
@@ -6563,7 +6674,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="0">
         <v>58000</v>
       </c>
@@ -6571,7 +6682,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="0">
         <v>59000</v>
       </c>
@@ -6579,7 +6690,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="0">
         <v>60000</v>
       </c>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FBB9-9941-4C6C-AB7A-86454904C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E20BEAB-7E96-4838-BE6D-2F7700EBC461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="623">
   <si>
     <t>Nombre</t>
   </si>
@@ -423,6 +423,9 @@
     <t>Salas</t>
   </si>
   <si>
+    <t>09719898Y</t>
+  </si>
+  <si>
     <t>Herreras</t>
   </si>
   <si>
@@ -540,6 +543,9 @@
     <t>Emiliano</t>
   </si>
   <si>
+    <t>09738010V</t>
+  </si>
+  <si>
     <t>Encarnación</t>
   </si>
   <si>
@@ -600,6 +606,9 @@
     <t>Germán</t>
   </si>
   <si>
+    <t>09314602Q</t>
+  </si>
+  <si>
     <t>Riverto</t>
   </si>
   <si>
@@ -825,6 +834,9 @@
     <t>Centeno</t>
   </si>
   <si>
+    <t>X3607387K</t>
+  </si>
+  <si>
     <t>José Antonio</t>
   </si>
   <si>
@@ -1227,6 +1239,9 @@
     <t>96431245118150005156</t>
   </si>
   <si>
+    <t>09458455Y</t>
+  </si>
+  <si>
     <t>25894363475485700145</t>
   </si>
   <si>
@@ -1293,22 +1308,151 @@
     <t>MEI TRABAJADOR</t>
   </si>
   <si>
-    <t>19898Y</t>
-  </si>
-  <si>
-    <t>ss738010V</t>
-  </si>
-  <si>
-    <t>X3387K</t>
-  </si>
-  <si>
-    <t>w9314602Q</t>
-  </si>
-  <si>
-    <t>0945</t>
-  </si>
-  <si>
-    <t>DIABLddddO LOCO</t>
+    <t>GMM00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>RFM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>ALM00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>ALN00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>RGO00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>SDO00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>VDO00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>VBP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>ABP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>MAP00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>ACP00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>LBP00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>AGP00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>LBR00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>SBR00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>AGR00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>DGR00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>PGS00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>CIS00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>MQ00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>BV00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>PP00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>PC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>GMM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>CGM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>CSN00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>ALO00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>TCP00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>CCP00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>CAP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>SFP00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>ELR00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>DLR00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>HAR00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>SPR00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>GPR00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>SAS00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>BFS00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>DFG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>GMG00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>MLG00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>IAG00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>GPG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>RGG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>APG00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>AFG00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>APM00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>GMM00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>LDM00@TecnoProyectSL.com</t>
   </si>
   <si>
     <t>AD00@APhonSA.com</t>
@@ -1413,9 +1557,6 @@
     <t>FGD00@TecnoProyectSL.com</t>
   </si>
   <si>
-    <t>GMM00@TecnoLeonSL.com</t>
-  </si>
-  <si>
     <t>IVC00@TecnoProyectSL.com</t>
   </si>
   <si>
@@ -1446,136 +1587,316 @@
     <t>HPD00@PBlankSA.com</t>
   </si>
   <si>
-    <t>RFM00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>ALM00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>ALN00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>RGO00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>SDO00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>VDO00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>VBP00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>ABP00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>MAP00@PBlankSA.com</t>
-  </si>
-  <si>
-    <t>ACP00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>LBP00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>AGP00@PBlankSA.com</t>
-  </si>
-  <si>
-    <t>LBR00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>SBR00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>AGR00@PBlankSA.com</t>
-  </si>
-  <si>
-    <t>DGR00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>PGS00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>CIS00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>MQ00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>BV00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>PP00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>PC00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>GMM00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>CGM00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>CSN00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>ALO00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>TCP00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>CCP00@PBlankSA.com</t>
-  </si>
-  <si>
-    <t>CAP00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>SFP00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>ELR00@PBlankSA.com</t>
-  </si>
-  <si>
-    <t>DLR00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>HAR00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>SPR00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>GPR00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>SAS00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>BFS00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>DFG00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>GMG00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>MLG00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>IAG00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>GPG00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>RGG00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>APG00@APhonSA.com</t>
+    <t>DK7331645124473461205164</t>
+  </si>
+  <si>
+    <t>ES8265614874165615445616</t>
+  </si>
+  <si>
+    <t>RO8832569523016220165156</t>
+  </si>
+  <si>
+    <t>DE7424561937521546497521</t>
+  </si>
+  <si>
+    <t>MC6436520125638451012515</t>
+  </si>
+  <si>
+    <t>ES721584976902154655487</t>
+  </si>
+  <si>
+    <t>GR9420125003305201112544</t>
+  </si>
+  <si>
+    <t>ES2821651484690980008984</t>
+  </si>
+  <si>
+    <t>FI5620960043043554600000</t>
+  </si>
+  <si>
+    <t>ES7921564975243245467995</t>
+  </si>
+  <si>
+    <t>LT8032566221522587754554</t>
+  </si>
+  <si>
+    <t>EE2023215465315456411515</t>
+  </si>
+  <si>
+    <t>BE9400750184310702510000</t>
+  </si>
+  <si>
+    <t>SM2125894363475485700145</t>
+  </si>
+  <si>
+    <t>ES9596431245118150005156</t>
+  </si>
+  <si>
+    <t>AT6825030000114574745458</t>
+  </si>
+  <si>
+    <t>IT8915953684811254695203</t>
+  </si>
+  <si>
+    <t>ES9020960043023096200000</t>
+  </si>
+  <si>
+    <t>DK5800750184310702510000</t>
+  </si>
+  <si>
+    <t>ES5023455254943263234457</t>
+  </si>
+  <si>
+    <t>GR4920910936583000000000</t>
+  </si>
+  <si>
+    <t>ES3720960043032159000000</t>
+  </si>
+  <si>
+    <t>DE5512669681115112121210</t>
+  </si>
+  <si>
+    <t>ES2956187775315550000651</t>
+  </si>
+  <si>
+    <t>ES425516848021156151054</t>
+  </si>
+  <si>
+    <t>PT5764578946740051516490</t>
+  </si>
+  <si>
+    <t>ES4534698752714600549403</t>
+  </si>
+  <si>
+    <t>ES2766649444162310000255</t>
+  </si>
+  <si>
+    <t>FR5623185484465641685100</t>
+  </si>
+  <si>
+    <t>DE5021508149175421346497</t>
+  </si>
+  <si>
+    <t>DE6721346154503164978451</t>
+  </si>
+  <si>
+    <t>ES7225187786311225455548</t>
+  </si>
+  <si>
+    <t>ES4723164897642213030615</t>
+  </si>
+  <si>
+    <t>ES2396536214865214585214</t>
+  </si>
+  <si>
+    <t>ES6885461325251978750005</t>
+  </si>
+  <si>
+    <t>FI5024587946032003165464</t>
+  </si>
+  <si>
+    <t>ES5020960043073071400000</t>
+  </si>
+  <si>
+    <t>ES8220960043042158800000</t>
+  </si>
+  <si>
+    <t>ES7521654587985156484454</t>
+  </si>
+  <si>
+    <t>ES3251651681961210656510</t>
+  </si>
+  <si>
+    <t>ES5566552211148855332200</t>
+  </si>
+  <si>
+    <t>GB9720910936583000000000</t>
+  </si>
+  <si>
+    <t>DE9301821135910205540000</t>
+  </si>
+  <si>
+    <t>DE7822631245526916432102</t>
+  </si>
+  <si>
+    <t>ES2120960043043075700000</t>
+  </si>
+  <si>
+    <t>SM7325635478321002541225</t>
+  </si>
+  <si>
+    <t>ES6832154697195423121000</t>
+  </si>
+  <si>
+    <t>GR3836521452736500658485</t>
+  </si>
+  <si>
+    <t>GB5520008521528775113366</t>
+  </si>
+  <si>
+    <t>ES8020960043033000100000</t>
+  </si>
+  <si>
+    <t>GB836585214290025478551</t>
+  </si>
+  <si>
+    <t>ES9012548523465214585214</t>
+  </si>
+  <si>
+    <t>ES6931624561042546920007</t>
+  </si>
+  <si>
+    <t>ES1436154231712500312566</t>
+  </si>
+  <si>
+    <t>ES8244875664127231645789</t>
+  </si>
+  <si>
+    <t>ES7920960031442124800000</t>
+  </si>
+  <si>
+    <t>ES1633620012937852100256</t>
+  </si>
+  <si>
+    <t>ES1933218885441445121022</t>
+  </si>
+  <si>
+    <t>ES8462581542713690044508</t>
+  </si>
+  <si>
+    <t>ES3925165151118666365100</t>
+  </si>
+  <si>
+    <t>PT3536952365020014425254</t>
+  </si>
+  <si>
+    <t>ES9565168874641561561500</t>
+  </si>
+  <si>
+    <t>ES3220960583831234500000</t>
+  </si>
+  <si>
+    <t>ES7221416325811510005514</t>
+  </si>
+  <si>
+    <t>LU932628484504115151115</t>
+  </si>
+  <si>
+    <t>ES3020960056163231500000</t>
+  </si>
+  <si>
+    <t>ES8163516541828944000984</t>
+  </si>
+  <si>
+    <t>ES4623658965214585223202</t>
+  </si>
+  <si>
+    <t>FI6132658012367712548745</t>
+  </si>
+  <si>
+    <t>ES7223652365142254222000</t>
+  </si>
+  <si>
+    <t>FR5720012541100023365233</t>
+  </si>
+  <si>
+    <t>ES9232584216971684051000</t>
+  </si>
+  <si>
+    <t>ES7395485212315484010000</t>
+  </si>
+  <si>
+    <t>LT9321856333126985542360</t>
+  </si>
+  <si>
+    <t>ES5736245978133245679001</t>
+  </si>
+  <si>
+    <t>ES7631245164156597845124</t>
+  </si>
+  <si>
+    <t>SM4423221158252545471411</t>
+  </si>
+  <si>
+    <t>SE6832574512085411002255</t>
+  </si>
+  <si>
+    <t>ES4420960043013468900000</t>
+  </si>
+  <si>
+    <t>ES5631215643855060225021</t>
+  </si>
+  <si>
+    <t>AT3285550564726165145610</t>
+  </si>
+  <si>
+    <t>ES1665165654918886005001</t>
+  </si>
+  <si>
+    <t>AT8065645150005168448896</t>
+  </si>
+  <si>
+    <t>IT8626551681877651415636</t>
+  </si>
+  <si>
+    <t>HU2399558741836555551120</t>
+  </si>
+  <si>
+    <t>ES4352198484752100515144</t>
+  </si>
+  <si>
+    <t>IE951556584121251000254</t>
+  </si>
+  <si>
+    <t>DK9032541112811220000588</t>
+  </si>
+  <si>
+    <t>LT7862541122001110105611</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>ES9001826530120201560000</t>
+  </si>
+  <si>
+    <t>ES9021651651812511133551</t>
+  </si>
+  <si>
+    <t>ES6851651487910005118185</t>
+  </si>
+  <si>
+    <t>CZ9536250012804785523365</t>
+  </si>
+  <si>
+    <t>AT3122515651915640081000</t>
+  </si>
+  <si>
+    <t>20960056133231500000</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>20012541150023365233</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
   </si>
 </sst>
 </file>
@@ -1990,21 +2311,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875"/>
-    <col min="12" max="12" style="2" width="11.44140625"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125"/>
+    <col min="12" max="12" style="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
@@ -2045,22 +2366,24 @@
         <v>61</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="D2" t="s" s="0">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
@@ -2075,16 +2398,16 @@
         <v>38</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>46</v>
@@ -2096,37 +2419,39 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="D3" t="s" s="0">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>38</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>119</v>
@@ -2135,22 +2460,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="D4" t="s" s="0">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>82</v>
@@ -2162,7 +2489,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>47</v>
@@ -2174,25 +2501,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="D5" t="s" s="0">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>11</v>
@@ -2207,43 +2536,45 @@
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="D6" t="s" s="0">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
@@ -2252,16 +2583,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>524</v>
+      </c>
       <c r="D7" t="s" s="0">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="E7" s="1">
         <v>43222</v>
@@ -2279,10 +2612,10 @@
         <v>114</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>99</v>
@@ -2291,25 +2624,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="D8" t="s" s="0">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>40</v>
@@ -2318,34 +2653,36 @@
         <v>114</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="D9" t="s" s="0">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>82</v>
@@ -2363,28 +2700,30 @@
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="D10" t="s" s="0">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>82</v>
@@ -2399,7 +2738,7 @@
         <v>121</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
@@ -2408,66 +2747,68 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>426</v>
+        <v>408</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>40</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="D12" t="s" s="0">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>41</v>
@@ -2479,73 +2820,77 @@
         <v>127</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>530</v>
+      </c>
       <c r="D13" t="s" s="0">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>27</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="D14" t="s" s="0">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>11</v>
@@ -2560,37 +2905,41 @@
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>421</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="D15" t="s" s="0">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>533</v>
+      </c>
       <c r="D16" t="s" s="0">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>9</v>
@@ -2602,7 +2951,7 @@
         <v>34</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
@@ -2611,25 +2960,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>534</v>
+      </c>
       <c r="D17" t="s" s="0">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>8</v>
@@ -2644,31 +2995,33 @@
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="D18" t="s" s="0">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>8</v>
@@ -2677,28 +3030,30 @@
         <v>28</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>536</v>
+      </c>
       <c r="D19" t="s" s="0">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="E19" s="1">
         <v>40909</v>
@@ -2716,28 +3071,30 @@
         <v>124</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="D20" t="s" s="0">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="E20" s="1">
         <v>40269</v>
@@ -2761,22 +3118,24 @@
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="D21" t="s" s="0">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="E21" s="1">
         <v>43282</v>
@@ -2791,31 +3150,33 @@
         <v>8</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>95</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="D22" t="s" s="0">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="E22" s="1">
         <v>41306</v>
@@ -2830,118 +3191,124 @@
         <v>11</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>540</v>
+      </c>
       <c r="D23" t="s" s="0">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s" s="0">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>541</v>
+      </c>
       <c r="D24" t="s" s="0">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="D25" t="s" s="0">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
@@ -2950,31 +3317,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>543</v>
+      </c>
       <c r="D26" t="s" s="0">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="D27" t="s" s="0">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>8</v>
@@ -2986,7 +3357,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
@@ -2995,25 +3366,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="D28" t="s" s="0">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>12</v>
@@ -3022,28 +3395,30 @@
         <v>28</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s" s="0">
         <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>546</v>
+      </c>
       <c r="D29" t="s" s="0">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="E29" s="1">
         <v>35827</v>
@@ -3058,13 +3433,13 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
@@ -3073,25 +3448,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>547</v>
+      </c>
       <c r="D30" t="s" s="0">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>38</v>
@@ -3106,22 +3483,24 @@
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="D31" t="s" s="0">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="E31" s="1">
         <v>38139</v>
@@ -3136,31 +3515,33 @@
         <v>56</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s" s="0">
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>549</v>
+      </c>
       <c r="D32" t="s" s="0">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="E32" s="1">
         <v>37530</v>
@@ -3175,49 +3556,57 @@
         <v>11</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="D33" t="s" s="0">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="D34" t="s" s="0">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="2"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="D35" t="s" s="0">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="D36" t="s" s="0">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="E36" s="1">
         <v>35551</v>
@@ -3232,40 +3621,42 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="D37" t="s" s="0">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>39</v>
@@ -3277,31 +3668,33 @@
         <v>127</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M37" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="D38" t="s" s="0">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s" s="0">
         <v>82</v>
@@ -3319,28 +3712,30 @@
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="D39" t="s" s="0">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s" s="0">
         <v>82</v>
@@ -3349,7 +3744,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J39" t="s" s="0">
         <v>27</v>
@@ -3364,25 +3759,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="D40" t="s" s="0">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H40" t="s" s="0">
         <v>44</v>
@@ -3391,34 +3788,36 @@
         <v>115</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M40" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="D41" t="s" s="0">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>82</v>
@@ -3433,31 +3832,33 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M41" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="D42" t="s" s="0">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s" s="0">
         <v>82</v>
@@ -3466,37 +3867,39 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>34</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="D43" t="s" s="0">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s" s="0">
         <v>82</v>
@@ -3508,37 +3911,39 @@
         <v>111</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M43" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="D44" t="s" s="0">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>10</v>
@@ -3547,37 +3952,39 @@
         <v>111</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="D45" t="s" s="0">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>10</v>
@@ -3589,25 +3996,27 @@
         <v>130</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>563</v>
+      </c>
       <c r="D46" t="s" s="0">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="E46" s="1">
         <v>39052</v>
@@ -3622,7 +4031,7 @@
         <v>11</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J46" t="s" s="0">
         <v>95</v>
@@ -3631,28 +4040,30 @@
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="D47" t="s" s="0">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G47" t="s" s="0">
         <v>82</v>
@@ -3667,70 +4078,74 @@
         <v>28</v>
       </c>
       <c r="K47" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="M47" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>565</v>
+      </c>
       <c r="D48" t="s" s="0">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J48" t="s" s="0">
         <v>28</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>566</v>
+      </c>
       <c r="D49" t="s" s="0">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G49" t="s" s="0">
         <v>82</v>
@@ -3748,20 +4163,25 @@
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>471</v>
+      </c>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
@@ -3775,29 +4195,34 @@
         <v>9</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>472</v>
+      </c>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
@@ -3811,37 +4236,42 @@
         <v>8</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J51" t="s" s="0">
         <v>124</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>473</v>
+      </c>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H52" t="s" s="0">
         <v>11</v>
@@ -3853,31 +4283,36 @@
         <v>124</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M52" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>428</v>
+      </c>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>9</v>
@@ -3889,31 +4324,36 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M53" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>474</v>
+      </c>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>9</v>
@@ -3922,28 +4362,30 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K54" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>422</v>
+        <v>171</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="D55" t="s" s="0">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="E55" s="1">
         <v>40330</v>
@@ -3958,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J55" t="s" s="0">
         <v>123</v>
@@ -3967,55 +4409,65 @@
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C56" s="2"/>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="D56" t="s" s="0">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="D57" t="s" s="0">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>575</v>
+      </c>
       <c r="D58" t="s" s="0">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="2"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="D59" t="s" s="0">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>577</v>
+      </c>
       <c r="D60" t="s" s="0">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>38</v>
@@ -4024,73 +4476,77 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="D61" t="s" s="0">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>56</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J61" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>568</v>
+      </c>
       <c r="D62" t="s" s="0">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G62" t="s" s="0">
         <v>82</v>
@@ -4102,34 +4558,36 @@
         <v>115</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="D63" t="s" s="0">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>82</v>
@@ -4138,13 +4596,13 @@
         <v>9</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
@@ -4153,61 +4611,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>580</v>
+      </c>
       <c r="D64" t="s" s="0">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H64" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K64" t="s" s="0">
         <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M64" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="D65" t="s" s="0">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H65" t="s" s="0">
         <v>41</v>
@@ -4225,22 +4687,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>582</v>
+      </c>
       <c r="D66" t="s" s="0">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G66" t="s" s="0">
         <v>82</v>
@@ -4249,34 +4713,36 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M66" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="D67" t="s" s="0">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G67" t="s" s="0">
         <v>82</v>
@@ -4294,31 +4760,33 @@
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="D68" t="s" s="0">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H68" t="s" s="0">
         <v>9</v>
@@ -4333,31 +4801,33 @@
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>585</v>
+      </c>
       <c r="D69" t="s" s="0">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H69" t="s" s="0">
         <v>11</v>
@@ -4369,7 +4839,7 @@
         <v>100</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>112</v>
@@ -4378,100 +4848,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="D70" t="s" s="0">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H70" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I70" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J70" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K70" t="s" s="0">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="D71" t="s" s="0">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H71" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I71" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J71" t="s" s="0">
         <v>124</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M71" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="D72" t="s" s="0">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G72" t="s" s="0">
         <v>82</v>
@@ -4489,37 +4965,39 @@
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M72" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="D73" t="s" s="0">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H73" t="s" s="0">
         <v>38</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J73" t="s" s="0">
         <v>78</v>
@@ -4528,22 +5006,24 @@
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M73" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>590</v>
+      </c>
       <c r="D74" t="s" s="0">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="E74" s="1">
         <v>41061</v>
@@ -4558,37 +5038,39 @@
         <v>10</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J74" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K74" t="s" s="0">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M74" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="D75" t="s" s="0">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G75" t="s" s="0">
         <v>82</v>
@@ -4603,25 +5085,27 @@
         <v>123</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M75" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>592</v>
+      </c>
       <c r="D76" t="s" s="0">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="E76" s="1">
         <v>44044</v>
@@ -4636,76 +5120,80 @@
         <v>11</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J76" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>593</v>
+      </c>
       <c r="D77" t="s" s="0">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H77" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I77" t="s" s="0">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J77" t="s" s="0">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>423</v>
+        <v>268</v>
       </c>
       <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>594</v>
+      </c>
       <c r="D79" t="s" s="0">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G79" t="s" s="0">
         <v>82</v>
@@ -4717,10 +5205,10 @@
         <v>118</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K79" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>104</v>
@@ -4729,21 +5217,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>595</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G80" t="s" s="0">
         <v>82</v>
@@ -4755,49 +5246,51 @@
         <v>28</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K80" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M80" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>596</v>
+      </c>
       <c r="D81" t="s" s="0">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H81" t="s" s="0">
         <v>45</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J81" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K81" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>110</v>
@@ -4806,22 +5299,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>597</v>
+      </c>
       <c r="D82" t="s" s="0">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G82" t="s" s="0">
         <v>82</v>
@@ -4830,39 +5325,42 @@
         <v>39</v>
       </c>
       <c r="I82" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J82" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K82" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M82" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>598</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H83" t="s" s="0">
         <v>43</v>
@@ -4871,28 +5369,30 @@
         <v>98</v>
       </c>
       <c r="J83" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K83" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>424</v>
+        <v>192</v>
       </c>
       <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>599</v>
+      </c>
       <c r="D84" t="s" s="0">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="E84" s="1">
         <v>41730</v>
@@ -4910,37 +5410,41 @@
         <v>28</v>
       </c>
       <c r="K84" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C85" s="2"/>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="D85" t="s" s="0">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>619</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>601</v>
+      </c>
       <c r="D86" t="s" s="0">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G86" t="s" s="0">
         <v>82</v>
@@ -4952,73 +5456,77 @@
         <v>26</v>
       </c>
       <c r="J86" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M86" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>602</v>
+      </c>
       <c r="D87" t="s" s="0">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H87" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I87" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J87" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K87" t="s" s="0">
         <v>102</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M87" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>603</v>
+      </c>
       <c r="D88" t="s" s="0">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G88" t="s" s="0">
         <v>82</v>
@@ -5030,112 +5538,118 @@
         <v>28</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M88" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>604</v>
+      </c>
       <c r="D89" t="s" s="0">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H89" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I89" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K89" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="D90" t="s" s="0">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H90" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I90" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K90" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="D91" t="s" s="0">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H91" t="s" s="0">
         <v>8</v>
@@ -5144,37 +5658,39 @@
         <v>115</v>
       </c>
       <c r="J91" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K91" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M91" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="D92" t="s" s="0">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H92" t="s" s="0">
         <v>8</v>
@@ -5183,76 +5699,80 @@
         <v>24</v>
       </c>
       <c r="J92" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K92" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M92" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="D93" t="s" s="0">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H93" t="s" s="0">
         <v>56</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J93" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K93" t="s" s="0">
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>609</v>
+      </c>
       <c r="D94" t="s" s="0">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
       <c r="F94" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H94" t="s" s="0">
         <v>8</v>
@@ -5264,22 +5784,24 @@
         <v>33</v>
       </c>
       <c r="K94" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M94" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>610</v>
+      </c>
       <c r="D95" t="s" s="0">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="E95" s="1">
         <v>39661</v>
@@ -5303,66 +5825,77 @@
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C96" s="2"/>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="D96" t="s" s="0">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C97" s="2"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>612</v>
+      </c>
       <c r="D97" t="s" s="0">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C98" s="2"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>613</v>
+      </c>
       <c r="D98" t="s" s="0">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C100" s="2"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="D100" t="s" s="0">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>287</v>
+      <c r="C102" t="s" s="2">
+        <v>615</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H102" t="s" s="0">
         <v>12</v>
       </c>
       <c r="I102" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J102" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K102" t="s" s="0">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
@@ -5371,21 +5904,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H103" t="s" s="0">
         <v>45</v>
@@ -5397,21 +5930,21 @@
         <v>25</v>
       </c>
       <c r="K103" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M103" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C104" s="2"/>
       <c r="E104" s="1">
@@ -5430,30 +5963,30 @@
         <v>24</v>
       </c>
       <c r="J104" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K104" t="s" s="0">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M104" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G105" t="s" s="0">
         <v>82</v>
@@ -5462,27 +5995,27 @@
         <v>43</v>
       </c>
       <c r="I105" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J105" t="s" s="0">
         <v>114</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
@@ -5497,33 +6030,33 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J106" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K106" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
       <c r="F127" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G127" t="s" s="0">
         <v>82</v>
@@ -5535,45 +6068,45 @@
         <v>31</v>
       </c>
       <c r="J127" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K127" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M127" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
       <c r="F128" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G128" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H128" t="s" s="0">
         <v>45</v>
       </c>
       <c r="I128" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K128" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
@@ -5582,53 +6115,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
       <c r="F129" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G129" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H129" t="s" s="0">
         <v>39</v>
       </c>
       <c r="I129" t="s" s="0">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J129" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K129" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
       <c r="F130" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G130" t="s" s="0">
         <v>82</v>
@@ -5643,51 +6176,51 @@
         <v>103</v>
       </c>
       <c r="K130" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
       <c r="F131" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G131" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H131" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I131" t="s" s="0">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J131" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K131" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M131" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
@@ -5707,27 +6240,27 @@
         <v>9</v>
       </c>
       <c r="I132" t="s" s="0">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J132" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K132" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M132" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
@@ -5757,21 +6290,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
       <c r="F134" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G134" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H134" t="s" s="0">
         <v>9</v>
@@ -5783,30 +6316,30 @@
         <v>25</v>
       </c>
       <c r="K134" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M134" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
       <c r="F135" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G135" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H135" t="s" s="0">
         <v>8</v>
@@ -5815,7 +6348,7 @@
         <v>28</v>
       </c>
       <c r="J135" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K135" t="s" s="0">
         <v>113</v>
@@ -5824,36 +6357,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G136" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H136" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I136" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J136" t="s" s="0">
         <v>114</v>
       </c>
       <c r="K136" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M136" t="s" s="0">
         <v>19</v>
@@ -5872,18 +6405,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625"/>
     <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.88671875"/>
+    <col min="7" max="7" customWidth="true" width="15.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
@@ -5894,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>12500</v>
       </c>
@@ -5905,7 +6438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -5916,7 +6449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -5927,7 +6460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
         <v>19000</v>
       </c>
@@ -5938,7 +6471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>26000</v>
       </c>
@@ -5949,7 +6482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="0">
         <v>17500</v>
       </c>
@@ -5960,7 +6493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="0">
         <v>21000</v>
       </c>
@@ -5971,7 +6504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="0">
         <v>31000</v>
       </c>
@@ -5982,7 +6515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="0">
         <v>12500</v>
       </c>
@@ -5993,7 +6526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="0">
         <v>14500</v>
       </c>
@@ -6004,7 +6537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="0">
         <v>20500</v>
       </c>
@@ -6015,7 +6548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="0">
         <v>16500</v>
       </c>
@@ -6026,7 +6559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="0">
         <v>11000</v>
       </c>
@@ -6037,7 +6570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="0">
         <v>31000</v>
       </c>
@@ -6061,13 +6594,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
@@ -6075,7 +6608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -6083,7 +6616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -6091,7 +6624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -6099,7 +6632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -6107,7 +6640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -6115,7 +6648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -6123,7 +6656,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -6131,7 +6664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -6139,7 +6672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -6147,7 +6680,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -6155,7 +6688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -6163,7 +6696,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -6171,7 +6704,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -6179,7 +6712,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -6187,7 +6720,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -6195,7 +6728,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="0">
         <v>16</v>
       </c>
@@ -6203,7 +6736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="0">
         <v>17</v>
       </c>
@@ -6211,7 +6744,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="0">
         <v>18</v>
       </c>
@@ -6228,17 +6761,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.44140625"/>
-    <col min="8" max="8" customWidth="true" width="41.5546875"/>
+    <col min="6" max="6" customWidth="true" width="41.42578125"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
@@ -6252,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>12000</v>
       </c>
@@ -6266,7 +6799,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -6280,7 +6813,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -6294,7 +6827,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
         <v>15000</v>
       </c>
@@ -6308,7 +6841,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>16000</v>
       </c>
@@ -6322,7 +6855,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="0">
         <v>17000</v>
       </c>
@@ -6336,7 +6869,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="0">
         <v>18000</v>
       </c>
@@ -6350,7 +6883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="0">
         <v>19000</v>
       </c>
@@ -6358,13 +6891,13 @@
         <v>11.75</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="0">
         <v>20000</v>
       </c>
@@ -6372,13 +6905,13 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="0">
         <v>21000</v>
       </c>
@@ -6386,7 +6919,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="0">
         <v>22000</v>
       </c>
@@ -6394,7 +6927,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="0">
         <v>23000</v>
       </c>
@@ -6402,7 +6935,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="0">
         <v>24000</v>
       </c>
@@ -6410,7 +6943,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="0">
         <v>25000</v>
       </c>
@@ -6418,7 +6951,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="0">
         <v>26000</v>
       </c>
@@ -6426,7 +6959,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="0">
         <v>27000</v>
       </c>
@@ -6434,7 +6967,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="0">
         <v>28000</v>
       </c>
@@ -6442,7 +6975,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="0">
         <v>29000</v>
       </c>
@@ -6450,7 +6983,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="0">
         <v>30000</v>
       </c>
@@ -6458,7 +6991,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="0">
         <v>31000</v>
       </c>
@@ -6466,7 +6999,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="0">
         <v>32000</v>
       </c>
@@ -6474,7 +7007,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="0">
         <v>33000</v>
       </c>
@@ -6482,7 +7015,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="0">
         <v>34000</v>
       </c>
@@ -6490,7 +7023,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="0">
         <v>35000</v>
       </c>
@@ -6498,7 +7031,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="0">
         <v>36000</v>
       </c>
@@ -6506,7 +7039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="0">
         <v>37000</v>
       </c>
@@ -6514,7 +7047,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="0">
         <v>38000</v>
       </c>
@@ -6522,7 +7055,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="0">
         <v>39000</v>
       </c>
@@ -6530,7 +7063,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="0">
         <v>40000</v>
       </c>
@@ -6538,7 +7071,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="0">
         <v>41000</v>
       </c>
@@ -6546,7 +7079,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="0">
         <v>42000</v>
       </c>
@@ -6554,7 +7087,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="0">
         <v>43000</v>
       </c>
@@ -6562,7 +7095,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="0">
         <v>44000</v>
       </c>
@@ -6570,7 +7103,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="0">
         <v>45000</v>
       </c>
@@ -6578,7 +7111,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="0">
         <v>46000</v>
       </c>
@@ -6586,7 +7119,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="0">
         <v>47000</v>
       </c>
@@ -6594,7 +7127,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="0">
         <v>48000</v>
       </c>
@@ -6602,7 +7135,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="0">
         <v>49000</v>
       </c>
@@ -6610,7 +7143,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="0">
         <v>50000</v>
       </c>
@@ -6618,7 +7151,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="0">
         <v>51000</v>
       </c>
@@ -6626,7 +7159,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="0">
         <v>52000</v>
       </c>
@@ -6634,7 +7167,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="0">
         <v>53000</v>
       </c>
@@ -6642,7 +7175,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="0">
         <v>54000</v>
       </c>
@@ -6650,7 +7183,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="0">
         <v>55000</v>
       </c>
@@ -6658,7 +7191,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="0">
         <v>56000</v>
       </c>
@@ -6666,7 +7199,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="0">
         <v>57000</v>
       </c>
@@ -6674,7 +7207,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="0">
         <v>58000</v>
       </c>
@@ -6682,7 +7215,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="0">
         <v>59000</v>
       </c>
@@ -6690,7 +7223,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="0">
         <v>60000</v>
       </c>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="606">
   <si>
     <t>Nombre</t>
   </si>
@@ -1557,34 +1557,22 @@
     <t>FGD00@TecnoProyectSL.com</t>
   </si>
   <si>
-    <t>IVC00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>DMC00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>EBC00@PBlankSA.com</t>
-  </si>
-  <si>
-    <t>NBC00@TecnoProyectSL.com</t>
-  </si>
-  <si>
-    <t>MSC00@PBlankSA.com</t>
-  </si>
-  <si>
-    <t>MDC00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>MFC00@TecnoLeonSL.com</t>
-  </si>
-  <si>
-    <t>CDD00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>CGD00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>HPD00@PBlankSA.com</t>
+    <t>20960056133231500000</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>20012541150023365233</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
   </si>
   <si>
     <t>DK7331645124473461205164</t>
@@ -1782,13 +1770,13 @@
     <t>LU932628484504115151115</t>
   </si>
   <si>
-    <t>ES3020960056163231500000</t>
+    <t>ES2220960056133231500000</t>
   </si>
   <si>
     <t>ES8163516541828944000984</t>
   </si>
   <si>
-    <t>ES4623658965214585223202</t>
+    <t>ES6223658965274585223202</t>
   </si>
   <si>
     <t>FI6132658012367712548745</t>
@@ -1797,7 +1785,7 @@
     <t>ES7223652365142254222000</t>
   </si>
   <si>
-    <t>FR5720012541100023365233</t>
+    <t>FR3820012541150023365233</t>
   </si>
   <si>
     <t>ES9232584216971684051000</t>
@@ -1833,10 +1821,10 @@
     <t>ES1665165654918886005001</t>
   </si>
   <si>
-    <t>AT8065645150005168448896</t>
-  </si>
-  <si>
-    <t>IT8626551681877651415636</t>
+    <t>AT8365645150865168448896</t>
+  </si>
+  <si>
+    <t>IT3526551681807651415636</t>
   </si>
   <si>
     <t>HU2399558741836555551120</t>
@@ -1845,58 +1833,19 @@
     <t>ES4352198484752100515144</t>
   </si>
   <si>
-    <t>IE951556584121251000254</t>
-  </si>
-  <si>
-    <t>DK9032541112811220000588</t>
-  </si>
-  <si>
-    <t>LT7862541122001110105611</t>
-  </si>
-  <si>
-    <t>ES6855065688761051056105</t>
-  </si>
-  <si>
-    <t>ES7426221011628048788896</t>
-  </si>
-  <si>
-    <t>ES9712548521518742146695</t>
-  </si>
-  <si>
-    <t>ES9001826530120201560000</t>
-  </si>
-  <si>
-    <t>ES9021651651812511133551</t>
-  </si>
-  <si>
-    <t>ES6851651487910005118185</t>
-  </si>
-  <si>
-    <t>CZ9536250012804785523365</t>
-  </si>
-  <si>
-    <t>AT3122515651915640081000</t>
-  </si>
-  <si>
-    <t>20960056133231500000</t>
-  </si>
-  <si>
-    <t>23658965274585223202</t>
-  </si>
-  <si>
-    <t>20012541150023365233</t>
-  </si>
-  <si>
-    <t>65645150865168448896</t>
-  </si>
-  <si>
-    <t>26551681807651415636</t>
-  </si>
-  <si>
-    <t>51556584221251000254</t>
-  </si>
-  <si>
-    <t>62541122421110105611</t>
+    <t>IE6851556584221251000254</t>
+  </si>
+  <si>
+    <t>PEPITO</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>ASDF--</t>
+  </si>
+  <si>
+    <t>ASDF-sdfasdfasdf-</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2329,7 @@
         <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>426</v>
@@ -2427,7 +2376,7 @@
         <v>415</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>427</v>
@@ -2468,7 +2417,7 @@
         <v>414</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>428</v>
@@ -2509,7 +2458,7 @@
         <v>413</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>429</v>
@@ -2550,7 +2499,7 @@
         <v>412</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>430</v>
@@ -2591,7 +2540,7 @@
         <v>405</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>431</v>
@@ -2632,7 +2581,7 @@
         <v>411</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>432</v>
@@ -2673,7 +2622,7 @@
         <v>410</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>433</v>
@@ -2714,7 +2663,7 @@
         <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>434</v>
@@ -2755,7 +2704,7 @@
         <v>408</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>435</v>
@@ -2796,7 +2745,7 @@
         <v>407</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>436</v>
@@ -2837,10 +2786,10 @@
         <v>406</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>437</v>
+        <v>605</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
@@ -2878,7 +2827,7 @@
         <v>398</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>438</v>
@@ -2912,12 +2861,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>439</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
@@ -2927,10 +2871,10 @@
         <v>404</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E16" s="1">
         <v>38384</v>
@@ -2968,10 +2912,10 @@
         <v>402</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E17" s="1">
         <v>43191</v>
@@ -3009,10 +2953,10 @@
         <v>401</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E18" s="1">
         <v>36192</v>
@@ -3050,10 +2994,10 @@
         <v>400</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E19" s="1">
         <v>40909</v>
@@ -3091,10 +3035,10 @@
         <v>399</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E20" s="1">
         <v>40269</v>
@@ -3132,10 +3076,10 @@
         <v>398</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E21" s="1">
         <v>43282</v>
@@ -3173,10 +3117,10 @@
         <v>396</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E22" s="1">
         <v>41306</v>
@@ -3211,10 +3155,10 @@
         <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E23" s="1">
         <v>40422</v>
@@ -3249,10 +3193,10 @@
         <v>394</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
@@ -3287,10 +3231,10 @@
         <v>393</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E25" s="1">
         <v>39814</v>
@@ -3318,12 +3262,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>450</v>
-      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
@@ -3333,10 +3272,10 @@
         <v>392</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="E27" s="1">
         <v>35096</v>
@@ -3374,10 +3313,10 @@
         <v>391</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E28" s="1">
         <v>39965</v>
@@ -3415,10 +3354,10 @@
         <v>390</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="E29" s="1">
         <v>35827</v>
@@ -3456,10 +3395,10 @@
         <v>389</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="E30" s="1">
         <v>35400</v>
@@ -3497,10 +3436,10 @@
         <v>388</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E31" s="1">
         <v>38139</v>
@@ -3538,10 +3477,10 @@
         <v>387</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="E32" s="1">
         <v>37530</v>
@@ -3572,28 +3511,13 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D33" t="s" s="0">
-        <v>455</v>
-      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>456</v>
-      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>457</v>
-      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
@@ -3603,10 +3527,10 @@
         <v>383</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E36" s="1">
         <v>35551</v>
@@ -3644,10 +3568,10 @@
         <v>382</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E37" s="1">
         <v>40179</v>
@@ -3685,10 +3609,10 @@
         <v>381</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E38" s="1">
         <v>42339</v>
@@ -3726,10 +3650,10 @@
         <v>380</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E39" s="1">
         <v>39417</v>
@@ -3767,10 +3691,10 @@
         <v>379</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E40" s="1">
         <v>37226</v>
@@ -3808,10 +3732,10 @@
         <v>378</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E41" s="1">
         <v>38961</v>
@@ -3849,10 +3773,10 @@
         <v>377</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E42" s="1">
         <v>41730</v>
@@ -3890,10 +3814,10 @@
         <v>375</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E43" s="1">
         <v>39142</v>
@@ -3931,10 +3855,10 @@
         <v>374</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E44" s="1">
         <v>36739</v>
@@ -3972,10 +3896,10 @@
         <v>373</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E45" s="1">
         <v>42125</v>
@@ -4013,10 +3937,10 @@
         <v>372</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E46" s="1">
         <v>39052</v>
@@ -4054,10 +3978,10 @@
         <v>371</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E47" s="1">
         <v>40391</v>
@@ -4095,10 +4019,10 @@
         <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E48" s="1">
         <v>40909</v>
@@ -4136,10 +4060,10 @@
         <v>368</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E49" s="1">
         <v>41456</v>
@@ -4177,10 +4101,10 @@
         <v>367</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E50" s="1">
         <v>42248</v>
@@ -4218,10 +4142,10 @@
         <v>365</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E51" s="1">
         <v>44013</v>
@@ -4259,10 +4183,10 @@
         <v>364</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E52" s="1">
         <v>39356</v>
@@ -4300,10 +4224,10 @@
         <v>363</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="E53" s="1">
         <v>39661</v>
@@ -4341,10 +4265,10 @@
         <v>362</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E54" s="1">
         <v>42401</v>
@@ -4382,10 +4306,10 @@
         <v>361</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E55" s="1">
         <v>40330</v>
@@ -4416,36 +4340,16 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D56" t="s" s="0">
-        <v>476</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D57" t="s" s="0">
-        <v>477</v>
-      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D58" t="s" s="0">
-        <v>478</v>
-      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C59" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D59" t="s" s="0">
-        <v>479</v>
-      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s" s="0">
@@ -4455,10 +4359,10 @@
         <v>344</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E60" s="1">
         <v>41671</v>
@@ -4496,10 +4400,10 @@
         <v>356</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E61" s="1">
         <v>37865</v>
@@ -4537,10 +4441,10 @@
         <v>355</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="E62" s="1">
         <v>39904</v>
@@ -4578,10 +4482,10 @@
         <v>354</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E63" s="1">
         <v>40848</v>
@@ -4619,10 +4523,10 @@
         <v>353</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E64" s="1">
         <v>42644</v>
@@ -4657,10 +4561,10 @@
         <v>352</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E65" s="1">
         <v>35827</v>
@@ -4695,10 +4599,10 @@
         <v>62</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E66" s="1">
         <v>39417</v>
@@ -4733,10 +4637,10 @@
         <v>349</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E67" s="1">
         <v>42156</v>
@@ -4771,13 +4675,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>616</v>
+        <v>348</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E68" s="1">
         <v>40787</v>
@@ -4815,10 +4719,10 @@
         <v>347</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E69" s="1">
         <v>39873</v>
@@ -4853,13 +4757,13 @@
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>617</v>
+        <v>346</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E70" s="1">
         <v>39417</v>
@@ -4897,10 +4801,10 @@
         <v>344</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E71" s="1">
         <v>39448</v>
@@ -4938,10 +4842,10 @@
         <v>343</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E72" s="1">
         <v>36951</v>
@@ -4976,13 +4880,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>618</v>
+        <v>341</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E73" s="1">
         <v>36130</v>
@@ -5020,10 +4924,10 @@
         <v>340</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E74" s="1">
         <v>41061</v>
@@ -5061,10 +4965,10 @@
         <v>339</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E75" s="1">
         <v>39661</v>
@@ -5102,10 +5006,10 @@
         <v>338</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E76" s="1">
         <v>44044</v>
@@ -5140,13 +5044,13 @@
         <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>63</v>
+        <v>509</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>497</v>
+        <v>602</v>
       </c>
       <c r="E77" s="1">
         <v>40027</v>
@@ -5183,12 +5087,7 @@
       <c r="B79" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D79" t="s" s="0">
-        <v>498</v>
-      </c>
+      <c r="C79" s="2"/>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
@@ -5225,10 +5124,10 @@
         <v>293</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>499</v>
+        <v>604</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
@@ -5263,13 +5162,13 @@
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>336</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E81" s="1">
         <v>37500</v>
@@ -5307,10 +5206,10 @@
         <v>335</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="E82" s="1">
         <v>36526</v>
@@ -5348,10 +5247,10 @@
         <v>292</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
@@ -5386,13 +5285,13 @@
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>334</v>
+        <v>511</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E84" s="1">
         <v>41730</v>
@@ -5421,10 +5320,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5432,14 +5331,9 @@
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D86" t="s" s="0">
-        <v>505</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
@@ -5473,13 +5367,13 @@
         <v>298</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>620</v>
+        <v>331</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E87" s="1">
         <v>43221</v>
@@ -5517,10 +5411,10 @@
         <v>330</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="E88" s="1">
         <v>40787</v>
@@ -5558,10 +5452,10 @@
         <v>329</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E89" s="1">
         <v>38200</v>
@@ -5596,13 +5490,13 @@
         <v>303</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>621</v>
+        <v>328</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>426</v>
+        <v>498</v>
       </c>
       <c r="E90" s="1">
         <v>36312</v>
@@ -5637,10 +5531,10 @@
         <v>327</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E91" s="1">
         <v>37895</v>
@@ -5675,13 +5569,13 @@
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>622</v>
+        <v>326</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E92" s="1">
         <v>44105</v>
@@ -5719,10 +5613,10 @@
         <v>324</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="E93" s="1">
         <v>42278</v>
@@ -5760,10 +5654,10 @@
         <v>322</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="E94" s="1">
         <v>41214</v>
@@ -5798,10 +5692,10 @@
         <v>321</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E95" s="1">
         <v>39661</v>
@@ -5833,35 +5727,20 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C97" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D97" t="s" s="0">
-        <v>515</v>
-      </c>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C98" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D98" t="s" s="0">
-        <v>516</v>
-      </c>
+      <c r="C98" s="2"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C100" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D100" t="s" s="0">
-        <v>517</v>
-      </c>
+      <c r="C100" s="2"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s" s="0">
@@ -5870,12 +5749,6 @@
       <c r="B102" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="D102" t="s" s="0">
-        <v>518</v>
-      </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
@@ -5980,7 +5853,13 @@
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>386</v>
+        <v>512</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>505</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
@@ -6015,7 +5894,13 @@
         <v>296</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>288</v>
+        <v>513</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>506</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
@@ -6052,6 +5937,12 @@
       <c r="B127" s="3" t="s">
         <v>317</v>
       </c>
+      <c r="C127" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>507</v>
+      </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
@@ -6087,6 +5978,12 @@
       <c r="B128" s="3" t="s">
         <v>290</v>
       </c>
+      <c r="C128" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>508</v>
+      </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
@@ -6120,7 +6017,13 @@
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>333</v>
+        <v>514</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>426</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="624">
   <si>
     <t>Nombre</t>
   </si>
@@ -1308,6 +1308,9 @@
     <t>MEI TRABAJADOR</t>
   </si>
   <si>
+    <t>09548416N</t>
+  </si>
+  <si>
     <t>GMM00@TecnoLeonSL.com</t>
   </si>
   <si>
@@ -1557,6 +1560,36 @@
     <t>FGD00@TecnoProyectSL.com</t>
   </si>
   <si>
+    <t>IVC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>DMC00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>EBC00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>NBC00@TecnoProyectSL.com</t>
+  </si>
+  <si>
+    <t>MSC00@PBlankSA.com</t>
+  </si>
+  <si>
+    <t>MDC00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>MFC00@TecnoLeonSL.com</t>
+  </si>
+  <si>
+    <t>CDD00@APhonSA.com</t>
+  </si>
+  <si>
+    <t>CGD00@Asoftware.com</t>
+  </si>
+  <si>
+    <t>HPD00@PBlankSA.com</t>
+  </si>
+  <si>
     <t>20960056133231500000</t>
   </si>
   <si>
@@ -1575,6 +1608,9 @@
     <t>51556584221251000254</t>
   </si>
   <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
     <t>DK7331645124473461205164</t>
   </si>
   <si>
@@ -1836,16 +1872,34 @@
     <t>IE6851556584221251000254</t>
   </si>
   <si>
-    <t>PEPITO</t>
-  </si>
-  <si>
-    <t>ASDF</t>
-  </si>
-  <si>
-    <t>ASDF--</t>
-  </si>
-  <si>
-    <t>ASDF-sdfasdfasdf-</t>
+    <t>DK9032541112811220000588</t>
+  </si>
+  <si>
+    <t>LT9362541122421110105611</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>ES9001826530120201560000</t>
+  </si>
+  <si>
+    <t>ES9021651651812511133551</t>
+  </si>
+  <si>
+    <t>ES6851651487910005118185</t>
+  </si>
+  <si>
+    <t>CZ9536250012804785523365</t>
+  </si>
+  <si>
+    <t>AT3122515651915640081000</t>
   </si>
 </sst>
 </file>
@@ -2328,11 +2382,11 @@
       <c r="B2" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>515</v>
+      <c r="C2" t="s" s="2">
+        <v>527</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
@@ -2375,11 +2429,11 @@
       <c r="B3" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>516</v>
+      <c r="C3" t="s" s="2">
+        <v>528</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E3" s="1">
         <v>42461</v>
@@ -2416,11 +2470,11 @@
       <c r="B4" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>517</v>
+      <c r="C4" t="s" s="2">
+        <v>529</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
@@ -2457,11 +2511,11 @@
       <c r="B5" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>518</v>
+      <c r="C5" t="s" s="2">
+        <v>530</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E5" s="1">
         <v>42979</v>
@@ -2498,11 +2552,11 @@
       <c r="B6" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>519</v>
+      <c r="C6" t="s" s="2">
+        <v>531</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E6" s="1">
         <v>43221</v>
@@ -2539,11 +2593,11 @@
       <c r="B7" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>520</v>
+      <c r="C7" t="s" s="2">
+        <v>532</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E7" s="1">
         <v>43222</v>
@@ -2580,11 +2634,11 @@
       <c r="B8" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>521</v>
+      <c r="C8" t="s" s="2">
+        <v>533</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
@@ -2621,11 +2675,11 @@
       <c r="B9" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>522</v>
+      <c r="C9" t="s" s="2">
+        <v>534</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E9" s="1">
         <v>40787</v>
@@ -2662,11 +2716,11 @@
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>523</v>
+      <c r="C10" t="s" s="2">
+        <v>535</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E10" s="1">
         <v>40787</v>
@@ -2703,11 +2757,11 @@
       <c r="B11" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>524</v>
+      <c r="C11" t="s" s="2">
+        <v>536</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E11" s="1">
         <v>41030</v>
@@ -2744,11 +2798,11 @@
       <c r="B12" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>525</v>
+      <c r="C12" t="s" s="2">
+        <v>537</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E12" s="1">
         <v>41030</v>
@@ -2785,11 +2839,11 @@
       <c r="B13" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>526</v>
+      <c r="C13" t="s" s="2">
+        <v>538</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>605</v>
+        <v>438</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
@@ -2826,11 +2880,11 @@
       <c r="B14" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>527</v>
+      <c r="C14" t="s" s="2">
+        <v>539</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E14" s="1">
         <v>38718</v>
@@ -2870,11 +2924,11 @@
       <c r="B16" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>528</v>
+      <c r="C16" t="s" s="2">
+        <v>540</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E16" s="1">
         <v>38384</v>
@@ -2911,11 +2965,11 @@
       <c r="B17" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>529</v>
+      <c r="C17" t="s" s="2">
+        <v>541</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E17" s="1">
         <v>43191</v>
@@ -2952,11 +3006,11 @@
       <c r="B18" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>530</v>
+      <c r="C18" t="s" s="2">
+        <v>542</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E18" s="1">
         <v>36192</v>
@@ -2980,7 +3034,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>46</v>
@@ -2993,11 +3047,11 @@
       <c r="B19" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>531</v>
+      <c r="C19" t="s" s="2">
+        <v>543</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E19" s="1">
         <v>40909</v>
@@ -3034,11 +3088,11 @@
       <c r="B20" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>532</v>
+      <c r="C20" t="s" s="2">
+        <v>544</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E20" s="1">
         <v>40269</v>
@@ -3062,7 +3116,7 @@
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>19</v>
@@ -3075,11 +3129,11 @@
       <c r="B21" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>533</v>
+      <c r="C21" t="s" s="2">
+        <v>545</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E21" s="1">
         <v>43282</v>
@@ -3116,11 +3170,11 @@
       <c r="B22" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>534</v>
+      <c r="C22" t="s" s="2">
+        <v>546</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E22" s="1">
         <v>41306</v>
@@ -3154,11 +3208,11 @@
       <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>535</v>
+      <c r="C23" t="s" s="2">
+        <v>547</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E23" s="1">
         <v>40422</v>
@@ -3192,11 +3246,11 @@
       <c r="B24" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>536</v>
+      <c r="C24" t="s" s="2">
+        <v>548</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
@@ -3230,11 +3284,11 @@
       <c r="B25" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>537</v>
+      <c r="C25" t="s" s="2">
+        <v>549</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E25" s="1">
         <v>39814</v>
@@ -3271,11 +3325,11 @@
       <c r="B27" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>538</v>
+      <c r="C27" t="s" s="2">
+        <v>550</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E27" s="1">
         <v>35096</v>
@@ -3312,11 +3366,11 @@
       <c r="B28" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>539</v>
+      <c r="C28" t="s" s="2">
+        <v>551</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E28" s="1">
         <v>39965</v>
@@ -3353,11 +3407,11 @@
       <c r="B29" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>540</v>
+      <c r="C29" t="s" s="2">
+        <v>552</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E29" s="1">
         <v>35827</v>
@@ -3394,11 +3448,11 @@
       <c r="B30" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>541</v>
+      <c r="C30" t="s" s="2">
+        <v>553</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E30" s="1">
         <v>35400</v>
@@ -3435,11 +3489,11 @@
       <c r="B31" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>542</v>
+      <c r="C31" t="s" s="2">
+        <v>554</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E31" s="1">
         <v>38139</v>
@@ -3476,11 +3530,11 @@
       <c r="B32" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>543</v>
+      <c r="C32" t="s" s="2">
+        <v>555</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E32" s="1">
         <v>37530</v>
@@ -3526,11 +3580,11 @@
       <c r="B36" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>544</v>
+      <c r="C36" t="s" s="2">
+        <v>556</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E36" s="1">
         <v>35551</v>
@@ -3567,11 +3621,11 @@
       <c r="B37" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>545</v>
+      <c r="C37" t="s" s="2">
+        <v>557</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E37" s="1">
         <v>40179</v>
@@ -3608,11 +3662,11 @@
       <c r="B38" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>546</v>
+      <c r="C38" t="s" s="2">
+        <v>558</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E38" s="1">
         <v>42339</v>
@@ -3636,7 +3690,7 @@
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>19</v>
@@ -3649,11 +3703,11 @@
       <c r="B39" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>547</v>
+      <c r="C39" t="s" s="2">
+        <v>559</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E39" s="1">
         <v>39417</v>
@@ -3690,11 +3744,11 @@
       <c r="B40" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>548</v>
+      <c r="C40" t="s" s="2">
+        <v>560</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E40" s="1">
         <v>37226</v>
@@ -3731,11 +3785,11 @@
       <c r="B41" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>549</v>
+      <c r="C41" t="s" s="2">
+        <v>561</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E41" s="1">
         <v>38961</v>
@@ -3772,11 +3826,11 @@
       <c r="B42" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>550</v>
+      <c r="C42" t="s" s="2">
+        <v>562</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E42" s="1">
         <v>41730</v>
@@ -3800,7 +3854,7 @@
         <v>183</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>19</v>
@@ -3813,11 +3867,11 @@
       <c r="B43" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>551</v>
+      <c r="C43" t="s" s="2">
+        <v>563</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E43" s="1">
         <v>39142</v>
@@ -3854,11 +3908,11 @@
       <c r="B44" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>552</v>
+      <c r="C44" t="s" s="2">
+        <v>564</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E44" s="1">
         <v>36739</v>
@@ -3895,11 +3949,11 @@
       <c r="B45" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>553</v>
+      <c r="C45" t="s" s="2">
+        <v>565</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E45" s="1">
         <v>42125</v>
@@ -3936,11 +3990,11 @@
       <c r="B46" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>554</v>
+      <c r="C46" t="s" s="2">
+        <v>566</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E46" s="1">
         <v>39052</v>
@@ -3977,11 +4031,11 @@
       <c r="B47" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>555</v>
+      <c r="C47" t="s" s="2">
+        <v>567</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E47" s="1">
         <v>40391</v>
@@ -4018,11 +4072,11 @@
       <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>556</v>
+      <c r="C48" t="s" s="2">
+        <v>568</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E48" s="1">
         <v>40909</v>
@@ -4059,11 +4113,11 @@
       <c r="B49" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>557</v>
+      <c r="C49" t="s" s="2">
+        <v>569</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E49" s="1">
         <v>41456</v>
@@ -4100,11 +4154,11 @@
       <c r="B50" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>558</v>
+      <c r="C50" t="s" s="2">
+        <v>570</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E50" s="1">
         <v>42248</v>
@@ -4141,11 +4195,11 @@
       <c r="B51" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>559</v>
+      <c r="C51" t="s" s="2">
+        <v>571</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E51" s="1">
         <v>44013</v>
@@ -4182,11 +4236,11 @@
       <c r="B52" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>560</v>
+      <c r="C52" t="s" s="2">
+        <v>572</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E52" s="1">
         <v>39356</v>
@@ -4223,11 +4277,11 @@
       <c r="B53" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>561</v>
+      <c r="C53" t="s" s="2">
+        <v>573</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E53" s="1">
         <v>39661</v>
@@ -4264,11 +4318,11 @@
       <c r="B54" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>562</v>
+      <c r="C54" t="s" s="2">
+        <v>574</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E54" s="1">
         <v>42401</v>
@@ -4305,11 +4359,11 @@
       <c r="B55" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>563</v>
+      <c r="C55" t="s" s="2">
+        <v>575</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E55" s="1">
         <v>40330</v>
@@ -4358,11 +4412,11 @@
       <c r="B60" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>564</v>
+      <c r="C60" t="s" s="2">
+        <v>576</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E60" s="1">
         <v>41671</v>
@@ -4399,11 +4453,11 @@
       <c r="B61" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>565</v>
+      <c r="C61" t="s" s="2">
+        <v>577</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E61" s="1">
         <v>37865</v>
@@ -4440,11 +4494,11 @@
       <c r="B62" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>566</v>
+      <c r="C62" t="s" s="2">
+        <v>578</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E62" s="1">
         <v>39904</v>
@@ -4481,11 +4535,11 @@
       <c r="B63" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>567</v>
+      <c r="C63" t="s" s="2">
+        <v>579</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E63" s="1">
         <v>40848</v>
@@ -4522,11 +4576,11 @@
       <c r="B64" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>568</v>
+      <c r="C64" t="s" s="2">
+        <v>580</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E64" s="1">
         <v>42644</v>
@@ -4560,11 +4614,11 @@
       <c r="B65" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>569</v>
+      <c r="C65" t="s" s="2">
+        <v>581</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E65" s="1">
         <v>35827</v>
@@ -4598,11 +4652,11 @@
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>570</v>
+      <c r="C66" t="s" s="2">
+        <v>582</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E66" s="1">
         <v>39417</v>
@@ -4636,11 +4690,11 @@
       <c r="B67" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>571</v>
+      <c r="C67" t="s" s="2">
+        <v>583</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E67" s="1">
         <v>42156</v>
@@ -4664,7 +4718,7 @@
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="M67" t="s" s="0">
         <v>19</v>
@@ -4677,11 +4731,11 @@
       <c r="B68" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>572</v>
+      <c r="C68" t="s" s="2">
+        <v>584</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E68" s="1">
         <v>40787</v>
@@ -4718,11 +4772,11 @@
       <c r="B69" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>573</v>
+      <c r="C69" t="s" s="2">
+        <v>585</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E69" s="1">
         <v>39873</v>
@@ -4759,11 +4813,11 @@
       <c r="B70" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>574</v>
+      <c r="C70" t="s" s="2">
+        <v>586</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E70" s="1">
         <v>39417</v>
@@ -4800,11 +4854,11 @@
       <c r="B71" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>564</v>
+      <c r="C71" t="s" s="2">
+        <v>576</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E71" s="1">
         <v>39448</v>
@@ -4841,11 +4895,11 @@
       <c r="B72" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>575</v>
+      <c r="C72" t="s" s="2">
+        <v>587</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E72" s="1">
         <v>36951</v>
@@ -4882,11 +4936,11 @@
       <c r="B73" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>576</v>
+      <c r="C73" t="s" s="2">
+        <v>588</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E73" s="1">
         <v>36130</v>
@@ -4923,11 +4977,11 @@
       <c r="B74" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>577</v>
+      <c r="C74" t="s" s="2">
+        <v>589</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E74" s="1">
         <v>41061</v>
@@ -4964,11 +5018,11 @@
       <c r="B75" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>578</v>
+      <c r="C75" t="s" s="2">
+        <v>590</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E75" s="1">
         <v>39661</v>
@@ -5005,11 +5059,11 @@
       <c r="B76" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>579</v>
+      <c r="C76" t="s" s="2">
+        <v>591</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E76" s="1">
         <v>44044</v>
@@ -5043,14 +5097,14 @@
       <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>580</v>
+      <c r="B77" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>592</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>602</v>
+        <v>489</v>
       </c>
       <c r="E77" s="1">
         <v>40027</v>
@@ -5087,7 +5141,12 @@
       <c r="B79" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>490</v>
+      </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
@@ -5120,14 +5179,14 @@
       <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>293</v>
+      <c r="B80" t="s" s="3">
+        <v>521</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>604</v>
+        <v>491</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
@@ -5162,13 +5221,13 @@
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>582</v>
+        <v>336</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>595</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E81" s="1">
         <v>37500</v>
@@ -5205,11 +5264,11 @@
       <c r="B82" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>583</v>
+      <c r="C82" t="s" s="2">
+        <v>596</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E82" s="1">
         <v>36526</v>
@@ -5243,14 +5302,14 @@
       <c r="A83" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>292</v>
+      <c r="B83" t="s" s="3">
+        <v>522</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
@@ -5285,13 +5344,13 @@
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>585</v>
+        <v>334</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>598</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E84" s="1">
         <v>41730</v>
@@ -5319,12 +5378,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D85" t="s" s="0">
-        <v>494</v>
-      </c>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s" s="0">
@@ -5333,7 +5387,12 @@
       <c r="B86" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>496</v>
+      </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
@@ -5369,11 +5428,11 @@
       <c r="B87" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>587</v>
+      <c r="C87" t="s" s="2">
+        <v>600</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E87" s="1">
         <v>43221</v>
@@ -5410,11 +5469,11 @@
       <c r="B88" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>588</v>
+      <c r="C88" t="s" s="2">
+        <v>601</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E88" s="1">
         <v>40787</v>
@@ -5451,11 +5510,11 @@
       <c r="B89" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>589</v>
+      <c r="C89" t="s" s="2">
+        <v>602</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E89" s="1">
         <v>38200</v>
@@ -5492,11 +5551,11 @@
       <c r="B90" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>590</v>
+      <c r="C90" t="s" s="2">
+        <v>603</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E90" s="1">
         <v>36312</v>
@@ -5530,11 +5589,11 @@
       <c r="B91" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>591</v>
+      <c r="C91" t="s" s="2">
+        <v>604</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E91" s="1">
         <v>37895</v>
@@ -5571,11 +5630,11 @@
       <c r="B92" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>592</v>
+      <c r="C92" t="s" s="2">
+        <v>605</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E92" s="1">
         <v>44105</v>
@@ -5612,11 +5671,11 @@
       <c r="B93" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>593</v>
+      <c r="C93" t="s" s="2">
+        <v>606</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E93" s="1">
         <v>42278</v>
@@ -5653,11 +5712,11 @@
       <c r="B94" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>594</v>
+      <c r="C94" t="s" s="2">
+        <v>607</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E94" s="1">
         <v>41214</v>
@@ -5691,11 +5750,11 @@
       <c r="B95" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>595</v>
+      <c r="C95" t="s" s="2">
+        <v>608</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E95" s="1">
         <v>39661</v>
@@ -5726,12 +5785,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C96" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D96" t="s" s="0">
-        <v>504</v>
-      </c>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
@@ -5746,8 +5800,14 @@
       <c r="A102" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>291</v>
+      <c r="B102" t="s" s="3">
+        <v>523</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>506</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
@@ -5781,8 +5841,14 @@
       <c r="A103" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>289</v>
+      <c r="B103" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>507</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
@@ -5819,7 +5885,12 @@
       <c r="B104" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>508</v>
+      </c>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
@@ -5853,13 +5924,13 @@
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>512</v>
+        <v>386</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
@@ -5883,7 +5954,7 @@
         <v>257</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="M105" t="s" s="0">
         <v>46</v>
@@ -5893,14 +5964,14 @@
       <c r="A106" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>513</v>
+      <c r="B106" t="s" s="3">
+        <v>525</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
@@ -5938,10 +6009,10 @@
         <v>317</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
@@ -5975,14 +6046,14 @@
       <c r="A128" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>290</v>
+      <c r="B128" t="s" s="3">
+        <v>526</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
@@ -6017,13 +6088,13 @@
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>514</v>
+        <v>333</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
@@ -6060,6 +6131,12 @@
       <c r="B130" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="C130" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>513</v>
+      </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
@@ -6095,6 +6172,12 @@
       <c r="B131" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="C131" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>514</v>
+      </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
@@ -6130,6 +6213,12 @@
       <c r="B132" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C132" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>515</v>
+      </c>
       <c r="E132" s="1">
         <v>40909</v>
       </c>
@@ -6165,6 +6254,12 @@
       <c r="B133" s="3" t="s">
         <v>358</v>
       </c>
+      <c r="C133" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>516</v>
+      </c>
       <c r="E133" s="1">
         <v>41456</v>
       </c>
@@ -6200,6 +6295,12 @@
       <c r="B134" s="3" t="s">
         <v>360</v>
       </c>
+      <c r="C134" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>517</v>
+      </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
@@ -6235,6 +6336,12 @@
       <c r="B135" s="3" t="s">
         <v>385</v>
       </c>
+      <c r="C135" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>518</v>
+      </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
@@ -6266,6 +6373,12 @@
       </c>
       <c r="B136" s="3" t="s">
         <v>384</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>519</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E20BEAB-7E96-4838-BE6D-2F7700EBC461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FBB9-9941-4C6C-AB7A-86454904C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="624">
   <si>
     <t>Nombre</t>
   </si>
@@ -423,9 +423,6 @@
     <t>Salas</t>
   </si>
   <si>
-    <t>09719898Y</t>
-  </si>
-  <si>
     <t>Herreras</t>
   </si>
   <si>
@@ -543,9 +540,6 @@
     <t>Emiliano</t>
   </si>
   <si>
-    <t>09738010V</t>
-  </si>
-  <si>
     <t>Encarnación</t>
   </si>
   <si>
@@ -606,9 +600,6 @@
     <t>Germán</t>
   </si>
   <si>
-    <t>09314602Q</t>
-  </si>
-  <si>
     <t>Riverto</t>
   </si>
   <si>
@@ -834,9 +825,6 @@
     <t>Centeno</t>
   </si>
   <si>
-    <t>X3607387K</t>
-  </si>
-  <si>
     <t>José Antonio</t>
   </si>
   <si>
@@ -1239,9 +1227,6 @@
     <t>96431245118150005156</t>
   </si>
   <si>
-    <t>09458455Y</t>
-  </si>
-  <si>
     <t>25894363475485700145</t>
   </si>
   <si>
@@ -1306,6 +1291,21 @@
   </si>
   <si>
     <t>MEI TRABAJADOR</t>
+  </si>
+  <si>
+    <t>19898Y</t>
+  </si>
+  <si>
+    <t>ss738010V</t>
+  </si>
+  <si>
+    <t>X3387K</t>
+  </si>
+  <si>
+    <t>w9314602Q</t>
+  </si>
+  <si>
+    <t>0945</t>
   </si>
   <si>
     <t>09548416N</t>
@@ -2314,21 +2314,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125"/>
-    <col min="12" max="12" style="2" width="11.42578125"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875"/>
+    <col min="12" max="12" style="2" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
@@ -2369,18 +2369,18 @@
         <v>61</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>527</v>
@@ -2401,16 +2401,16 @@
         <v>38</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>46</v>
@@ -2422,12 +2422,12 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>528</v>
@@ -2439,22 +2439,22 @@
         <v>42461</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>38</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>119</v>
@@ -2463,12 +2463,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>529</v>
@@ -2480,7 +2480,7 @@
         <v>42979</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>82</v>
@@ -2492,7 +2492,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>47</v>
@@ -2504,12 +2504,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>530</v>
@@ -2521,10 +2521,10 @@
         <v>42979</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>11</v>
@@ -2539,18 +2539,18 @@
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>531</v>
@@ -2562,22 +2562,22 @@
         <v>43221</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
@@ -2586,12 +2586,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>532</v>
@@ -2615,10 +2615,10 @@
         <v>114</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>99</v>
@@ -2627,12 +2627,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>533</v>
@@ -2644,10 +2644,10 @@
         <v>40787</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>40</v>
@@ -2656,24 +2656,24 @@
         <v>114</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>534</v>
@@ -2685,7 +2685,7 @@
         <v>40787</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>82</v>
@@ -2703,13 +2703,13 @@
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>40787</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>82</v>
@@ -2741,7 +2741,7 @@
         <v>121</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
@@ -2750,12 +2750,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>536</v>
@@ -2767,36 +2767,36 @@
         <v>41030</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>40</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>537</v>
@@ -2808,10 +2808,10 @@
         <v>41030</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>41</v>
@@ -2823,21 +2823,21 @@
         <v>127</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>538</v>
@@ -2849,36 +2849,36 @@
         <v>43952</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>27</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>539</v>
@@ -2890,10 +2890,10 @@
         <v>38718</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>11</v>
@@ -2908,21 +2908,21 @@
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>131</v>
+        <v>421</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>540</v>
@@ -2934,10 +2934,10 @@
         <v>38384</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>9</v>
@@ -2949,7 +2949,7 @@
         <v>34</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
@@ -2958,12 +2958,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>541</v>
@@ -2975,10 +2975,10 @@
         <v>43191</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>8</v>
@@ -2993,18 +2993,18 @@
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>542</v>
@@ -3016,10 +3016,10 @@
         <v>36192</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>8</v>
@@ -3028,7 +3028,7 @@
         <v>28</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s" s="0">
         <v>23</v>
@@ -3040,12 +3040,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>543</v>
@@ -3069,24 +3069,24 @@
         <v>124</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>544</v>
@@ -3116,18 +3116,18 @@
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>545</v>
@@ -3148,27 +3148,27 @@
         <v>8</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>95</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M21" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>546</v>
@@ -3189,19 +3189,19 @@
         <v>11</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
@@ -3218,33 +3218,33 @@
         <v>40422</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s" s="0">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>548</v>
@@ -3256,33 +3256,33 @@
         <v>44075</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>549</v>
@@ -3294,19 +3294,19 @@
         <v>39814</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
@@ -3315,15 +3315,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>550</v>
@@ -3335,10 +3335,10 @@
         <v>35096</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>8</v>
@@ -3350,7 +3350,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
@@ -3359,12 +3359,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>551</v>
@@ -3376,10 +3376,10 @@
         <v>39965</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>12</v>
@@ -3388,24 +3388,24 @@
         <v>28</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s" s="0">
         <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>552</v>
@@ -3426,13 +3426,13 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
@@ -3441,12 +3441,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>553</v>
@@ -3458,10 +3458,10 @@
         <v>35400</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>38</v>
@@ -3476,18 +3476,18 @@
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>554</v>
@@ -3508,27 +3508,27 @@
         <v>56</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="0">
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>555</v>
@@ -3549,36 +3549,36 @@
         <v>11</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>556</v>
@@ -3599,27 +3599,27 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>557</v>
@@ -3631,10 +3631,10 @@
         <v>40179</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>39</v>
@@ -3646,21 +3646,21 @@
         <v>127</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>558</v>
@@ -3672,7 +3672,7 @@
         <v>42339</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s" s="0">
         <v>82</v>
@@ -3690,18 +3690,18 @@
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>559</v>
@@ -3713,7 +3713,7 @@
         <v>39417</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s" s="0">
         <v>82</v>
@@ -3722,7 +3722,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J39" t="s" s="0">
         <v>27</v>
@@ -3737,12 +3737,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>560</v>
@@ -3754,10 +3754,10 @@
         <v>37226</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s" s="0">
         <v>44</v>
@@ -3766,24 +3766,24 @@
         <v>115</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M40" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>561</v>
@@ -3795,7 +3795,7 @@
         <v>38961</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>82</v>
@@ -3810,21 +3810,21 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M41" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>562</v>
@@ -3836,7 +3836,7 @@
         <v>41730</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G42" t="s" s="0">
         <v>82</v>
@@ -3845,27 +3845,27 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>34</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>563</v>
@@ -3877,7 +3877,7 @@
         <v>39142</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s" s="0">
         <v>82</v>
@@ -3889,24 +3889,24 @@
         <v>111</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>564</v>
@@ -3918,10 +3918,10 @@
         <v>36739</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>10</v>
@@ -3930,24 +3930,24 @@
         <v>111</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M44" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>565</v>
@@ -3959,10 +3959,10 @@
         <v>42125</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>10</v>
@@ -3974,21 +3974,21 @@
         <v>130</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>566</v>
@@ -4009,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J46" t="s" s="0">
         <v>95</v>
@@ -4018,18 +4018,18 @@
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>567</v>
@@ -4041,7 +4041,7 @@
         <v>40391</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G47" t="s" s="0">
         <v>82</v>
@@ -4056,16 +4056,16 @@
         <v>28</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M47" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
@@ -4082,36 +4082,36 @@
         <v>40909</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J48" t="s" s="0">
         <v>28</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>569</v>
@@ -4123,7 +4123,7 @@
         <v>41456</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G49" t="s" s="0">
         <v>82</v>
@@ -4141,18 +4141,18 @@
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>570</v>
@@ -4173,27 +4173,27 @@
         <v>9</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>571</v>
@@ -4214,27 +4214,27 @@
         <v>8</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J51" t="s" s="0">
         <v>124</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>572</v>
@@ -4246,10 +4246,10 @@
         <v>39356</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H52" t="s" s="0">
         <v>11</v>
@@ -4261,21 +4261,21 @@
         <v>124</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M52" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>573</v>
@@ -4287,10 +4287,10 @@
         <v>39661</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>9</v>
@@ -4302,21 +4302,21 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M53" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>574</v>
@@ -4328,10 +4328,10 @@
         <v>42401</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>9</v>
@@ -4340,24 +4340,24 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K54" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>171</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>575</v>
@@ -4378,7 +4378,7 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J55" t="s" s="0">
         <v>123</v>
@@ -4387,30 +4387,30 @@
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>576</v>
@@ -4422,10 +4422,10 @@
         <v>41671</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>38</v>
@@ -4434,24 +4434,24 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>577</v>
@@ -4463,36 +4463,36 @@
         <v>37865</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>56</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>578</v>
@@ -4504,7 +4504,7 @@
         <v>39904</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G62" t="s" s="0">
         <v>82</v>
@@ -4516,24 +4516,24 @@
         <v>115</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>579</v>
@@ -4545,7 +4545,7 @@
         <v>40848</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>82</v>
@@ -4554,13 +4554,13 @@
         <v>9</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
@@ -4569,12 +4569,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>580</v>
@@ -4586,33 +4586,33 @@
         <v>42644</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H64" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K64" t="s" s="0">
         <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M64" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>581</v>
@@ -4624,10 +4624,10 @@
         <v>35827</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H65" t="s" s="0">
         <v>41</v>
@@ -4645,7 +4645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>39417</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G66" t="s" s="0">
         <v>82</v>
@@ -4671,24 +4671,24 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="0">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M66" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>583</v>
@@ -4700,7 +4700,7 @@
         <v>42156</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G67" t="s" s="0">
         <v>82</v>
@@ -4718,18 +4718,18 @@
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>584</v>
@@ -4741,10 +4741,10 @@
         <v>40787</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H68" t="s" s="0">
         <v>9</v>
@@ -4759,18 +4759,18 @@
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>585</v>
@@ -4782,10 +4782,10 @@
         <v>39873</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H69" t="s" s="0">
         <v>11</v>
@@ -4797,7 +4797,7 @@
         <v>100</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>112</v>
@@ -4806,12 +4806,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>586</v>
@@ -4823,36 +4823,36 @@
         <v>39417</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H70" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I70" t="s" s="0">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J70" t="s" s="0">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K70" t="s" s="0">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>576</v>
@@ -4864,36 +4864,36 @@
         <v>39448</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H71" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I71" t="s" s="0">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J71" t="s" s="0">
         <v>124</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M71" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>587</v>
@@ -4905,7 +4905,7 @@
         <v>36951</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G72" t="s" s="0">
         <v>82</v>
@@ -4923,18 +4923,18 @@
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M72" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>588</v>
@@ -4946,16 +4946,16 @@
         <v>36130</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H73" t="s" s="0">
         <v>38</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J73" t="s" s="0">
         <v>78</v>
@@ -4964,18 +4964,18 @@
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M73" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>589</v>
@@ -4996,27 +4996,27 @@
         <v>10</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J74" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K74" t="s" s="0">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M74" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>590</v>
@@ -5028,7 +5028,7 @@
         <v>39661</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G75" t="s" s="0">
         <v>82</v>
@@ -5043,21 +5043,21 @@
         <v>123</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M75" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>591</v>
@@ -5078,22 +5078,22 @@
         <v>11</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J76" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
@@ -5110,36 +5110,36 @@
         <v>40027</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H77" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I77" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J77" t="s" s="0">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>268</v>
+        <v>423</v>
       </c>
       <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>593</v>
@@ -5151,7 +5151,7 @@
         <v>41548</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G79" t="s" s="0">
         <v>82</v>
@@ -5163,10 +5163,10 @@
         <v>118</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K79" t="s" s="0">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>104</v>
@@ -5175,7 +5175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>43009</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G80" t="s" s="0">
         <v>82</v>
@@ -5204,24 +5204,24 @@
         <v>28</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K80" t="s" s="0">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M80" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>595</v>
@@ -5233,22 +5233,22 @@
         <v>37500</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H81" t="s" s="0">
         <v>45</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J81" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K81" t="s" s="0">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>110</v>
@@ -5257,12 +5257,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>596</v>
@@ -5274,7 +5274,7 @@
         <v>36526</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G82" t="s" s="0">
         <v>82</v>
@@ -5283,24 +5283,24 @@
         <v>39</v>
       </c>
       <c r="I82" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J82" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K82" t="s" s="0">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M82" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="3">
         <v>522</v>
@@ -5315,10 +5315,10 @@
         <v>36861</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H83" t="s" s="0">
         <v>43</v>
@@ -5327,24 +5327,24 @@
         <v>98</v>
       </c>
       <c r="J83" t="s" s="0">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K83" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>192</v>
+        <v>424</v>
       </c>
       <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>598</v>
@@ -5368,24 +5368,24 @@
         <v>28</v>
       </c>
       <c r="K84" t="s" s="0">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>599</v>
@@ -5397,7 +5397,7 @@
         <v>42644</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G86" t="s" s="0">
         <v>82</v>
@@ -5409,24 +5409,24 @@
         <v>26</v>
       </c>
       <c r="J86" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M86" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>600</v>
@@ -5438,36 +5438,36 @@
         <v>43221</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H87" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I87" t="s" s="0">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J87" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K87" t="s" s="0">
         <v>102</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M87" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>601</v>
@@ -5479,7 +5479,7 @@
         <v>40787</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G88" t="s" s="0">
         <v>82</v>
@@ -5491,24 +5491,24 @@
         <v>28</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M88" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>602</v>
@@ -5520,36 +5520,36 @@
         <v>38200</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H89" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I89" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K89" t="s" s="0">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>603</v>
@@ -5561,33 +5561,33 @@
         <v>36312</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H90" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I90" t="s" s="0">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K90" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s" s="0">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>604</v>
@@ -5599,10 +5599,10 @@
         <v>37895</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H91" t="s" s="0">
         <v>8</v>
@@ -5611,24 +5611,24 @@
         <v>115</v>
       </c>
       <c r="J91" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K91" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M91" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>605</v>
@@ -5640,10 +5640,10 @@
         <v>44105</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H92" t="s" s="0">
         <v>8</v>
@@ -5652,24 +5652,24 @@
         <v>24</v>
       </c>
       <c r="J92" t="s" s="0">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K92" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M92" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>606</v>
@@ -5681,36 +5681,36 @@
         <v>42278</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H93" t="s" s="0">
         <v>56</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J93" t="s" s="0">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K93" t="s" s="0">
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>607</v>
@@ -5722,10 +5722,10 @@
         <v>41214</v>
       </c>
       <c r="F94" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H94" t="s" s="0">
         <v>8</v>
@@ -5737,18 +5737,18 @@
         <v>33</v>
       </c>
       <c r="K94" t="s" s="0">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M94" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>608</v>
@@ -5778,27 +5778,27 @@
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C98" s="2"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C100" s="2"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B102" t="s" s="3">
         <v>523</v>
@@ -5813,22 +5813,22 @@
         <v>43070</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H102" t="s" s="0">
         <v>12</v>
       </c>
       <c r="I102" t="s" s="0">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J102" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K102" t="s" s="0">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
@@ -5837,9 +5837,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B103" t="s" s="3">
         <v>524</v>
@@ -5854,10 +5854,10 @@
         <v>43952</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H103" t="s" s="0">
         <v>45</v>
@@ -5869,21 +5869,21 @@
         <v>25</v>
       </c>
       <c r="K103" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M103" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>611</v>
@@ -5907,24 +5907,24 @@
         <v>24</v>
       </c>
       <c r="J104" t="s" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K104" t="s" s="0">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M104" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>612</v>
@@ -5936,7 +5936,7 @@
         <v>44014</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G105" t="s" s="0">
         <v>82</v>
@@ -5945,24 +5945,24 @@
         <v>43</v>
       </c>
       <c r="I105" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J105" t="s" s="0">
         <v>114</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B106" t="s" s="3">
         <v>525</v>
@@ -5986,27 +5986,27 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J106" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K106" t="s" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>614</v>
@@ -6018,7 +6018,7 @@
         <v>39142</v>
       </c>
       <c r="F127" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G127" t="s" s="0">
         <v>82</v>
@@ -6030,21 +6030,21 @@
         <v>31</v>
       </c>
       <c r="J127" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="K127" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="L127" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="K127" t="s" s="0">
-        <v>199</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="M127" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s" s="0">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B128" t="s" s="3">
         <v>526</v>
@@ -6059,22 +6059,22 @@
         <v>36739</v>
       </c>
       <c r="F128" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G128" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H128" t="s" s="0">
         <v>45</v>
       </c>
       <c r="I128" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K128" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
@@ -6083,12 +6083,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>616</v>
@@ -6100,36 +6100,36 @@
         <v>42125</v>
       </c>
       <c r="F129" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G129" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H129" t="s" s="0">
         <v>39</v>
       </c>
       <c r="I129" t="s" s="0">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J129" t="s" s="0">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K129" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>617</v>
@@ -6141,7 +6141,7 @@
         <v>39052</v>
       </c>
       <c r="F130" t="s" s="0">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G130" t="s" s="0">
         <v>82</v>
@@ -6156,21 +6156,21 @@
         <v>103</v>
       </c>
       <c r="K130" t="s" s="0">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>618</v>
@@ -6182,31 +6182,31 @@
         <v>40391</v>
       </c>
       <c r="F131" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G131" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H131" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I131" t="s" s="0">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J131" t="s" s="0">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K131" t="s" s="0">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M131" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
@@ -6232,27 +6232,27 @@
         <v>9</v>
       </c>
       <c r="I132" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J132" t="s" s="0">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K132" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M132" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>620</v>
@@ -6288,12 +6288,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>621</v>
@@ -6305,10 +6305,10 @@
         <v>42248</v>
       </c>
       <c r="F134" t="s" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G134" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H134" t="s" s="0">
         <v>9</v>
@@ -6320,21 +6320,21 @@
         <v>25</v>
       </c>
       <c r="K134" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M134" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s" s="0">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>622</v>
@@ -6346,10 +6346,10 @@
         <v>39995</v>
       </c>
       <c r="F135" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G135" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H135" t="s" s="0">
         <v>8</v>
@@ -6358,7 +6358,7 @@
         <v>28</v>
       </c>
       <c r="J135" t="s" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K135" t="s" s="0">
         <v>113</v>
@@ -6367,12 +6367,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s" s="0">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>623</v>
@@ -6384,25 +6384,25 @@
         <v>39356</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G136" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H136" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I136" t="s" s="0">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J136" t="s" s="0">
         <v>114</v>
       </c>
       <c r="K136" t="s" s="0">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M136" t="s" s="0">
         <v>19</v>
@@ -6421,18 +6421,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125"/>
     <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.85546875"/>
+    <col min="7" max="7" customWidth="true" width="15.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>12500</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>19000</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>26000</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>17500</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>21000</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>31000</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>12500</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>14500</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>20500</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>16500</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>11000</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>31000</v>
       </c>
@@ -6610,13 +6610,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625"/>
-    <col min="2" max="2" customWidth="true" width="18.28515625"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>16</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>17</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>18</v>
       </c>
@@ -6777,17 +6777,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.42578125"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125"/>
+    <col min="6" max="6" customWidth="true" width="41.44140625"/>
+    <col min="8" max="8" customWidth="true" width="41.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>12000</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>15000</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>16000</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>17000</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>18000</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>19000</v>
       </c>
@@ -6907,13 +6907,13 @@
         <v>11.75</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>20000</v>
       </c>
@@ -6921,13 +6921,13 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>21000</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>22000</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>23000</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>24000</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>25000</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>26000</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>27000</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>28000</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>29000</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>30000</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>31000</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>32000</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>33000</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>34000</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>35000</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>36000</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>37000</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>38000</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>39000</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>40000</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>41000</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>42000</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>43000</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>44000</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>45000</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>46000</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>47000</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>48000</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>49000</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>50000</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>51000</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>52000</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="0">
         <v>53000</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="0">
         <v>54000</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="0">
         <v>55000</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="0">
         <v>56000</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="0">
         <v>57000</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="0">
         <v>58000</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="0">
         <v>59000</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="0">
         <v>60000</v>
       </c>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\git\Proyecto_NominasSI\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237FBB9-9941-4C6C-AB7A-86454904C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FF6C16-0F1A-48DC-818F-C1D6217FC951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="612">
   <si>
     <t>Nombre</t>
   </si>
@@ -219,9 +219,6 @@
     <t>20960031442124800000</t>
   </si>
   <si>
-    <t>20960056163231500000</t>
-  </si>
-  <si>
     <t>01826530120201560000</t>
   </si>
   <si>
@@ -882,24 +879,6 @@
     <t>Latifa Epfouad Erre</t>
   </si>
   <si>
-    <t>51556584121251000254</t>
-  </si>
-  <si>
-    <t>26551681877651415636</t>
-  </si>
-  <si>
-    <t>62541122001110105611</t>
-  </si>
-  <si>
-    <t>65645150005168448896</t>
-  </si>
-  <si>
-    <t>20012541100023365233</t>
-  </si>
-  <si>
-    <t>23658965214585223202</t>
-  </si>
-  <si>
     <t>MC</t>
   </si>
   <si>
@@ -966,15 +945,9 @@
     <t>99558741836555551120</t>
   </si>
   <si>
-    <t>09548150L</t>
-  </si>
-  <si>
     <t>32541112811220000588</t>
   </si>
   <si>
-    <t>09548416X</t>
-  </si>
-  <si>
     <t>12548521518742146695</t>
   </si>
   <si>
@@ -1044,9 +1017,6 @@
     <t>65168874641561561500</t>
   </si>
   <si>
-    <t>09548295P</t>
-  </si>
-  <si>
     <t>36952365020014425254</t>
   </si>
   <si>
@@ -1089,9 +1059,6 @@
     <t>36585214290025478551</t>
   </si>
   <si>
-    <t>09785530J</t>
-  </si>
-  <si>
     <t>21651651812511133551</t>
   </si>
   <si>
@@ -1126,9 +1093,6 @@
   </si>
   <si>
     <t>X8996448K</t>
-  </si>
-  <si>
-    <t>09548827E</t>
   </si>
   <si>
     <t>66552211148855332200</t>
@@ -1906,7 +1870,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2314,23 +2277,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875"/>
-    <col min="12" max="12" style="2" width="11.44140625"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
-        <v>81</v>
+      <c r="A1" t="s">
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>60</v>
@@ -2338,81 +2301,81 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s" s="0">
-        <v>417</v>
-      </c>
-      <c r="O1" t="s" s="0">
-        <v>418</v>
+      <c r="N1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>75</v>
+      <c r="A2" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>427</v>
+        <v>399</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D2" t="s">
+        <v>415</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s" s="0">
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="J2" t="s" s="0">
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>134</v>
+      <c r="K2" t="s">
+        <v>133</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="M2" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="M2" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -2423,3988 +2386,3946 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>70</v>
+      <c r="A3" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>428</v>
+        <v>398</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" t="s">
+        <v>416</v>
       </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H3" t="s" s="0">
+      <c r="F3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>218</v>
+      <c r="I3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
+        <v>217</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>297</v>
+      <c r="A4" t="s">
+        <v>290</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>429</v>
+        <v>397</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D4" t="s">
+        <v>417</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="0">
+      <c r="F4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s" s="0">
-        <v>242</v>
-      </c>
-      <c r="K4" t="s" s="0">
+      <c r="J4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" t="s">
         <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
-        <v>71</v>
+      <c r="A5" t="s">
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>430</v>
+        <v>396</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" t="s">
+        <v>418</v>
       </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H5" t="s" s="0">
+      <c r="F5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s" s="0">
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M5" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="M5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
-        <v>290</v>
+      <c r="A6" t="s">
+        <v>283</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>431</v>
+        <v>395</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" t="s">
+        <v>419</v>
       </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H6" t="s" s="0">
+      <c r="F6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s" s="0">
-        <v>224</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="K6" t="s" s="0">
+      <c r="I6" t="s">
         <v>223</v>
       </c>
+      <c r="J6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" t="s">
+        <v>222</v>
+      </c>
       <c r="L6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="M6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
-        <v>70</v>
+      <c r="A7" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>432</v>
+        <v>388</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" t="s">
+        <v>420</v>
       </c>
       <c r="E7" s="1">
         <v>43222</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H7" t="s" s="0">
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>228</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>208</v>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" t="s">
+        <v>207</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
-        <v>72</v>
+      <c r="A8" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>433</v>
+        <v>394</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" t="s">
+        <v>421</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H8" t="s" s="0">
+      <c r="F8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="K8" t="s" s="0">
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" t="s">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
-        <v>70</v>
+      <c r="A9" t="s">
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>434</v>
+        <v>393</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" t="s">
+        <v>422</v>
       </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s" s="0">
+      <c r="F9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="K9" t="s" s="0">
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="M9" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
-        <v>74</v>
+      <c r="A10" t="s">
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>435</v>
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" t="s">
+        <v>423</v>
       </c>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s" s="0">
+      <c r="F10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="K10" t="s" s="0">
-        <v>260</v>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>259</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
-        <v>70</v>
+      <c r="A11" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>436</v>
+        <v>391</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D11" t="s">
+        <v>424</v>
       </c>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H11" t="s" s="0">
+      <c r="F11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="K11" t="s" s="0">
+      <c r="I11" t="s">
         <v>248</v>
       </c>
+      <c r="J11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" t="s">
+        <v>247</v>
+      </c>
       <c r="L11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="M11" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
-        <v>294</v>
+      <c r="A12" t="s">
+        <v>287</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>437</v>
+        <v>390</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D12" t="s">
+        <v>425</v>
       </c>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H12" t="s" s="0">
+      <c r="F12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>258</v>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>257</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="M12" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="M12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
-        <v>300</v>
+      <c r="A13" t="s">
+        <v>293</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>438</v>
+        <v>389</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" t="s">
+        <v>426</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
-      <c r="F13" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H13" t="s" s="0">
+      <c r="F13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="J13" t="s" s="0">
+      <c r="I13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s" s="0">
-        <v>245</v>
+      <c r="K13" t="s">
+        <v>244</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="M13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
-        <v>73</v>
+      <c r="A14" t="s">
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>439</v>
+        <v>382</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D14" t="s">
+        <v>427</v>
       </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
-      <c r="F14" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H14" t="s" s="0">
+      <c r="F14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="K14" t="s" s="0">
-        <v>77</v>
+      <c r="K14" t="s">
+        <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M14" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="M14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-    </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
-        <v>299</v>
+      <c r="A16" t="s">
+        <v>292</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>440</v>
+        <v>387</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16" t="s">
+        <v>428</v>
       </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H16" t="s" s="0">
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>51</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" t="s" s="0">
-        <v>283</v>
+      <c r="K16" t="s">
+        <v>282</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
-        <v>70</v>
+      <c r="A17" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>441</v>
+        <v>386</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" t="s">
+        <v>429</v>
       </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H17" t="s" s="0">
+      <c r="F17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" t="s">
         <v>8</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>51</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="M17" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="M17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
-        <v>291</v>
+      <c r="A18" t="s">
+        <v>284</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>442</v>
+        <v>385</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" t="s">
+        <v>430</v>
       </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
-      <c r="F18" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H18" t="s" s="0">
+      <c r="F18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>28</v>
       </c>
-      <c r="J18" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="K18" t="s" s="0">
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="M18" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="M18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
-        <v>293</v>
+      <c r="A19" t="s">
+        <v>286</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>443</v>
+        <v>384</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D19" t="s">
+        <v>431</v>
       </c>
       <c r="E19" s="1">
         <v>40909</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H19" t="s" s="0">
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>162</v>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M19" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="M19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
-        <v>70</v>
+      <c r="A20" t="s">
+        <v>69</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>444</v>
+        <v>383</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D20" t="s">
+        <v>432</v>
       </c>
       <c r="E20" s="1">
         <v>40269</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="J20" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="K20" t="s" s="0">
-        <v>68</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="M20" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="M20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
-        <v>75</v>
+      <c r="A21" t="s">
+        <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>445</v>
+        <v>382</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D21" t="s">
+        <v>433</v>
       </c>
       <c r="E21" s="1">
         <v>43282</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H21" t="s" s="0">
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
         <v>8</v>
       </c>
-      <c r="I21" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="J21" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="K21" t="s" s="0">
-        <v>139</v>
+      <c r="I21" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" t="s">
+        <v>138</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M21" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="M21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
-        <v>70</v>
+      <c r="A22" t="s">
+        <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>446</v>
+        <v>380</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D22" t="s">
+        <v>434</v>
       </c>
       <c r="E22" s="1">
         <v>41306</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H22" t="s" s="0">
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="K22" t="s" s="0">
-        <v>241</v>
+      <c r="I22" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" t="s">
+        <v>240</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M22" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
-        <v>72</v>
+      <c r="A23" t="s">
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>447</v>
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D23" t="s">
+        <v>435</v>
       </c>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
-      <c r="F23" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H23" t="s" s="0">
+      <c r="F23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" t="s">
+        <v>300</v>
+      </c>
+      <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="I23" t="s" s="0">
-        <v>252</v>
-      </c>
-      <c r="K23" t="s" s="0">
-        <v>105</v>
+      <c r="I23" t="s">
+        <v>251</v>
+      </c>
+      <c r="K23" t="s">
+        <v>104</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="M23" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="M23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
-        <v>70</v>
+      <c r="A24" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>448</v>
+        <v>378</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D24" t="s">
+        <v>436</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
-      <c r="F24" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G24" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H24" t="s" s="0">
+      <c r="F24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G24" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" t="s">
         <v>9</v>
       </c>
-      <c r="I24" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="K24" t="s" s="0">
-        <v>230</v>
+      <c r="I24" t="s">
+        <v>255</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M24" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="M24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
-        <v>71</v>
+      <c r="A25" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>449</v>
+        <v>377</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D25" t="s">
+        <v>437</v>
       </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
-      <c r="F25" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H25" t="s" s="0">
+      <c r="F25" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="I25" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="K25" t="s" s="0">
-        <v>227</v>
+      <c r="I25" t="s">
+        <v>261</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M25" t="s" s="0">
+      <c r="M25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-    </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s" s="0">
-        <v>70</v>
+      <c r="A27" t="s">
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>450</v>
+        <v>376</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D27" t="s">
+        <v>438</v>
       </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
-      <c r="F27" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G27" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H27" t="s" s="0">
+      <c r="F27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G27" t="s">
+        <v>302</v>
+      </c>
+      <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="I27" t="s" s="0">
+      <c r="I27" t="s">
         <v>17</v>
       </c>
-      <c r="J27" t="s" s="0">
+      <c r="J27" t="s">
         <v>30</v>
       </c>
-      <c r="K27" t="s" s="0">
-        <v>412</v>
+      <c r="K27" t="s">
+        <v>400</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s" s="0">
-        <v>70</v>
+      <c r="A28" t="s">
+        <v>69</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>451</v>
+        <v>375</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" t="s">
+        <v>439</v>
       </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
-      <c r="F28" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G28" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H28" t="s" s="0">
+      <c r="F28" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" t="s">
+        <v>302</v>
+      </c>
+      <c r="H28" t="s">
         <v>12</v>
       </c>
-      <c r="I28" t="s" s="0">
+      <c r="I28" t="s">
         <v>28</v>
       </c>
-      <c r="J28" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="K28" t="s" s="0">
-        <v>120</v>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" t="s">
+        <v>119</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M28" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="M28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s" s="0">
-        <v>303</v>
+      <c r="A29" t="s">
+        <v>296</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>427</v>
+        <v>374</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D29" t="s">
+        <v>415</v>
       </c>
       <c r="E29" s="1">
         <v>35827</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H29" t="s" s="0">
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
         <v>42</v>
       </c>
-      <c r="I29" t="s" s="0">
-        <v>413</v>
-      </c>
-      <c r="J29" t="s" s="0">
-        <v>242</v>
-      </c>
-      <c r="K29" t="s" s="0">
-        <v>414</v>
+      <c r="I29" t="s">
+        <v>401</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>402</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M29" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="M29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s" s="0">
-        <v>70</v>
+      <c r="A30" t="s">
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>452</v>
+        <v>373</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D30" t="s">
+        <v>440</v>
       </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
-      <c r="F30" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H30" t="s" s="0">
+      <c r="F30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" t="s">
+        <v>300</v>
+      </c>
+      <c r="H30" t="s">
         <v>38</v>
       </c>
-      <c r="I30" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="J30" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="K30" t="s" s="0">
-        <v>126</v>
+      <c r="I30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" t="s">
+        <v>125</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="M30" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="M30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s" s="0">
-        <v>70</v>
+      <c r="A31" t="s">
+        <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="D31" t="s" s="0">
-        <v>453</v>
+        <v>372</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D31" t="s">
+        <v>441</v>
       </c>
       <c r="E31" s="1">
         <v>38139</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H31" t="s" s="0">
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
         <v>56</v>
       </c>
-      <c r="I31" t="s" s="0">
-        <v>279</v>
-      </c>
-      <c r="J31" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="K31" t="s" s="0">
-        <v>97</v>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>96</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="M31" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="M31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" s="0">
-        <v>301</v>
+      <c r="A32" t="s">
+        <v>294</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>427</v>
+        <v>371</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D32" t="s">
+        <v>415</v>
       </c>
       <c r="E32" s="1">
         <v>37530</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H32" t="s" s="0">
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s">
         <v>11</v>
       </c>
-      <c r="I32" t="s" s="0">
-        <v>415</v>
-      </c>
-      <c r="J32" t="s" s="0">
-        <v>415</v>
-      </c>
-      <c r="K32" t="s" s="0">
-        <v>179</v>
+      <c r="I32" t="s">
+        <v>403</v>
+      </c>
+      <c r="J32" t="s">
+        <v>403</v>
+      </c>
+      <c r="K32" t="s">
+        <v>178</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M32" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="M32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="2"/>
-    </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s" s="0">
-        <v>71</v>
+      <c r="A36" t="s">
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>454</v>
+        <v>367</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D36" t="s">
+        <v>442</v>
       </c>
       <c r="E36" s="1">
         <v>35551</v>
       </c>
-      <c r="F36" t="s" s="0">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="G36" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H36" t="s" s="0">
+      <c r="G36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s">
         <v>44</v>
       </c>
-      <c r="I36" t="s" s="0">
-        <v>273</v>
-      </c>
-      <c r="J36" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="K36" t="s" s="0">
-        <v>205</v>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" t="s">
+        <v>204</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="M36" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="M36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s" s="0">
-        <v>71</v>
+      <c r="A37" t="s">
+        <v>70</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>455</v>
+        <v>366</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D37" t="s">
+        <v>443</v>
       </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
-      <c r="F37" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G37" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H37" t="s" s="0">
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" t="s">
+        <v>298</v>
+      </c>
+      <c r="H37" t="s">
         <v>39</v>
       </c>
-      <c r="I37" t="s" s="0">
+      <c r="I37" t="s">
         <v>33</v>
       </c>
-      <c r="J37" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="K37" t="s" s="0">
-        <v>143</v>
+      <c r="J37" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" t="s">
+        <v>142</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="M37" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="M37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s" s="0">
-        <v>70</v>
+      <c r="A38" t="s">
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>456</v>
+        <v>365</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D38" t="s">
+        <v>444</v>
       </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
-      <c r="F38" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G38" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H38" t="s" s="0">
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
         <v>9</v>
       </c>
-      <c r="I38" t="s" s="0">
+      <c r="I38" t="s">
         <v>26</v>
       </c>
-      <c r="J38" t="s" s="0">
+      <c r="J38" t="s">
         <v>27</v>
       </c>
-      <c r="K38" t="s" s="0">
-        <v>129</v>
+      <c r="K38" t="s">
+        <v>128</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="M38" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="M38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s" s="0">
-        <v>70</v>
+      <c r="A39" t="s">
+        <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>457</v>
+        <v>364</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D39" t="s">
+        <v>445</v>
       </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
-      <c r="F39" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G39" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H39" t="s" s="0">
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="I39" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="J39" t="s" s="0">
+      <c r="I39" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" t="s">
         <v>27</v>
       </c>
-      <c r="K39" t="s" s="0">
-        <v>94</v>
+      <c r="K39" t="s">
+        <v>93</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M39" t="s" s="0">
+      <c r="M39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s" s="0">
-        <v>70</v>
+      <c r="A40" t="s">
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>458</v>
+        <v>363</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D40" t="s">
+        <v>446</v>
       </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
-      <c r="F40" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H40" t="s" s="0">
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>298</v>
+      </c>
+      <c r="H40" t="s">
         <v>44</v>
       </c>
-      <c r="I40" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="J40" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="K40" t="s" s="0">
-        <v>170</v>
+      <c r="I40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" t="s">
+        <v>189</v>
+      </c>
+      <c r="K40" t="s">
+        <v>169</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M40" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="M40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s" s="0">
-        <v>70</v>
+      <c r="A41" t="s">
+        <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>459</v>
+        <v>362</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D41" t="s">
+        <v>447</v>
       </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
-      <c r="F41" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G41" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H41" t="s" s="0">
+      <c r="F41" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s">
         <v>10</v>
       </c>
-      <c r="I41" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="J41" t="s" s="0">
+      <c r="I41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" t="s">
         <v>34</v>
       </c>
-      <c r="K41" t="s" s="0">
-        <v>164</v>
+      <c r="K41" t="s">
+        <v>163</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M41" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="M41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s" s="0">
-        <v>74</v>
+      <c r="A42" t="s">
+        <v>73</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>460</v>
+        <v>361</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D42" t="s">
+        <v>448</v>
       </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
-      <c r="F42" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G42" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="0">
+      <c r="F42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
         <v>39</v>
       </c>
-      <c r="I42" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="J42" t="s" s="0">
+      <c r="I42" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" t="s">
         <v>34</v>
       </c>
-      <c r="K42" t="s" s="0">
-        <v>181</v>
+      <c r="K42" t="s">
+        <v>180</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M42" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="M42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s" s="0">
-        <v>70</v>
+      <c r="A43" t="s">
+        <v>69</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="D43" t="s" s="0">
-        <v>461</v>
+        <v>359</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D43" t="s">
+        <v>449</v>
       </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
-      <c r="F43" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G43" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H43" t="s" s="0">
+      <c r="F43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
         <v>38</v>
       </c>
-      <c r="I43" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="J43" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="K43" t="s" s="0">
-        <v>206</v>
+      <c r="I43" t="s">
+        <v>110</v>
+      </c>
+      <c r="J43" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" t="s">
+        <v>205</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M43" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="M43" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s" s="0">
-        <v>70</v>
+      <c r="A44" t="s">
+        <v>69</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>462</v>
+        <v>358</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D44" t="s">
+        <v>450</v>
       </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
-      <c r="F44" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H44" t="s" s="0">
+      <c r="F44" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" t="s">
+        <v>300</v>
+      </c>
+      <c r="H44" t="s">
         <v>10</v>
       </c>
-      <c r="I44" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="J44" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="K44" t="s" s="0">
-        <v>179</v>
+      <c r="I44" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" t="s">
+        <v>178</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M44" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="M44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s" s="0">
-        <v>70</v>
+      <c r="A45" t="s">
+        <v>69</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="D45" t="s" s="0">
-        <v>463</v>
+        <v>357</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D45" t="s">
+        <v>451</v>
       </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
-      <c r="F45" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G45" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H45" t="s" s="0">
+      <c r="F45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H45" t="s">
         <v>10</v>
       </c>
-      <c r="I45" t="s" s="0">
+      <c r="I45" t="s">
         <v>20</v>
       </c>
-      <c r="J45" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="K45" t="s" s="0">
-        <v>213</v>
+      <c r="J45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" t="s">
+        <v>212</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M45" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="M45" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s" s="0">
-        <v>70</v>
+      <c r="A46" t="s">
+        <v>69</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>464</v>
+        <v>356</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D46" t="s">
+        <v>452</v>
       </c>
       <c r="E46" s="1">
         <v>39052</v>
       </c>
-      <c r="F46" t="s" s="0">
+      <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H46" t="s" s="0">
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="J46" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="K46" t="s" s="0">
-        <v>109</v>
+      <c r="I46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>108</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M46" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="M46" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s" s="0">
-        <v>70</v>
+      <c r="A47" t="s">
+        <v>69</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="D47" t="s" s="0">
-        <v>465</v>
+        <v>355</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D47" t="s">
+        <v>453</v>
       </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
-      <c r="F47" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G47" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H47" t="s" s="0">
+      <c r="F47" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
         <v>44</v>
       </c>
-      <c r="I47" t="s" s="0">
+      <c r="I47" t="s">
         <v>24</v>
       </c>
-      <c r="J47" t="s" s="0">
+      <c r="J47" t="s">
         <v>28</v>
       </c>
-      <c r="K47" t="s" s="0">
-        <v>155</v>
+      <c r="K47" t="s">
+        <v>154</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M47" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="M47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s" s="0">
-        <v>76</v>
+      <c r="A48" t="s">
+        <v>75</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>466</v>
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D48" t="s">
+        <v>454</v>
       </c>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
-      <c r="F48" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G48" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H48" t="s" s="0">
+      <c r="F48" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" t="s">
+        <v>302</v>
+      </c>
+      <c r="H48" t="s">
         <v>44</v>
       </c>
-      <c r="I48" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="J48" t="s" s="0">
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" t="s">
         <v>28</v>
       </c>
-      <c r="K48" t="s" s="0">
-        <v>189</v>
+      <c r="K48" t="s">
+        <v>188</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M48" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="M48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" t="s" s="0">
-        <v>71</v>
+      <c r="A49" t="s">
+        <v>70</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="D49" t="s" s="0">
-        <v>467</v>
+        <v>353</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D49" t="s">
+        <v>455</v>
       </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
-      <c r="F49" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G49" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H49" t="s" s="0">
+      <c r="F49" t="s">
+        <v>297</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s">
         <v>44</v>
       </c>
-      <c r="I49" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="J49" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="K49" t="s" s="0">
+      <c r="I49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M49" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s" s="0">
-        <v>71</v>
+      <c r="A50" t="s">
+        <v>70</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>468</v>
+        <v>352</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D50" t="s">
+        <v>456</v>
       </c>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
-      <c r="F50" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H50" t="s" s="0">
+      <c r="F50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
         <v>9</v>
       </c>
-      <c r="I50" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="J50" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="K50" t="s" s="0">
-        <v>198</v>
+      <c r="I50" t="s">
+        <v>215</v>
+      </c>
+      <c r="J50" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" t="s">
+        <v>197</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M50" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="M50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s" s="0">
-        <v>70</v>
+      <c r="A51" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="D51" t="s" s="0">
-        <v>468</v>
+        <v>350</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D51" t="s">
+        <v>456</v>
       </c>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
-      <c r="F51" t="s" s="0">
+      <c r="F51" t="s">
         <v>18</v>
       </c>
-      <c r="G51" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H51" t="s" s="0">
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s">
         <v>8</v>
       </c>
-      <c r="I51" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="J51" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="K51" t="s" s="0">
-        <v>198</v>
+      <c r="I51" t="s">
+        <v>215</v>
+      </c>
+      <c r="J51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" t="s">
+        <v>197</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M51" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="M51" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" t="s" s="0">
-        <v>299</v>
+      <c r="A52" t="s">
+        <v>292</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="D52" t="s" s="0">
-        <v>469</v>
+        <v>349</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D52" t="s">
+        <v>457</v>
       </c>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
-      <c r="F52" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G52" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H52" t="s" s="0">
+      <c r="F52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" t="s">
+        <v>300</v>
+      </c>
+      <c r="H52" t="s">
         <v>11</v>
       </c>
-      <c r="I52" t="s" s="0">
+      <c r="I52" t="s">
         <v>27</v>
       </c>
-      <c r="J52" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="K52" t="s" s="0">
-        <v>134</v>
+      <c r="J52" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52" t="s">
+        <v>133</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="M52" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M52" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" t="s" s="0">
-        <v>70</v>
+      <c r="A53" t="s">
+        <v>69</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="D53" t="s" s="0">
-        <v>470</v>
+        <v>348</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D53" t="s">
+        <v>458</v>
       </c>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
-      <c r="F53" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G53" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H53" t="s" s="0">
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" t="s">
+        <v>300</v>
+      </c>
+      <c r="H53" t="s">
         <v>9</v>
       </c>
-      <c r="I53" t="s" s="0">
+      <c r="I53" t="s">
         <v>28</v>
       </c>
-      <c r="J53" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="K53" t="s" s="0">
-        <v>218</v>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s">
+        <v>217</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M53" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="M53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" t="s" s="0">
-        <v>72</v>
+      <c r="A54" t="s">
+        <v>71</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>471</v>
+        <v>347</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D54" t="s">
+        <v>459</v>
       </c>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
-      <c r="F54" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G54" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H54" t="s" s="0">
+      <c r="F54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" t="s">
+        <v>300</v>
+      </c>
+      <c r="H54" t="s">
         <v>9</v>
       </c>
-      <c r="I54" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J54" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="K54" t="s" s="0">
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s">
+        <v>160</v>
+      </c>
+      <c r="K54" t="s">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M54" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="M54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" t="s" s="0">
-        <v>76</v>
+      <c r="A55" t="s">
+        <v>75</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D55" t="s" s="0">
-        <v>472</v>
+        <v>346</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D55" t="s">
+        <v>460</v>
       </c>
       <c r="E55" s="1">
         <v>40330</v>
       </c>
-      <c r="F55" t="s" s="0">
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="G55" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H55" t="s" s="0">
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
         <v>41</v>
       </c>
-      <c r="I55" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="J55" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="K55" t="s" s="0">
+      <c r="I55" t="s">
+        <v>164</v>
+      </c>
+      <c r="J55" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55" t="s">
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M55" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="M55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="2"/>
-    </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" t="s" s="0">
-        <v>70</v>
+      <c r="A60" t="s">
+        <v>69</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="D60" t="s" s="0">
-        <v>473</v>
+        <v>330</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D60" t="s">
+        <v>461</v>
       </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
-      <c r="F60" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G60" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H60" t="s" s="0">
+      <c r="F60" t="s">
+        <v>303</v>
+      </c>
+      <c r="G60" t="s">
+        <v>302</v>
+      </c>
+      <c r="H60" t="s">
         <v>38</v>
       </c>
-      <c r="I60" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="J60" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="K60" t="s" s="0">
-        <v>260</v>
+      <c r="I60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s">
+        <v>232</v>
+      </c>
+      <c r="K60" t="s">
+        <v>259</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="M60" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="M60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s" s="0">
-        <v>76</v>
+      <c r="A61" t="s">
+        <v>75</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="D61" t="s" s="0">
-        <v>474</v>
+        <v>342</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D61" t="s">
+        <v>462</v>
       </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
-      <c r="F61" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G61" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H61" t="s" s="0">
+      <c r="F61" t="s">
+        <v>299</v>
+      </c>
+      <c r="G61" t="s">
+        <v>298</v>
+      </c>
+      <c r="H61" t="s">
         <v>56</v>
       </c>
-      <c r="I61" t="s" s="0">
-        <v>240</v>
-      </c>
-      <c r="J61" t="s" s="0">
+      <c r="I61" t="s">
+        <v>239</v>
+      </c>
+      <c r="J61" t="s">
         <v>17</v>
       </c>
-      <c r="K61" t="s" s="0">
-        <v>416</v>
+      <c r="K61" t="s">
+        <v>404</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M61" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="M61" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" t="s" s="0">
-        <v>70</v>
+      <c r="A62" t="s">
+        <v>69</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="D62" t="s" s="0">
-        <v>429</v>
+        <v>341</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D62" t="s">
+        <v>417</v>
       </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
-      <c r="F62" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G62" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="0">
+      <c r="F62" t="s">
+        <v>297</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s">
         <v>11</v>
       </c>
-      <c r="I62" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="J62" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="K62" t="s" s="0">
-        <v>258</v>
+      <c r="I62" t="s">
+        <v>114</v>
+      </c>
+      <c r="J62" t="s">
+        <v>166</v>
+      </c>
+      <c r="K62" t="s">
+        <v>257</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="M62" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="M62" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" t="s" s="0">
-        <v>70</v>
+      <c r="A63" t="s">
+        <v>69</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="D63" t="s" s="0">
-        <v>475</v>
+        <v>340</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D63" t="s">
+        <v>463</v>
       </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
-      <c r="F63" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G63" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="0">
+      <c r="F63" t="s">
+        <v>297</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s">
         <v>9</v>
       </c>
-      <c r="I63" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="J63" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="K63" t="s" s="0">
-        <v>245</v>
+      <c r="I63" t="s">
+        <v>131</v>
+      </c>
+      <c r="J63" t="s">
+        <v>182</v>
+      </c>
+      <c r="K63" t="s">
+        <v>244</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M63" t="s" s="0">
+      <c r="M63" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s" s="0">
-        <v>70</v>
+      <c r="A64" t="s">
+        <v>69</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="D64" t="s" s="0">
-        <v>476</v>
+        <v>339</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D64" t="s">
+        <v>464</v>
       </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
-      <c r="F64" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G64" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H64" t="s" s="0">
+      <c r="F64" t="s">
+        <v>301</v>
+      </c>
+      <c r="G64" t="s">
+        <v>300</v>
+      </c>
+      <c r="H64" t="s">
         <v>10</v>
       </c>
-      <c r="I64" t="s" s="0">
-        <v>221</v>
-      </c>
-      <c r="K64" t="s" s="0">
-        <v>77</v>
+      <c r="I64" t="s">
+        <v>220</v>
+      </c>
+      <c r="K64" t="s">
+        <v>76</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M64" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="M64" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" t="s" s="0">
-        <v>70</v>
+      <c r="A65" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="D65" t="s" s="0">
-        <v>477</v>
+        <v>338</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D65" t="s">
+        <v>465</v>
       </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
-      <c r="F65" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G65" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H65" t="s" s="0">
+      <c r="F65" t="s">
+        <v>301</v>
+      </c>
+      <c r="G65" t="s">
+        <v>300</v>
+      </c>
+      <c r="H65" t="s">
         <v>41</v>
       </c>
-      <c r="I65" t="s" s="0">
+      <c r="I65" t="s">
         <v>29</v>
       </c>
-      <c r="K65" t="s" s="0">
+      <c r="K65" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>69</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M65" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="D66" t="s" s="0">
-        <v>478</v>
+      <c r="C66" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D66" t="s">
+        <v>466</v>
       </c>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
-      <c r="F66" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G66" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s" s="0">
+      <c r="F66" t="s">
+        <v>297</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s">
         <v>44</v>
       </c>
-      <c r="I66" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="K66" t="s" s="0">
-        <v>283</v>
+      <c r="I66" t="s">
+        <v>237</v>
+      </c>
+      <c r="K66" t="s">
+        <v>282</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M66" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="M66" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" t="s" s="0">
-        <v>70</v>
+      <c r="A67" t="s">
+        <v>69</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="D67" t="s" s="0">
-        <v>479</v>
+        <v>335</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D67" t="s">
+        <v>467</v>
       </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
-      <c r="F67" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G67" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s" s="0">
+      <c r="F67" t="s">
+        <v>297</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
         <v>39</v>
       </c>
-      <c r="I67" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="J67" t="s" s="0">
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" t="s">
         <v>28</v>
       </c>
-      <c r="K67" t="s" s="0">
+      <c r="K67" t="s">
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="M67" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="M67" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" t="s" s="0">
-        <v>70</v>
+      <c r="A68" t="s">
+        <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="D68" t="s" s="0">
-        <v>480</v>
+        <v>334</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D68" t="s">
+        <v>468</v>
       </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
-      <c r="F68" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G68" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H68" t="s" s="0">
+      <c r="F68" t="s">
+        <v>299</v>
+      </c>
+      <c r="G68" t="s">
+        <v>298</v>
+      </c>
+      <c r="H68" t="s">
         <v>9</v>
       </c>
-      <c r="I68" t="s" s="0">
+      <c r="I68" t="s">
         <v>16</v>
       </c>
-      <c r="J68" t="s" s="0">
+      <c r="J68" t="s">
         <v>28</v>
       </c>
-      <c r="K68" t="s" s="0">
+      <c r="K68" t="s">
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="M68" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="M68" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" t="s" s="0">
-        <v>70</v>
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="D69" t="s" s="0">
-        <v>481</v>
+        <v>333</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D69" t="s">
+        <v>469</v>
       </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
-      <c r="F69" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G69" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H69" t="s" s="0">
+      <c r="F69" t="s">
+        <v>299</v>
+      </c>
+      <c r="G69" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" t="s">
         <v>11</v>
       </c>
-      <c r="I69" t="s" s="0">
+      <c r="I69" t="s">
         <v>28</v>
       </c>
-      <c r="J69" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="K69" t="s" s="0">
-        <v>162</v>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+      <c r="K69" t="s">
+        <v>161</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M69" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="M69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" t="s" s="0">
-        <v>70</v>
+      <c r="A70" t="s">
+        <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="D70" t="s" s="0">
-        <v>482</v>
+        <v>332</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D70" t="s">
+        <v>470</v>
       </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
-      <c r="F70" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G70" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H70" t="s" s="0">
+      <c r="F70" t="s">
+        <v>299</v>
+      </c>
+      <c r="G70" t="s">
+        <v>298</v>
+      </c>
+      <c r="H70" t="s">
         <v>44</v>
       </c>
-      <c r="I70" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="J70" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="K70" t="s" s="0">
-        <v>223</v>
+      <c r="I70" t="s">
+        <v>183</v>
+      </c>
+      <c r="J70" t="s">
+        <v>175</v>
+      </c>
+      <c r="K70" t="s">
+        <v>222</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="M70" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="M70" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" t="s" s="0">
-        <v>70</v>
+      <c r="A71" t="s">
+        <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="D71" t="s" s="0">
-        <v>483</v>
+        <v>330</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D71" t="s">
+        <v>471</v>
       </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
-      <c r="F71" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G71" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H71" t="s" s="0">
+      <c r="F71" t="s">
+        <v>299</v>
+      </c>
+      <c r="G71" t="s">
+        <v>298</v>
+      </c>
+      <c r="H71" t="s">
         <v>10</v>
       </c>
-      <c r="I71" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="J71" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="K71" t="s" s="0">
-        <v>208</v>
+      <c r="I71" t="s">
+        <v>183</v>
+      </c>
+      <c r="J71" t="s">
+        <v>123</v>
+      </c>
+      <c r="K71" t="s">
+        <v>207</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M71" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="M71" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" t="s" s="0">
-        <v>303</v>
+      <c r="A72" t="s">
+        <v>296</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="D72" t="s" s="0">
-        <v>484</v>
+        <v>329</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D72" t="s">
+        <v>472</v>
       </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
-      <c r="F72" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G72" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s" s="0">
+      <c r="F72" t="s">
+        <v>297</v>
+      </c>
+      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s">
         <v>39</v>
       </c>
-      <c r="I72" t="s" s="0">
+      <c r="I72" t="s">
         <v>31</v>
       </c>
-      <c r="J72" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="K72" t="s" s="0">
+      <c r="J72" t="s">
+        <v>123</v>
+      </c>
+      <c r="K72" t="s">
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M72" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="M72" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" t="s" s="0">
-        <v>70</v>
+      <c r="A73" t="s">
+        <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="D73" t="s" s="0">
-        <v>485</v>
+        <v>328</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D73" t="s">
+        <v>473</v>
       </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
-      <c r="F73" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G73" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H73" t="s" s="0">
+      <c r="F73" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" t="s">
+        <v>302</v>
+      </c>
+      <c r="H73" t="s">
         <v>38</v>
       </c>
-      <c r="I73" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="J73" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="K73" t="s" s="0">
+      <c r="I73" t="s">
+        <v>140</v>
+      </c>
+      <c r="J73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s">
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M73" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M73" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" t="s" s="0">
-        <v>70</v>
+      <c r="A74" t="s">
+        <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D74" t="s" s="0">
-        <v>486</v>
+        <v>327</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D74" t="s">
+        <v>474</v>
       </c>
       <c r="E74" s="1">
         <v>41061</v>
       </c>
-      <c r="F74" t="s" s="0">
+      <c r="F74" t="s">
         <v>18</v>
       </c>
-      <c r="G74" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H74" t="s" s="0">
+      <c r="G74" t="s">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s">
         <v>10</v>
       </c>
-      <c r="I74" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="J74" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="K74" t="s" s="0">
-        <v>234</v>
+      <c r="I74" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" t="s">
+        <v>160</v>
+      </c>
+      <c r="K74" t="s">
+        <v>233</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M74" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M74" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" t="s" s="0">
-        <v>70</v>
+      <c r="A75" t="s">
+        <v>69</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="D75" t="s" s="0">
-        <v>487</v>
+        <v>326</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D75" t="s">
+        <v>475</v>
       </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
-      <c r="F75" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G75" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H75" t="s" s="0">
+      <c r="F75" t="s">
+        <v>297</v>
+      </c>
+      <c r="G75" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s">
         <v>10</v>
       </c>
-      <c r="I75" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="J75" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="K75" t="s" s="0">
-        <v>151</v>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+      <c r="J75" t="s">
+        <v>122</v>
+      </c>
+      <c r="K75" t="s">
+        <v>150</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M75" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="M75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" t="s" s="0">
-        <v>295</v>
+      <c r="A76" t="s">
+        <v>288</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="D76" t="s" s="0">
-        <v>488</v>
+        <v>325</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D76" t="s">
+        <v>476</v>
       </c>
       <c r="E76" s="1">
         <v>44044</v>
       </c>
-      <c r="F76" t="s" s="0">
+      <c r="F76" t="s">
         <v>18</v>
       </c>
-      <c r="G76" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H76" t="s" s="0">
+      <c r="G76" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" t="s">
         <v>11</v>
       </c>
-      <c r="I76" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="J76" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="K76" t="s" s="0">
-        <v>250</v>
+      <c r="I76" t="s">
+        <v>213</v>
+      </c>
+      <c r="J76" t="s">
+        <v>130</v>
+      </c>
+      <c r="K76" t="s">
+        <v>249</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M76" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="M76" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B77" t="s" s="3">
-        <v>520</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="D77" t="s" s="0">
-        <v>489</v>
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D77" t="s">
+        <v>477</v>
       </c>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
-      <c r="F77" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G77" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H77" t="s" s="0">
+      <c r="F77" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" t="s">
+        <v>302</v>
+      </c>
+      <c r="H77" t="s">
         <v>44</v>
       </c>
-      <c r="I77" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="J77" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="K77" t="s" s="0">
-        <v>254</v>
+      <c r="I77" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77" t="s">
+        <v>219</v>
+      </c>
+      <c r="K77" t="s">
+        <v>253</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M77" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="M77" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" t="s" s="0">
-        <v>70</v>
+      <c r="A79" t="s">
+        <v>69</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="D79" t="s" s="0">
-        <v>490</v>
+        <v>324</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D79" t="s">
+        <v>478</v>
       </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
-      <c r="F79" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G79" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H79" t="s" s="0">
+      <c r="F79" t="s">
+        <v>297</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s">
         <v>44</v>
       </c>
-      <c r="I79" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="J79" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="K79" t="s" s="0">
-        <v>210</v>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+      <c r="J79" t="s">
+        <v>236</v>
+      </c>
+      <c r="K79" t="s">
+        <v>209</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M79" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="M79" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B80" t="s" s="3">
-        <v>521</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="D80" t="s" s="0">
-        <v>491</v>
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D80" t="s">
+        <v>479</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
       </c>
-      <c r="F80" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G80" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H80" t="s" s="0">
+      <c r="F80" t="s">
+        <v>297</v>
+      </c>
+      <c r="G80" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" t="s">
         <v>12</v>
       </c>
-      <c r="I80" t="s" s="0">
+      <c r="I80" t="s">
         <v>28</v>
       </c>
-      <c r="J80" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="K80" t="s" s="0">
-        <v>173</v>
+      <c r="J80" t="s">
+        <v>232</v>
+      </c>
+      <c r="K80" t="s">
+        <v>172</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M80" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="M80" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" t="s" s="0">
-        <v>74</v>
+      <c r="A81" t="s">
+        <v>73</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="D81" t="s" s="0">
-        <v>492</v>
+        <v>323</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D81" t="s">
+        <v>480</v>
       </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
-      <c r="F81" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G81" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H81" t="s" s="0">
+      <c r="F81" t="s">
+        <v>301</v>
+      </c>
+      <c r="G81" t="s">
+        <v>300</v>
+      </c>
+      <c r="H81" t="s">
         <v>45</v>
       </c>
-      <c r="I81" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="J81" t="s" s="0">
+      <c r="I81" t="s">
+        <v>202</v>
+      </c>
+      <c r="J81" t="s">
         <v>17</v>
       </c>
-      <c r="K81" t="s" s="0">
-        <v>186</v>
+      <c r="K81" t="s">
+        <v>185</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M81" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="M81" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" t="s" s="0">
-        <v>70</v>
+      <c r="A82" t="s">
+        <v>69</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="D82" t="s" s="0">
-        <v>493</v>
+        <v>322</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D82" t="s">
+        <v>481</v>
       </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
-      <c r="F82" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G82" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H82" t="s" s="0">
+      <c r="F82" t="s">
+        <v>297</v>
+      </c>
+      <c r="G82" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s">
         <v>39</v>
       </c>
-      <c r="I82" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="J82" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="K82" t="s" s="0">
-        <v>169</v>
+      <c r="I82" t="s">
+        <v>134</v>
+      </c>
+      <c r="J82" t="s">
+        <v>166</v>
+      </c>
+      <c r="K82" t="s">
+        <v>168</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M82" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="M82" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" t="s" s="0">
-        <v>301</v>
-      </c>
-      <c r="B83" t="s" s="3">
-        <v>522</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="D83" t="s" s="0">
-        <v>494</v>
+      <c r="A83" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D83" t="s">
+        <v>482</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
       </c>
-      <c r="F83" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G83" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H83" t="s" s="0">
+      <c r="F83" t="s">
+        <v>301</v>
+      </c>
+      <c r="G83" t="s">
+        <v>300</v>
+      </c>
+      <c r="H83" t="s">
         <v>43</v>
       </c>
-      <c r="I83" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="J83" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="K83" t="s" s="0">
-        <v>275</v>
+      <c r="I83" t="s">
+        <v>97</v>
+      </c>
+      <c r="J83" t="s">
+        <v>182</v>
+      </c>
+      <c r="K83" t="s">
+        <v>274</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M83" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="M83" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" t="s" s="0">
-        <v>70</v>
+      <c r="A84" t="s">
+        <v>69</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="D84" t="s" s="0">
-        <v>495</v>
+        <v>321</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D84" t="s">
+        <v>483</v>
       </c>
       <c r="E84" s="1">
         <v>41730</v>
       </c>
-      <c r="F84" t="s" s="0">
+      <c r="F84" t="s">
         <v>18</v>
       </c>
-      <c r="G84" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H84" t="s" s="0">
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s">
         <v>41</v>
       </c>
-      <c r="I84" t="s" s="0">
+      <c r="I84" t="s">
         <v>28</v>
       </c>
-      <c r="K84" t="s" s="0">
-        <v>277</v>
+      <c r="K84" t="s">
+        <v>276</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M84" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="M84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C85" s="2"/>
-    </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" t="s" s="0">
-        <v>70</v>
+      <c r="A86" t="s">
+        <v>69</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="D86" t="s" s="0">
-        <v>496</v>
+        <v>319</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D86" t="s">
+        <v>484</v>
       </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
-      <c r="F86" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G86" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H86" t="s" s="0">
+      <c r="F86" t="s">
+        <v>297</v>
+      </c>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s">
         <v>8</v>
       </c>
-      <c r="I86" t="s" s="0">
+      <c r="I86" t="s">
         <v>26</v>
       </c>
-      <c r="J86" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="K86" t="s" s="0">
-        <v>265</v>
+      <c r="J86" t="s">
+        <v>159</v>
+      </c>
+      <c r="K86" t="s">
+        <v>264</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M86" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="M86" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" t="s" s="0">
-        <v>294</v>
+      <c r="A87" t="s">
+        <v>287</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="D87" t="s" s="0">
-        <v>497</v>
+        <v>318</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D87" t="s">
+        <v>485</v>
       </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
-      <c r="F87" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G87" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H87" t="s" s="0">
+      <c r="F87" t="s">
+        <v>301</v>
+      </c>
+      <c r="G87" t="s">
+        <v>300</v>
+      </c>
+      <c r="H87" t="s">
         <v>9</v>
       </c>
-      <c r="I87" t="s" s="0">
-        <v>178</v>
-      </c>
-      <c r="J87" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="K87" t="s" s="0">
-        <v>102</v>
+      <c r="I87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J87" t="s">
+        <v>151</v>
+      </c>
+      <c r="K87" t="s">
+        <v>101</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M87" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M87" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" t="s" s="0">
-        <v>70</v>
+      <c r="A88" t="s">
+        <v>69</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="D88" t="s" s="0">
-        <v>498</v>
+        <v>317</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D88" t="s">
+        <v>486</v>
       </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
-      <c r="F88" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G88" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H88" t="s" s="0">
+      <c r="F88" t="s">
+        <v>297</v>
+      </c>
+      <c r="G88" t="s">
+        <v>81</v>
+      </c>
+      <c r="H88" t="s">
         <v>8</v>
       </c>
-      <c r="I88" t="s" s="0">
+      <c r="I88" t="s">
         <v>28</v>
       </c>
-      <c r="J88" t="s" s="0">
-        <v>251</v>
-      </c>
-      <c r="K88" t="s" s="0">
-        <v>268</v>
+      <c r="J88" t="s">
+        <v>250</v>
+      </c>
+      <c r="K88" t="s">
+        <v>267</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M88" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M88" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" t="s" s="0">
-        <v>70</v>
+      <c r="A89" t="s">
+        <v>69</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="D89" t="s" s="0">
-        <v>499</v>
+        <v>316</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D89" t="s">
+        <v>487</v>
       </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
-      <c r="F89" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G89" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H89" t="s" s="0">
+      <c r="F89" t="s">
+        <v>303</v>
+      </c>
+      <c r="G89" t="s">
+        <v>302</v>
+      </c>
+      <c r="H89" t="s">
         <v>10</v>
       </c>
-      <c r="I89" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="J89" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="K89" t="s" s="0">
-        <v>271</v>
+      <c r="I89" t="s">
+        <v>144</v>
+      </c>
+      <c r="J89" t="s">
+        <v>254</v>
+      </c>
+      <c r="K89" t="s">
+        <v>270</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="M89" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="M89" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" t="s" s="0">
-        <v>299</v>
+      <c r="A90" t="s">
+        <v>292</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>500</v>
+        <v>315</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D90" t="s">
+        <v>488</v>
       </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
-      <c r="F90" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G90" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H90" t="s" s="0">
+      <c r="F90" t="s">
+        <v>301</v>
+      </c>
+      <c r="G90" t="s">
+        <v>300</v>
+      </c>
+      <c r="H90" t="s">
         <v>41</v>
       </c>
-      <c r="I90" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="K90" t="s" s="0">
+      <c r="I90" t="s">
+        <v>170</v>
+      </c>
+      <c r="K90" t="s">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="M90" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="M90" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" t="s" s="0">
-        <v>298</v>
+      <c r="A91" t="s">
+        <v>291</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="D91" t="s" s="0">
-        <v>501</v>
+        <v>314</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D91" t="s">
+        <v>489</v>
       </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
-      <c r="F91" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G91" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H91" t="s" s="0">
+      <c r="F91" t="s">
+        <v>299</v>
+      </c>
+      <c r="G91" t="s">
+        <v>298</v>
+      </c>
+      <c r="H91" t="s">
         <v>8</v>
       </c>
-      <c r="I91" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="J91" t="s" s="0">
-        <v>211</v>
-      </c>
-      <c r="K91" t="s" s="0">
+      <c r="I91" t="s">
+        <v>114</v>
+      </c>
+      <c r="J91" t="s">
+        <v>210</v>
+      </c>
+      <c r="K91" t="s">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M91" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="M91" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" t="s" s="0">
-        <v>70</v>
+      <c r="A92" t="s">
+        <v>69</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="D92" t="s" s="0">
-        <v>502</v>
+        <v>313</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D92" t="s">
+        <v>490</v>
       </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
-      <c r="F92" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G92" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H92" t="s" s="0">
+      <c r="F92" t="s">
+        <v>301</v>
+      </c>
+      <c r="G92" t="s">
+        <v>300</v>
+      </c>
+      <c r="H92" t="s">
         <v>8</v>
       </c>
-      <c r="I92" t="s" s="0">
+      <c r="I92" t="s">
         <v>24</v>
       </c>
-      <c r="J92" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="K92" t="s" s="0">
-        <v>147</v>
+      <c r="J92" t="s">
+        <v>173</v>
+      </c>
+      <c r="K92" t="s">
+        <v>146</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="M92" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="M92" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" t="s" s="0">
-        <v>70</v>
+      <c r="A93" t="s">
+        <v>69</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="D93" t="s" s="0">
-        <v>503</v>
+        <v>311</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D93" t="s">
+        <v>491</v>
       </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
-      <c r="F93" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G93" t="s" s="0">
+      <c r="F93" t="s">
+        <v>303</v>
+      </c>
+      <c r="G93" t="s">
+        <v>302</v>
+      </c>
+      <c r="H93" t="s">
+        <v>56</v>
+      </c>
+      <c r="I93" t="s">
+        <v>206</v>
+      </c>
+      <c r="J93" t="s">
+        <v>186</v>
+      </c>
+      <c r="K93" t="s">
+        <v>112</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>284</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H93" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="I93" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="J93" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="K93" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="M93" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" t="s" s="0">
-        <v>291</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="D94" t="s" s="0">
-        <v>504</v>
+      <c r="C94" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D94" t="s">
+        <v>492</v>
       </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
-      <c r="F94" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G94" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H94" t="s" s="0">
+      <c r="F94" t="s">
+        <v>303</v>
+      </c>
+      <c r="G94" t="s">
+        <v>302</v>
+      </c>
+      <c r="H94" t="s">
         <v>8</v>
       </c>
-      <c r="I94" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="J94" t="s" s="0">
+      <c r="I94" t="s">
+        <v>94</v>
+      </c>
+      <c r="J94" t="s">
         <v>33</v>
       </c>
-      <c r="K94" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="M94" t="s" s="0">
+      <c r="K94" t="s">
+        <v>192</v>
+      </c>
+      <c r="M94" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" t="s" s="0">
-        <v>70</v>
+      <c r="A95" t="s">
+        <v>69</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="D95" t="s" s="0">
-        <v>505</v>
+        <v>308</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D95" t="s">
+        <v>493</v>
       </c>
       <c r="E95" s="1">
         <v>39661</v>
       </c>
-      <c r="F95" t="s" s="0">
+      <c r="F95" t="s">
         <v>18</v>
       </c>
-      <c r="G95" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H95" t="s" s="0">
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
         <v>9</v>
       </c>
-      <c r="I95" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="J95" t="s" s="0">
+      <c r="I95" t="s">
+        <v>94</v>
+      </c>
+      <c r="J95" t="s">
         <v>33</v>
       </c>
-      <c r="K95" t="s" s="0">
+      <c r="K95" t="s">
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M95" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="M95" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C100" s="2"/>
-    </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" t="s" s="0">
-        <v>291</v>
-      </c>
-      <c r="B102" t="s" s="3">
-        <v>523</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="D102" t="s" s="0">
-        <v>506</v>
+      <c r="A102" t="s">
+        <v>284</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D102" t="s">
+        <v>494</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
-      <c r="F102" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G102" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H102" t="s" s="0">
+      <c r="F102" t="s">
+        <v>303</v>
+      </c>
+      <c r="G102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="I102" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="J102" t="s" s="0">
+      <c r="I102" t="s">
+        <v>170</v>
+      </c>
+      <c r="J102" t="s">
         <v>32</v>
       </c>
-      <c r="K102" t="s" s="0">
-        <v>234</v>
+      <c r="K102" t="s">
+        <v>233</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M102" t="s" s="0">
+      <c r="M102" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" t="s" s="0">
-        <v>293</v>
-      </c>
-      <c r="B103" t="s" s="3">
-        <v>524</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="D103" t="s" s="0">
-        <v>507</v>
+      <c r="A103" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D103" t="s">
+        <v>495</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
       </c>
-      <c r="F103" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G103" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H103" t="s" s="0">
+      <c r="F103" t="s">
+        <v>303</v>
+      </c>
+      <c r="G103" t="s">
+        <v>302</v>
+      </c>
+      <c r="H103" t="s">
         <v>45</v>
       </c>
-      <c r="I103" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="J103" t="s" s="0">
+      <c r="I103" t="s">
+        <v>114</v>
+      </c>
+      <c r="J103" t="s">
         <v>25</v>
       </c>
-      <c r="K103" t="s" s="0">
-        <v>151</v>
+      <c r="K103" t="s">
+        <v>150</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="M103" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="M103" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" t="s" s="0">
-        <v>302</v>
+      <c r="A104" t="s">
+        <v>295</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="D104" t="s" s="0">
-        <v>508</v>
+        <v>304</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D104" t="s">
+        <v>496</v>
       </c>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
-      <c r="F104" t="s" s="0">
+      <c r="F104" t="s">
         <v>18</v>
       </c>
-      <c r="G104" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H104" t="s" s="0">
+      <c r="G104" t="s">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s">
         <v>39</v>
       </c>
-      <c r="I104" t="s" s="0">
+      <c r="I104" t="s">
         <v>24</v>
       </c>
-      <c r="J104" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="K104" t="s" s="0">
-        <v>250</v>
+      <c r="J104" t="s">
+        <v>147</v>
+      </c>
+      <c r="K104" t="s">
+        <v>249</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M104" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="M104" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" t="s" s="0">
-        <v>70</v>
+      <c r="A105" t="s">
+        <v>69</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="D105" t="s" s="0">
-        <v>509</v>
+        <v>370</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D105" t="s">
+        <v>497</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
       </c>
-      <c r="F105" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G105" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H105" t="s" s="0">
+      <c r="F105" t="s">
+        <v>297</v>
+      </c>
+      <c r="G105" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s">
         <v>43</v>
       </c>
-      <c r="I105" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="J105" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="K105" t="s" s="0">
-        <v>254</v>
+      <c r="I105" t="s">
+        <v>206</v>
+      </c>
+      <c r="J105" t="s">
+        <v>113</v>
+      </c>
+      <c r="K105" t="s">
+        <v>253</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="M105" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="M105" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" t="s" s="0">
-        <v>292</v>
-      </c>
-      <c r="B106" t="s" s="3">
-        <v>525</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="D106" t="s" s="0">
-        <v>427</v>
+      <c r="A106" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D106" t="s">
+        <v>415</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
       </c>
-      <c r="F106" t="s" s="0">
+      <c r="F106" t="s">
         <v>18</v>
       </c>
-      <c r="G106" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H106" t="s" s="0">
+      <c r="G106" t="s">
+        <v>82</v>
+      </c>
+      <c r="H106" t="s">
         <v>41</v>
       </c>
-      <c r="I106" t="s" s="0">
-        <v>413</v>
-      </c>
-      <c r="J106" t="s" s="0">
+      <c r="I106" t="s">
+        <v>401</v>
+      </c>
+      <c r="J106" t="s">
         <v>17</v>
       </c>
-      <c r="K106" t="s" s="0">
-        <v>134</v>
+      <c r="K106" t="s">
+        <v>133</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M106" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="M106" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" t="s" s="0">
-        <v>75</v>
+      <c r="A127" t="s">
+        <v>74</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="D127" t="s" s="0">
-        <v>510</v>
+        <v>305</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D127" t="s">
+        <v>498</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
-      <c r="F127" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G127" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H127" t="s" s="0">
+      <c r="F127" t="s">
+        <v>297</v>
+      </c>
+      <c r="G127" t="s">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s">
         <v>12</v>
       </c>
-      <c r="I127" t="s" s="0">
+      <c r="I127" t="s">
         <v>31</v>
       </c>
-      <c r="J127" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="K127" t="s" s="0">
-        <v>196</v>
+      <c r="J127" t="s">
+        <v>277</v>
+      </c>
+      <c r="K127" t="s">
+        <v>195</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M127" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="M127" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" t="s" s="0">
-        <v>294</v>
-      </c>
-      <c r="B128" t="s" s="3">
-        <v>526</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="D128" t="s" s="0">
-        <v>511</v>
+      <c r="A128" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D128" t="s">
+        <v>499</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
-      <c r="F128" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G128" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H128" t="s" s="0">
+      <c r="F128" t="s">
+        <v>303</v>
+      </c>
+      <c r="G128" t="s">
+        <v>302</v>
+      </c>
+      <c r="H128" t="s">
         <v>45</v>
       </c>
-      <c r="I128" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="J128" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="K128" t="s" s="0">
-        <v>157</v>
+      <c r="I128" t="s">
+        <v>140</v>
+      </c>
+      <c r="J128" t="s">
+        <v>263</v>
+      </c>
+      <c r="K128" t="s">
+        <v>156</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M128" t="s" s="0">
+      <c r="M128" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" t="s" s="0">
-        <v>70</v>
+      <c r="A129" t="s">
+        <v>69</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="D129" t="s" s="0">
-        <v>512</v>
+        <v>320</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D129" t="s">
+        <v>500</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
-      <c r="F129" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G129" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H129" t="s" s="0">
+      <c r="F129" t="s">
+        <v>299</v>
+      </c>
+      <c r="G129" t="s">
+        <v>298</v>
+      </c>
+      <c r="H129" t="s">
         <v>39</v>
       </c>
-      <c r="I129" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="J129" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="K129" t="s" s="0">
-        <v>166</v>
+      <c r="I129" t="s">
+        <v>242</v>
+      </c>
+      <c r="J129" t="s">
+        <v>265</v>
+      </c>
+      <c r="K129" t="s">
+        <v>165</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="M129" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="M129" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" t="s" s="0">
-        <v>70</v>
+      <c r="A130" t="s">
+        <v>69</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C130" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="D130" t="s" s="0">
-        <v>513</v>
+        <v>307</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D130" t="s">
+        <v>501</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
-      <c r="F130" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G130" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="H130" t="s" s="0">
+      <c r="F130" t="s">
+        <v>297</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
         <v>43</v>
       </c>
-      <c r="I130" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="J130" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="K130" t="s" s="0">
-        <v>268</v>
+      <c r="I130" t="s">
+        <v>106</v>
+      </c>
+      <c r="J130" t="s">
+        <v>102</v>
+      </c>
+      <c r="K130" t="s">
+        <v>267</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="M130" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="M130" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" t="s" s="0">
-        <v>70</v>
+      <c r="A131" t="s">
+        <v>69</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="D131" t="s" s="0">
-        <v>514</v>
+        <v>306</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D131" t="s">
+        <v>502</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
-      <c r="F131" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G131" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H131" t="s" s="0">
+      <c r="F131" t="s">
+        <v>299</v>
+      </c>
+      <c r="G131" t="s">
+        <v>298</v>
+      </c>
+      <c r="H131" t="s">
         <v>41</v>
       </c>
-      <c r="I131" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="J131" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="K131" t="s" s="0">
-        <v>271</v>
+      <c r="I131" t="s">
+        <v>213</v>
+      </c>
+      <c r="J131" t="s">
+        <v>268</v>
+      </c>
+      <c r="K131" t="s">
+        <v>270</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M131" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="M131" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" t="s" s="0">
-        <v>70</v>
+      <c r="A132" t="s">
+        <v>69</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="D132" t="s" s="0">
-        <v>515</v>
+        <v>63</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D132" t="s">
+        <v>503</v>
       </c>
       <c r="E132" s="1">
         <v>40909</v>
       </c>
-      <c r="F132" t="s" s="0">
+      <c r="F132" t="s">
         <v>18</v>
       </c>
-      <c r="G132" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H132" t="s" s="0">
+      <c r="G132" t="s">
+        <v>82</v>
+      </c>
+      <c r="H132" t="s">
         <v>9</v>
       </c>
-      <c r="I132" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="J132" t="s" s="0">
-        <v>272</v>
-      </c>
-      <c r="K132" t="s" s="0">
+      <c r="I132" t="s">
+        <v>228</v>
+      </c>
+      <c r="J132" t="s">
+        <v>271</v>
+      </c>
+      <c r="K132" t="s">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M132" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M132" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" t="s" s="0">
-        <v>70</v>
+      <c r="A133" t="s">
+        <v>69</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="D133" t="s" s="0">
-        <v>516</v>
+        <v>343</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D133" t="s">
+        <v>504</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
       </c>
-      <c r="F133" t="s" s="0">
+      <c r="F133" t="s">
         <v>18</v>
       </c>
-      <c r="G133" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H133" t="s" s="0">
+      <c r="G133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H133" t="s">
         <v>8</v>
       </c>
-      <c r="I133" t="s" s="0">
+      <c r="I133" t="s">
         <v>24</v>
       </c>
-      <c r="J133" t="s" s="0">
+      <c r="J133" t="s">
         <v>32</v>
       </c>
-      <c r="K133" t="s" s="0">
+      <c r="K133" t="s">
         <v>21</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M133" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="M133" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" t="s" s="0">
-        <v>70</v>
+      <c r="A134" t="s">
+        <v>69</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C134" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="D134" t="s" s="0">
-        <v>517</v>
+        <v>345</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D134" t="s">
+        <v>505</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
-      <c r="F134" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="G134" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="H134" t="s" s="0">
+      <c r="F134" t="s">
+        <v>301</v>
+      </c>
+      <c r="G134" t="s">
+        <v>300</v>
+      </c>
+      <c r="H134" t="s">
         <v>9</v>
       </c>
-      <c r="I134" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="J134" t="s" s="0">
+      <c r="I134" t="s">
+        <v>117</v>
+      </c>
+      <c r="J134" t="s">
         <v>25</v>
       </c>
-      <c r="K134" t="s" s="0">
-        <v>147</v>
+      <c r="K134" t="s">
+        <v>146</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M134" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M134" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" t="s" s="0">
-        <v>296</v>
+      <c r="A135" t="s">
+        <v>289</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="D135" t="s" s="0">
-        <v>518</v>
+        <v>369</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D135" t="s">
+        <v>506</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
-      <c r="F135" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G135" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="H135" t="s" s="0">
+      <c r="F135" t="s">
+        <v>303</v>
+      </c>
+      <c r="G135" t="s">
+        <v>302</v>
+      </c>
+      <c r="H135" t="s">
         <v>8</v>
       </c>
-      <c r="I135" t="s" s="0">
+      <c r="I135" t="s">
         <v>28</v>
       </c>
-      <c r="J135" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="K135" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="M135" t="s" s="0">
+      <c r="J135" t="s">
+        <v>147</v>
+      </c>
+      <c r="K135" t="s">
+        <v>112</v>
+      </c>
+      <c r="M135" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" t="s" s="0">
-        <v>291</v>
+      <c r="A136" t="s">
+        <v>284</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="D136" t="s" s="0">
-        <v>519</v>
+        <v>368</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D136" t="s">
+        <v>507</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
-      <c r="F136" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="G136" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="H136" t="s" s="0">
+      <c r="F136" t="s">
+        <v>299</v>
+      </c>
+      <c r="G136" t="s">
+        <v>298</v>
+      </c>
+      <c r="H136" t="s">
         <v>10</v>
       </c>
-      <c r="I136" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="J136" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="K136" t="s" s="0">
-        <v>193</v>
+      <c r="I136" t="s">
+        <v>202</v>
+      </c>
+      <c r="J136" t="s">
+        <v>113</v>
+      </c>
+      <c r="K136" t="s">
+        <v>192</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M136" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="M136" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6415,7 +6336,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -6423,177 +6344,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125"/>
-    <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.88671875"/>
+    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>12500</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>1850</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
+      <c r="A3">
         <v>13000</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>1500</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>14000</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1800</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
+      <c r="A5">
         <v>19000</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>3500</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
+      <c r="A6">
         <v>26000</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>4800</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="0">
+      <c r="A7">
         <v>17500</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>2750</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="0">
+      <c r="A8">
         <v>21000</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>3500</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="0">
+      <c r="A9">
         <v>31000</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>10500</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="0">
+      <c r="A10">
         <v>12500</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>1200</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="0">
+      <c r="A11">
         <v>14500</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>1350</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="0">
+      <c r="A12">
         <v>20500</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>1500</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="0">
+      <c r="A13">
         <v>16500</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>1500</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="0">
+      <c r="A14">
         <v>11000</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>1100</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="0">
+      <c r="A15">
         <v>31000</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>5500</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6612,159 +6533,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="0">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="0">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="0">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="0">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="0">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="0">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="0">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="0">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="0">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="0">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="0">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="0">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>230</v>
       </c>
     </row>
@@ -6777,473 +6698,473 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.44140625"/>
-    <col min="8" max="8" customWidth="true" width="41.5546875"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
+    <col min="8" max="8" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="G1" s="0">
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>12000</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>13000</v>
+      </c>
+      <c r="B3">
+        <v>3.6</v>
+      </c>
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="0">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
-        <v>13000</v>
-      </c>
-      <c r="B3" s="0">
-        <v>3.6</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>14000</v>
+      </c>
+      <c r="B4">
+        <v>6.5</v>
+      </c>
+      <c r="F4" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="0">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
-        <v>14000</v>
-      </c>
-      <c r="B4" s="0">
-        <v>6.5</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="G4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>15000</v>
+      </c>
+      <c r="B5">
+        <v>8.5</v>
+      </c>
+      <c r="F5" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
-        <v>15000</v>
-      </c>
-      <c r="B5" s="0">
-        <v>8.5</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
+      <c r="A6">
         <v>16000</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>17000</v>
+      </c>
+      <c r="B7">
+        <v>10.55</v>
+      </c>
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="0">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="0">
-        <v>17000</v>
-      </c>
-      <c r="B7" s="0">
-        <v>10.55</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="G7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>18000</v>
+      </c>
+      <c r="B8">
+        <v>11.15</v>
+      </c>
+      <c r="F8" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="0">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="0">
-        <v>18000</v>
-      </c>
-      <c r="B8" s="0">
-        <v>11.15</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="0">
+      <c r="A9">
         <v>19000</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>11.75</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>420</v>
-      </c>
-      <c r="G9" s="0">
+      <c r="F9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G9">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="0">
+      <c r="A10">
         <v>20000</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>12.15</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>419</v>
-      </c>
-      <c r="G10" s="0">
+      <c r="F10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G10">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="0">
+      <c r="A11">
         <v>21000</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="0">
+      <c r="A12">
         <v>22000</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="0">
+      <c r="A13">
         <v>23000</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>13.85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="0">
+      <c r="A14">
         <v>24000</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>14.15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="0">
+      <c r="A15">
         <v>25000</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>14.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="0">
+      <c r="A16">
         <v>26000</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>15.3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="0">
+      <c r="A17">
         <v>27000</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>15.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="0">
+      <c r="A18">
         <v>28000</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>16.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="0">
+      <c r="A19">
         <v>29000</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>16.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="0">
+      <c r="A20">
         <v>30000</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>17.25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="0">
+      <c r="A21">
         <v>31000</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>17.45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="0">
+      <c r="A22">
         <v>32000</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>17.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="0">
+      <c r="A23">
         <v>33000</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>18.149999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="0">
+      <c r="A24">
         <v>34000</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="0">
+      <c r="A25">
         <v>35000</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>18.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="0">
+      <c r="A26">
         <v>36000</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="0">
+      <c r="A27">
         <v>37000</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>19.25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="0">
+      <c r="A28">
         <v>38000</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>19.62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="0">
+      <c r="A29">
         <v>39000</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>19.96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="0">
+      <c r="A30">
         <v>40000</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>20.18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="0">
+      <c r="A31">
         <v>41000</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>20.52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="0">
+      <c r="A32">
         <v>42000</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>20.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="0">
+      <c r="A33">
         <v>43000</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>21.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="0">
+      <c r="A34">
         <v>44000</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>21.45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="0">
+      <c r="A35">
         <v>45000</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>21.75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="0">
+      <c r="A36">
         <v>46000</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>22.02</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="0">
+      <c r="A37">
         <v>47000</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>22.32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="0">
+      <c r="A38">
         <v>48000</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>22.62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="0">
+      <c r="A39">
         <v>49000</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>22.92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="0">
+      <c r="A40">
         <v>50000</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>23.22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="0">
+      <c r="A41">
         <v>51000</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>23.52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="0">
+      <c r="A42">
         <v>52000</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>23.82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="0">
+      <c r="A43">
         <v>53000</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>24.12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="0">
+      <c r="A44">
         <v>54000</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>24.42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="0">
+      <c r="A45">
         <v>55000</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>24.72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="0">
+      <c r="A46">
         <v>56000</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>25.02</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="0">
+      <c r="A47">
         <v>57000</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>25.32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="0">
+      <c r="A48">
         <v>58000</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>25.62</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="0">
+      <c r="A49">
         <v>59000</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>25.92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="0">
+      <c r="A50">
         <v>60000</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>26.22</v>
       </c>
     </row>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\git\Proyecto_NominasSI\src\resources\"/>
     </mc:Choice>
@@ -1870,6 +1870,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2283,16 +2284,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="2"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875"/>
+    <col min="12" max="12" style="2" width="11.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2301,45 +2302,45 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2348,34 +2349,34 @@
       <c r="C2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>415</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>133</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -2386,7 +2387,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2395,39 +2396,39 @@
       <c r="C3" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>416</v>
       </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>217</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>290</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2436,39 +2437,39 @@
       <c r="C4" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>417</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2477,39 +2478,39 @@
       <c r="C5" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>418</v>
       </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>283</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2518,39 +2519,39 @@
       <c r="C6" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>419</v>
       </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>222</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2559,39 +2560,39 @@
       <c r="C7" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>420</v>
       </c>
       <c r="E7" s="1">
         <v>43222</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>207</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2600,39 +2601,39 @@
       <c r="C8" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>421</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2641,39 +2642,39 @@
       <c r="C9" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>422</v>
       </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2682,39 +2683,39 @@
       <c r="C10" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>423</v>
       </c>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>259</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2723,39 +2724,39 @@
       <c r="C11" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>424</v>
       </c>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>247</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>287</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2764,39 +2765,39 @@
       <c r="C12" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>425</v>
       </c>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>257</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>293</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2805,39 +2806,39 @@
       <c r="C13" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>426</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>244</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2846,39 +2847,39 @@
       <c r="C14" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>427</v>
       </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>292</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2887,39 +2888,39 @@
       <c r="C16" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>428</v>
       </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>282</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2928,39 +2929,39 @@
       <c r="C17" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>429</v>
       </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>284</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2969,39 +2970,39 @@
       <c r="C18" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>430</v>
       </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>286</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3010,39 +3011,39 @@
       <c r="C19" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>431</v>
       </c>
       <c r="E19" s="1">
         <v>40909</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" t="s" s="0">
         <v>161</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3051,39 +3052,39 @@
       <c r="C20" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>432</v>
       </c>
       <c r="E20" s="1">
         <v>40269</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" t="s" s="0">
         <v>67</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3092,39 +3093,39 @@
       <c r="C21" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>433</v>
       </c>
       <c r="E21" s="1">
         <v>43282</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>138</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3133,36 +3134,36 @@
       <c r="C22" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>434</v>
       </c>
       <c r="E22" s="1">
         <v>41306</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>240</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3171,36 +3172,36 @@
       <c r="C23" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>435</v>
       </c>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>104</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3209,36 +3210,36 @@
       <c r="C24" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>436</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>229</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3247,36 +3248,36 @@
       <c r="C25" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>437</v>
       </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>226</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3285,39 +3286,39 @@
       <c r="C27" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>438</v>
       </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" t="s" s="0">
         <v>400</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3326,39 +3327,39 @@
       <c r="C28" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>439</v>
       </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" t="s" s="0">
         <v>119</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>296</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3367,39 +3368,39 @@
       <c r="C29" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>415</v>
       </c>
       <c r="E29" s="1">
         <v>35827</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="0">
         <v>401</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" t="s" s="0">
         <v>402</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3408,39 +3409,39 @@
       <c r="C30" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>440</v>
       </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" t="s" s="0">
         <v>125</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3449,39 +3450,39 @@
       <c r="C31" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>441</v>
       </c>
       <c r="E31" s="1">
         <v>38139</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" t="s" s="0">
         <v>96</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>294</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3490,39 +3491,39 @@
       <c r="C32" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>415</v>
       </c>
       <c r="E32" s="1">
         <v>37530</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" t="s" s="0">
         <v>403</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" t="s" s="0">
         <v>403</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" t="s" s="0">
         <v>178</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3531,39 +3532,39 @@
       <c r="C36" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>442</v>
       </c>
       <c r="E36" s="1">
         <v>35551</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" t="s" s="0">
         <v>204</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3572,39 +3573,39 @@
       <c r="C37" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>443</v>
       </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" t="s" s="0">
         <v>142</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3613,39 +3614,39 @@
       <c r="C38" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>444</v>
       </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" t="s" s="0">
         <v>128</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3654,39 +3655,39 @@
       <c r="C39" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>445</v>
       </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" t="s" s="0">
         <v>93</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3695,39 +3696,39 @@
       <c r="C40" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>446</v>
       </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" t="s" s="0">
         <v>169</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -3736,39 +3737,39 @@
       <c r="C41" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>447</v>
       </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" t="s" s="0">
         <v>163</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3777,39 +3778,39 @@
       <c r="C42" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>448</v>
       </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" t="s" s="0">
         <v>180</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3818,39 +3819,39 @@
       <c r="C43" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>449</v>
       </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" t="s" s="0">
         <v>205</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3859,39 +3860,39 @@
       <c r="C44" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>450</v>
       </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" t="s" s="0">
         <v>178</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3900,39 +3901,39 @@
       <c r="C45" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>451</v>
       </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" t="s" s="0">
         <v>212</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3941,39 +3942,39 @@
       <c r="C46" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>452</v>
       </c>
       <c r="E46" s="1">
         <v>39052</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" t="s" s="0">
         <v>108</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3982,39 +3983,39 @@
       <c r="C47" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>453</v>
       </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" t="s" s="0">
         <v>154</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4023,39 +4024,39 @@
       <c r="C48" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>454</v>
       </c>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" t="s" s="0">
         <v>188</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4064,39 +4065,39 @@
       <c r="C49" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>455</v>
       </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4105,39 +4106,39 @@
       <c r="C50" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>456</v>
       </c>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" t="s" s="0">
         <v>197</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4146,39 +4147,39 @@
       <c r="C51" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>456</v>
       </c>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" t="s" s="0">
         <v>197</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>292</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -4187,39 +4188,39 @@
       <c r="C52" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="0">
         <v>457</v>
       </c>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" t="s" s="0">
         <v>133</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -4228,39 +4229,39 @@
       <c r="C53" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>458</v>
       </c>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" t="s" s="0">
         <v>217</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -4269,39 +4270,39 @@
       <c r="C54" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>459</v>
       </c>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -4310,39 +4311,39 @@
       <c r="C55" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>460</v>
       </c>
       <c r="E55" s="1">
         <v>40330</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -4351,39 +4352,39 @@
       <c r="C60" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="0">
         <v>461</v>
       </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" t="s" s="0">
         <v>259</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>75</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4392,39 +4393,39 @@
       <c r="C61" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="0">
         <v>462</v>
       </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" t="s" s="0">
         <v>404</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -4433,39 +4434,39 @@
       <c r="C62" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="0">
         <v>417</v>
       </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" t="s" s="0">
         <v>257</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -4474,39 +4475,39 @@
       <c r="C63" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="0">
         <v>463</v>
       </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" t="s" s="0">
         <v>244</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4515,36 +4516,36 @@
       <c r="C64" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="s" s="0">
         <v>464</v>
       </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" t="s" s="0">
         <v>76</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -4553,36 +4554,36 @@
       <c r="C65" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="0">
         <v>465</v>
       </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" t="s" s="0">
         <v>68</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -4591,36 +4592,36 @@
       <c r="C66" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="s" s="0">
         <v>466</v>
       </c>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" t="s" s="0">
         <v>282</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4629,39 +4630,39 @@
       <c r="C67" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="0">
         <v>467</v>
       </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" t="s" s="0">
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -4670,39 +4671,39 @@
       <c r="C68" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="s" s="0">
         <v>468</v>
       </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -4711,39 +4712,39 @@
       <c r="C69" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="0">
         <v>469</v>
       </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" t="s" s="0">
         <v>161</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -4752,39 +4753,39 @@
       <c r="C70" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="0">
         <v>470</v>
       </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" t="s" s="0">
         <v>222</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -4793,39 +4794,39 @@
       <c r="C71" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="s" s="0">
         <v>471</v>
       </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" t="s" s="0">
         <v>207</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>296</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -4834,39 +4835,39 @@
       <c r="C72" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" t="s" s="0">
         <v>472</v>
       </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -4875,39 +4876,39 @@
       <c r="C73" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="s" s="0">
         <v>473</v>
       </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -4916,39 +4917,39 @@
       <c r="C74" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="s" s="0">
         <v>474</v>
       </c>
       <c r="E74" s="1">
         <v>41061</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" t="s" s="0">
         <v>233</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4957,39 +4958,39 @@
       <c r="C75" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="0">
         <v>475</v>
       </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" t="s" s="0">
         <v>150</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>288</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -4998,39 +4999,39 @@
       <c r="C76" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="s" s="0">
         <v>476</v>
       </c>
       <c r="E76" s="1">
         <v>44044</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" t="s" s="0">
         <v>249</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -5039,39 +5040,39 @@
       <c r="C77" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>477</v>
       </c>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" t="s" s="0">
         <v>253</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -5080,39 +5081,39 @@
       <c r="C79" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="s" s="0">
         <v>478</v>
       </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" t="s" s="0">
         <v>209</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -5121,39 +5122,39 @@
       <c r="C80" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="s" s="0">
         <v>479</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" t="s" s="0">
         <v>172</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -5162,39 +5163,39 @@
       <c r="C81" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="0">
         <v>480</v>
       </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" t="s" s="0">
         <v>185</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -5203,39 +5204,39 @@
       <c r="C82" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="0">
         <v>481</v>
       </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" t="s" s="0">
         <v>168</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>294</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -5244,39 +5245,39 @@
       <c r="C83" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="s" s="0">
         <v>482</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" t="s" s="0">
         <v>274</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -5285,36 +5286,36 @@
       <c r="C84" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="s" s="0">
         <v>483</v>
       </c>
       <c r="E84" s="1">
         <v>41730</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" t="s" s="0">
         <v>276</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -5323,39 +5324,39 @@
       <c r="C86" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="s" s="0">
         <v>484</v>
       </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>287</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -5364,39 +5365,39 @@
       <c r="C87" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="s" s="0">
         <v>485</v>
       </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" t="s" s="0">
         <v>101</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -5405,39 +5406,39 @@
       <c r="C88" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="s" s="0">
         <v>486</v>
       </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" t="s" s="0">
         <v>267</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -5446,39 +5447,39 @@
       <c r="C89" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="s" s="0">
         <v>487</v>
       </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" t="s" s="0">
         <v>270</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>292</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -5487,36 +5488,36 @@
       <c r="C90" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="s" s="0">
         <v>488</v>
       </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>291</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -5525,39 +5526,39 @@
       <c r="C91" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="s" s="0">
         <v>489</v>
       </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -5566,39 +5567,39 @@
       <c r="C92" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="s" s="0">
         <v>490</v>
       </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" t="s" s="0">
         <v>146</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -5607,39 +5608,39 @@
       <c r="C93" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="s" s="0">
         <v>491</v>
       </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" t="s" s="0">
         <v>112</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>284</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -5648,36 +5649,36 @@
       <c r="C94" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="s" s="0">
         <v>492</v>
       </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -5686,39 +5687,39 @@
       <c r="C95" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" t="s" s="0">
         <v>493</v>
       </c>
       <c r="E95" s="1">
         <v>39661</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" t="s" s="0">
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>284</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -5727,39 +5728,39 @@
       <c r="C102" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="s" s="0">
         <v>494</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" t="s" s="0">
         <v>233</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>286</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -5768,39 +5769,39 @@
       <c r="C103" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="s" s="0">
         <v>495</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" t="s" s="0">
         <v>150</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>295</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -5809,39 +5810,39 @@
       <c r="C104" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" t="s" s="0">
         <v>496</v>
       </c>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" t="s" s="0">
         <v>249</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -5850,39 +5851,39 @@
       <c r="C105" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="0">
         <v>497</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105" t="s" s="0">
         <v>253</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>285</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -5891,39 +5892,39 @@
       <c r="C106" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="s" s="0">
         <v>415</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" t="s" s="0">
         <v>401</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" t="s" s="0">
         <v>133</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>74</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -5932,39 +5933,39 @@
       <c r="C127" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" t="s" s="0">
         <v>498</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" t="s" s="0">
         <v>277</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" t="s" s="0">
         <v>195</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>287</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -5973,39 +5974,39 @@
       <c r="C128" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" t="s" s="0">
         <v>499</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" t="s" s="0">
         <v>263</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" t="s" s="0">
         <v>156</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -6014,39 +6015,39 @@
       <c r="C129" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" t="s" s="0">
         <v>500</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" t="s" s="0">
         <v>165</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -6055,39 +6056,39 @@
       <c r="C130" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" t="s" s="0">
         <v>501</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J130" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K130" t="s" s="0">
         <v>267</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -6096,39 +6097,39 @@
       <c r="C131" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" t="s" s="0">
         <v>502</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" t="s" s="0">
         <v>268</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" t="s" s="0">
         <v>270</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -6137,39 +6138,39 @@
       <c r="C132" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" t="s" s="0">
         <v>503</v>
       </c>
       <c r="E132" s="1">
         <v>40909</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -6178,39 +6179,39 @@
       <c r="C133" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" t="s" s="0">
         <v>504</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -6219,39 +6220,39 @@
       <c r="C134" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" t="s" s="0">
         <v>505</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134" t="s" s="0">
         <v>146</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>289</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -6260,36 +6261,36 @@
       <c r="C135" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" t="s" s="0">
         <v>506</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>284</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -6298,34 +6299,34 @@
       <c r="C136" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" t="s" s="0">
         <v>507</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136" t="s" s="0">
         <v>192</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -6344,177 +6345,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125"/>
+    <col min="6" max="6" customWidth="true" width="16.0"/>
+    <col min="7" max="7" customWidth="true" width="15.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>12500</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1850</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>13000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1500</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>14000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>1800</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>19000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>3500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>26000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>4800</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>17500</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>2750</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>21000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>3500</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>31000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>10500</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>12500</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>1200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>14500</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>1350</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>20500</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>1500</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>16500</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>1500</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>11000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>1100</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>31000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>5500</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>44</v>
       </c>
     </row>
@@ -6533,159 +6534,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.33203125"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>230</v>
       </c>
     </row>
@@ -6704,467 +6705,467 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="41.44140625" customWidth="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="41.44140625"/>
+    <col min="8" max="8" customWidth="true" width="41.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>12000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>23.6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>13000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>3.6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>14000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>6.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>15000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>8.5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>16000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>17000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>10.55</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>18000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>11.15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>19000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>11.75</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>20000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>12.15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>407</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>21000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>22000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>23000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>13.85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>24000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>14.15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>25000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>14.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>26000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>15.3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>27000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>15.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>28000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>16.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>29000</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>16.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="0">
         <v>30000</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>17.25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>31000</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>17.45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="0">
         <v>32000</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>17.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="0">
         <v>33000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>18.149999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="0">
         <v>34000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="0">
         <v>35000</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>18.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="0">
         <v>36000</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="0">
         <v>37000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>19.25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="0">
         <v>38000</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>19.62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="0">
         <v>39000</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>19.96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="0">
         <v>40000</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>20.18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="0">
         <v>41000</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>20.52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="0">
         <v>42000</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>20.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="0">
         <v>43000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>21.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="0">
         <v>44000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>21.45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="0">
         <v>45000</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>21.75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="0">
         <v>46000</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>22.02</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="0">
         <v>47000</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>22.32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="0">
         <v>48000</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>22.62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="0">
         <v>49000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>22.92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="0">
         <v>50000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>23.22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="0">
         <v>51000</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>23.52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="0">
         <v>52000</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>23.82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="0">
         <v>53000</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>24.12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="0">
         <v>54000</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>24.42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="0">
         <v>55000</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>24.72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="0">
         <v>56000</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>25.02</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="0">
         <v>57000</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>25.32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="0">
         <v>58000</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>25.62</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="0">
         <v>59000</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>25.92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="0">
         <v>60000</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>26.22</v>
       </c>
     </row>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\git\Proyecto_NominasSI\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202898\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FF6C16-0F1A-48DC-818F-C1D6217FC951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F837F-627D-46E0-859E-7F60CB6551B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="619">
   <si>
     <t>Nombre</t>
   </si>
@@ -219,6 +219,9 @@
     <t>20960031442124800000</t>
   </si>
   <si>
+    <t>20960056163231500000</t>
+  </si>
+  <si>
     <t>01826530120201560000</t>
   </si>
   <si>
@@ -324,9 +327,6 @@
     <t>Marín</t>
   </si>
   <si>
-    <t>09671968P</t>
-  </si>
-  <si>
     <t>Getino</t>
   </si>
   <si>
@@ -465,816 +465,846 @@
     <t>Labarga</t>
   </si>
   <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Del amo</t>
+  </si>
+  <si>
+    <t>Flórez</t>
+  </si>
+  <si>
+    <t>09548495E</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Cabeza</t>
+  </si>
+  <si>
+    <t>Quintanilla</t>
+  </si>
+  <si>
+    <t>09611100K</t>
+  </si>
+  <si>
+    <t>Demetrio</t>
+  </si>
+  <si>
+    <t>09611071S</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>71393411P</t>
+  </si>
+  <si>
+    <t>71404625K</t>
+  </si>
+  <si>
+    <t>Cabero</t>
+  </si>
+  <si>
+    <t>Guerra</t>
+  </si>
+  <si>
+    <t>Dorina</t>
+  </si>
+  <si>
+    <t>71609083D</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Fresco</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>71393352H</t>
+  </si>
+  <si>
+    <t>Emiliano</t>
+  </si>
+  <si>
+    <t>09738010V</t>
+  </si>
+  <si>
+    <t>Encarnación</t>
+  </si>
+  <si>
+    <t>Herrero</t>
+  </si>
+  <si>
+    <t>09570211A</t>
+  </si>
+  <si>
+    <t>Eulalia</t>
+  </si>
+  <si>
+    <t>Cascallana</t>
+  </si>
+  <si>
+    <t>02614035Q</t>
+  </si>
+  <si>
+    <t>Gomara</t>
+  </si>
+  <si>
+    <t>09689676Y</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>Generoso</t>
+  </si>
+  <si>
+    <t>71393354C</t>
+  </si>
+  <si>
+    <t>Herminia</t>
+  </si>
+  <si>
+    <t>10405904Z</t>
+  </si>
+  <si>
+    <t>Melcón</t>
+  </si>
+  <si>
+    <t>Otero</t>
+  </si>
+  <si>
+    <t>09548392B</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Castañeda</t>
+  </si>
+  <si>
+    <t>09570242B</t>
+  </si>
+  <si>
+    <t>Germán</t>
+  </si>
+  <si>
+    <t>09314602Q</t>
+  </si>
+  <si>
+    <t>Riverto</t>
+  </si>
+  <si>
+    <t>Fuertes</t>
+  </si>
+  <si>
+    <t>09548150E</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Almanzar</t>
+  </si>
+  <si>
+    <t>09810142K</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>09545570H</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>10940987W</t>
+  </si>
+  <si>
+    <t>71393396Q</t>
+  </si>
+  <si>
+    <t>10575307E</t>
+  </si>
+  <si>
+    <t>09632539R</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>09548283V</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Soledad</t>
+  </si>
+  <si>
+    <t>09786363R</t>
+  </si>
+  <si>
+    <t>Serafín</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>09758365V</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Sutil</t>
+  </si>
+  <si>
+    <t>09611066X</t>
+  </si>
+  <si>
+    <t>Amo</t>
+  </si>
+  <si>
+    <t>71878948S</t>
+  </si>
+  <si>
+    <t>Rubén Darío</t>
+  </si>
+  <si>
+    <t>09548287K</t>
+  </si>
+  <si>
+    <t>Laiz</t>
+  </si>
+  <si>
+    <t>Domínguez</t>
+  </si>
+  <si>
+    <t>09548451R</t>
+  </si>
+  <si>
+    <t>Rocío</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>09481741Z</t>
+  </si>
+  <si>
+    <t>00538394X</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Orejas</t>
+  </si>
+  <si>
+    <t>Díez</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Olle</t>
+  </si>
+  <si>
+    <t>09548215H</t>
+  </si>
+  <si>
+    <t>Márquez</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Iglesias</t>
+  </si>
+  <si>
+    <t>71597570L</t>
+  </si>
+  <si>
+    <t>Manzanares</t>
+  </si>
+  <si>
+    <t>Cadenas</t>
+  </si>
+  <si>
+    <t>09570258G</t>
+  </si>
+  <si>
+    <t>Morán</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Morala</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>09806572Q</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>09548505D</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Aparicio</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Calleja</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Candanedo</t>
+  </si>
+  <si>
+    <t>Portugues</t>
+  </si>
+  <si>
+    <t>09548317M</t>
+  </si>
+  <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>09458455G</t>
+  </si>
+  <si>
+    <t>Adolfo</t>
+  </si>
+  <si>
+    <t>12160221Y</t>
+  </si>
+  <si>
+    <t>Cepin</t>
+  </si>
+  <si>
+    <t>12649208J</t>
+  </si>
+  <si>
+    <t>Centeno</t>
+  </si>
+  <si>
+    <t>X3607387K</t>
+  </si>
+  <si>
+    <t>José Antonio</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>12684218V</t>
+  </si>
+  <si>
+    <t>Nelida</t>
+  </si>
+  <si>
+    <t>Charro</t>
+  </si>
+  <si>
+    <t>09548290R</t>
+  </si>
+  <si>
+    <t>Marisa</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Cedron</t>
+  </si>
+  <si>
+    <t>09626048L</t>
+  </si>
+  <si>
+    <t>Melisa</t>
+  </si>
+  <si>
+    <t>09548501M</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Cembranos</t>
+  </si>
+  <si>
+    <t>Lombás</t>
+  </si>
+  <si>
+    <t>71404629W</t>
+  </si>
+  <si>
+    <t>09570262P</t>
+  </si>
+  <si>
+    <t>X1673150S</t>
+  </si>
+  <si>
+    <t>Latifa Epfouad Erre</t>
+  </si>
+  <si>
+    <t>51556584121251000254</t>
+  </si>
+  <si>
+    <t>26551681877651415636</t>
+  </si>
+  <si>
+    <t>62541122001110105611</t>
+  </si>
+  <si>
+    <t>65645150005168448896</t>
+  </si>
+  <si>
+    <t>20012541100023365233</t>
+  </si>
+  <si>
+    <t>23658965214585223202</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>P2456841A</t>
+  </si>
+  <si>
+    <t>PBlankSA</t>
+  </si>
+  <si>
+    <t>P2492876R</t>
+  </si>
+  <si>
+    <t>APhonSA</t>
+  </si>
+  <si>
+    <t>P2463928T</t>
+  </si>
+  <si>
+    <t>Asoftware</t>
+  </si>
+  <si>
+    <t>P2418823C</t>
+  </si>
+  <si>
+    <t>99558741836555551120</t>
+  </si>
+  <si>
+    <t>09548150L</t>
+  </si>
+  <si>
+    <t>32541112811220000588</t>
+  </si>
+  <si>
+    <t>09548416X</t>
+  </si>
+  <si>
+    <t>12548521518742146695</t>
+  </si>
+  <si>
+    <t>26221011628048788896</t>
+  </si>
+  <si>
+    <t>65165654918886005001</t>
+  </si>
+  <si>
+    <t>85550564726165145610</t>
+  </si>
+  <si>
+    <t>31215643855060225021</t>
+  </si>
+  <si>
+    <t>09548443Q</t>
+  </si>
+  <si>
+    <t>20960043013468900000</t>
+  </si>
+  <si>
+    <t>32574512085411002255</t>
+  </si>
+  <si>
+    <t>23221158252545471411</t>
+  </si>
+  <si>
+    <t>31245164156597845124</t>
+  </si>
+  <si>
+    <t>36245978133245679001</t>
+  </si>
+  <si>
+    <t>21856333126985542360</t>
+  </si>
+  <si>
+    <t>95485212315484010000</t>
+  </si>
+  <si>
+    <t>55065688761051056105</t>
+  </si>
+  <si>
+    <t>32584216971684051000</t>
+  </si>
+  <si>
+    <t>23652365142254222000</t>
+  </si>
+  <si>
+    <t>32658012367712548745</t>
+  </si>
+  <si>
+    <t>63516541828944000984</t>
+  </si>
+  <si>
+    <t>32628484504115151115</t>
+  </si>
+  <si>
+    <t>21416325811510005514</t>
+  </si>
+  <si>
+    <t>20960583831234500000</t>
+  </si>
+  <si>
+    <t>65168874641561561500</t>
+  </si>
+  <si>
+    <t>09548295P</t>
+  </si>
+  <si>
+    <t>36952365020014425254</t>
+  </si>
+  <si>
+    <t>20960043033000100000</t>
+  </si>
+  <si>
+    <t>24304263W</t>
+  </si>
+  <si>
+    <t>25165151118666365100</t>
+  </si>
+  <si>
+    <t>62581542713690044508</t>
+  </si>
+  <si>
+    <t>33218885441445121022</t>
+  </si>
+  <si>
+    <t>33620012937852100256</t>
+  </si>
+  <si>
+    <t>09548486J</t>
+  </si>
+  <si>
+    <t>09548827D</t>
+  </si>
+  <si>
+    <t>44875664127231645789</t>
+  </si>
+  <si>
+    <t>36154231712500312566</t>
+  </si>
+  <si>
+    <t>31624561042546920007</t>
+  </si>
+  <si>
+    <t>12548523465214585214</t>
+  </si>
+  <si>
+    <t>36585214290025478551</t>
+  </si>
+  <si>
+    <t>09785530J</t>
+  </si>
+  <si>
+    <t>21651651812511133551</t>
+  </si>
+  <si>
+    <t>09611087P</t>
+  </si>
+  <si>
+    <t>51651487910005118185</t>
+  </si>
+  <si>
+    <t>20008521528775113366</t>
+  </si>
+  <si>
+    <t>36521452736500658485</t>
+  </si>
+  <si>
+    <t>32154697195423121000</t>
+  </si>
+  <si>
+    <t>25635478321002541225</t>
+  </si>
+  <si>
+    <t>20960043043075700000</t>
+  </si>
+  <si>
+    <t>09548295Y</t>
+  </si>
+  <si>
+    <t>22631245526916432102</t>
+  </si>
+  <si>
+    <t>01821135910205540000</t>
+  </si>
+  <si>
+    <t>X8996448K</t>
+  </si>
+  <si>
+    <t>09548827E</t>
+  </si>
+  <si>
+    <t>66552211148855332200</t>
+  </si>
+  <si>
+    <t>51651681961210656510</t>
+  </si>
+  <si>
+    <t>21654587985156484454</t>
+  </si>
+  <si>
+    <t>20960043042158800000</t>
+  </si>
+  <si>
+    <t>20960043073071400000</t>
+  </si>
+  <si>
+    <t>24571671N</t>
+  </si>
+  <si>
+    <t>24587946032003165464</t>
+  </si>
+  <si>
+    <t>85461325251978750005</t>
+  </si>
+  <si>
+    <t>96536214865214585214</t>
+  </si>
+  <si>
+    <t>23164897642213030615</t>
+  </si>
+  <si>
+    <t>25187786311225455548</t>
+  </si>
+  <si>
+    <t>21346154503164978451</t>
+  </si>
+  <si>
+    <t>21508149175421346497</t>
+  </si>
+  <si>
+    <t>22515651915640081000</t>
+  </si>
+  <si>
+    <t>36250012804785523365</t>
+  </si>
+  <si>
+    <t>52198484752100515144</t>
+  </si>
+  <si>
+    <t>23185484465641685100</t>
+  </si>
+  <si>
+    <t>66649444162310000255</t>
+  </si>
+  <si>
+    <t>34698752714600549403</t>
+  </si>
+  <si>
+    <t>64578946740051516490</t>
+  </si>
+  <si>
+    <t>25516848021156151054</t>
+  </si>
+  <si>
+    <t>56187775315550000651</t>
+  </si>
+  <si>
+    <t>12669681115112121210</t>
+  </si>
+  <si>
+    <t>20960043032159000000</t>
+  </si>
+  <si>
+    <t>09741995T</t>
+  </si>
+  <si>
+    <t>23455254943263234457</t>
+  </si>
+  <si>
+    <t>Y0806930N</t>
+  </si>
+  <si>
+    <t>00750184310702510000</t>
+  </si>
+  <si>
+    <t>20960043023096200000</t>
+  </si>
+  <si>
+    <t>15953684811254695203</t>
+  </si>
+  <si>
+    <t>25030000114574745458</t>
+  </si>
+  <si>
+    <t>96431245118150005156</t>
+  </si>
+  <si>
+    <t>09458455Y</t>
+  </si>
+  <si>
+    <t>25894363475485700145</t>
+  </si>
+  <si>
+    <t>21584976902154655487</t>
+  </si>
+  <si>
+    <t>23215465315456411515</t>
+  </si>
+  <si>
+    <t>32566221522587754554</t>
+  </si>
+  <si>
+    <t>21564975243245467995</t>
+  </si>
+  <si>
+    <t>Y1337652D</t>
+  </si>
+  <si>
+    <t>21651484690980008984</t>
+  </si>
+  <si>
+    <t>20125003305201112544</t>
+  </si>
+  <si>
+    <t>36520125638451012515</t>
+  </si>
+  <si>
+    <t>24561937521546497521</t>
+  </si>
+  <si>
+    <t>32569523016220165156</t>
+  </si>
+  <si>
+    <t>65614874165615445616</t>
+  </si>
+  <si>
+    <t>31645124473461205164</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Moncada</t>
+  </si>
+  <si>
+    <t>Genaro</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Giovani</t>
+  </si>
+  <si>
+    <t>FechaBajaLaboral</t>
+  </si>
+  <si>
+    <t>FechaAltaLaboral</t>
+  </si>
+  <si>
+    <t>MEI EMPRESARIO</t>
+  </si>
+  <si>
+    <t>MEI TRABAJADOR</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>09632539</t>
+  </si>
+  <si>
+    <t>09548416N</t>
+  </si>
+  <si>
     <t>09785530L</t>
   </si>
   <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Del amo</t>
-  </si>
-  <si>
-    <t>Flórez</t>
-  </si>
-  <si>
-    <t>09548495E</t>
-  </si>
-  <si>
-    <t>Concepción</t>
-  </si>
-  <si>
-    <t>Cabeza</t>
-  </si>
-  <si>
-    <t>Quintanilla</t>
-  </si>
-  <si>
-    <t>09611100K</t>
-  </si>
-  <si>
-    <t>Demetrio</t>
-  </si>
-  <si>
-    <t>09611071S</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>71393411P</t>
-  </si>
-  <si>
-    <t>71404625K</t>
-  </si>
-  <si>
-    <t>Cabero</t>
-  </si>
-  <si>
-    <t>Guerra</t>
-  </si>
-  <si>
-    <t>Dorina</t>
-  </si>
-  <si>
-    <t>71609083D</t>
-  </si>
-  <si>
-    <t>Dolores</t>
-  </si>
-  <si>
-    <t>Fresco</t>
-  </si>
-  <si>
-    <t>Elisa</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>71393352H</t>
-  </si>
-  <si>
-    <t>Emiliano</t>
-  </si>
-  <si>
-    <t>Encarnación</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>09570211A</t>
-  </si>
-  <si>
-    <t>Eulalia</t>
-  </si>
-  <si>
-    <t>Cascallana</t>
-  </si>
-  <si>
-    <t>02614035Q</t>
-  </si>
-  <si>
-    <t>Gomara</t>
-  </si>
-  <si>
-    <t>09689676Y</t>
-  </si>
-  <si>
-    <t>Dominguez</t>
-  </si>
-  <si>
-    <t>Generoso</t>
-  </si>
-  <si>
-    <t>71393354C</t>
-  </si>
-  <si>
-    <t>Herminia</t>
-  </si>
-  <si>
-    <t>10405904Z</t>
-  </si>
-  <si>
-    <t>Melcón</t>
-  </si>
-  <si>
-    <t>Otero</t>
-  </si>
-  <si>
-    <t>09548392B</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
-  </si>
-  <si>
-    <t>Castañeda</t>
-  </si>
-  <si>
-    <t>09570242B</t>
-  </si>
-  <si>
-    <t>Germán</t>
-  </si>
-  <si>
-    <t>Riverto</t>
-  </si>
-  <si>
-    <t>Fuertes</t>
-  </si>
-  <si>
-    <t>09548150E</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Almanzar</t>
-  </si>
-  <si>
-    <t>09810142K</t>
-  </si>
-  <si>
-    <t>Ismael</t>
-  </si>
-  <si>
-    <t>09545570H</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>10940987W</t>
-  </si>
-  <si>
-    <t>71393396Q</t>
-  </si>
-  <si>
-    <t>10575307E</t>
-  </si>
-  <si>
-    <t>09632539R</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>09548283V</t>
-  </si>
-  <si>
-    <t>Tomás</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>Soledad</t>
-  </si>
-  <si>
-    <t>09786363R</t>
-  </si>
-  <si>
-    <t>Serafín</t>
-  </si>
-  <si>
-    <t>Carro</t>
-  </si>
-  <si>
-    <t>09758365V</t>
-  </si>
-  <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>Sutil</t>
-  </si>
-  <si>
-    <t>09611066X</t>
-  </si>
-  <si>
-    <t>Amo</t>
-  </si>
-  <si>
-    <t>71878948S</t>
-  </si>
-  <si>
-    <t>Rubén Darío</t>
-  </si>
-  <si>
-    <t>09548287K</t>
-  </si>
-  <si>
-    <t>Laiz</t>
-  </si>
-  <si>
-    <t>Domínguez</t>
-  </si>
-  <si>
-    <t>09548451R</t>
-  </si>
-  <si>
-    <t>Rocío</t>
-  </si>
-  <si>
-    <t>Gil</t>
-  </si>
-  <si>
-    <t>09481741Z</t>
-  </si>
-  <si>
-    <t>00538394X</t>
-  </si>
-  <si>
-    <t>Paulina</t>
-  </si>
-  <si>
-    <t>Orejas</t>
-  </si>
-  <si>
-    <t>Díez</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Olle</t>
-  </si>
-  <si>
-    <t>09548215H</t>
-  </si>
-  <si>
-    <t>Márquez</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Iglesias</t>
-  </si>
-  <si>
-    <t>71597570L</t>
-  </si>
-  <si>
-    <t>Manzanares</t>
-  </si>
-  <si>
-    <t>Cadenas</t>
-  </si>
-  <si>
-    <t>09570258G</t>
-  </si>
-  <si>
-    <t>Morán</t>
-  </si>
-  <si>
-    <t>Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Morala</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>09806572Q</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Benito</t>
-  </si>
-  <si>
-    <t>09548505D</t>
-  </si>
-  <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Aparicio</t>
-  </si>
-  <si>
-    <t>María</t>
-  </si>
-  <si>
-    <t>Calleja</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>09769669M</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Candanedo</t>
-  </si>
-  <si>
-    <t>Portugues</t>
-  </si>
-  <si>
-    <t>09548317M</t>
-  </si>
-  <si>
-    <t>Agustín</t>
-  </si>
-  <si>
-    <t>09458455G</t>
-  </si>
-  <si>
-    <t>Adolfo</t>
-  </si>
-  <si>
-    <t>12160221Y</t>
-  </si>
-  <si>
-    <t>Cepin</t>
-  </si>
-  <si>
-    <t>12649208J</t>
-  </si>
-  <si>
-    <t>Centeno</t>
-  </si>
-  <si>
-    <t>José Antonio</t>
-  </si>
-  <si>
-    <t>Cerro</t>
-  </si>
-  <si>
-    <t>12684218V</t>
-  </si>
-  <si>
-    <t>Nelida</t>
-  </si>
-  <si>
-    <t>Charro</t>
-  </si>
-  <si>
-    <t>09548290R</t>
-  </si>
-  <si>
-    <t>Marisa</t>
-  </si>
-  <si>
-    <t>Chen</t>
-  </si>
-  <si>
-    <t>Cedron</t>
-  </si>
-  <si>
-    <t>09626048L</t>
-  </si>
-  <si>
-    <t>Melisa</t>
-  </si>
-  <si>
-    <t>09548501M</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Cembranos</t>
-  </si>
-  <si>
-    <t>Lombás</t>
-  </si>
-  <si>
-    <t>71404629W</t>
-  </si>
-  <si>
-    <t>09570262P</t>
-  </si>
-  <si>
-    <t>X1673150S</t>
-  </si>
-  <si>
-    <t>Latifa Epfouad Erre</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>P2456841A</t>
-  </si>
-  <si>
-    <t>PBlankSA</t>
-  </si>
-  <si>
-    <t>P2492876R</t>
-  </si>
-  <si>
-    <t>APhonSA</t>
-  </si>
-  <si>
-    <t>P2463928T</t>
-  </si>
-  <si>
-    <t>Asoftware</t>
-  </si>
-  <si>
-    <t>P2418823C</t>
-  </si>
-  <si>
-    <t>99558741836555551120</t>
-  </si>
-  <si>
-    <t>32541112811220000588</t>
-  </si>
-  <si>
-    <t>12548521518742146695</t>
-  </si>
-  <si>
-    <t>26221011628048788896</t>
-  </si>
-  <si>
-    <t>65165654918886005001</t>
-  </si>
-  <si>
-    <t>85550564726165145610</t>
-  </si>
-  <si>
-    <t>09749147E</t>
-  </si>
-  <si>
-    <t>31215643855060225021</t>
-  </si>
-  <si>
-    <t>09548443Q</t>
-  </si>
-  <si>
-    <t>20960043013468900000</t>
-  </si>
-  <si>
-    <t>32574512085411002255</t>
-  </si>
-  <si>
-    <t>23221158252545471411</t>
-  </si>
-  <si>
-    <t>31245164156597845124</t>
-  </si>
-  <si>
-    <t>36245978133245679001</t>
-  </si>
-  <si>
-    <t>21856333126985542360</t>
-  </si>
-  <si>
-    <t>95485212315484010000</t>
-  </si>
-  <si>
-    <t>55065688761051056105</t>
-  </si>
-  <si>
-    <t>32584216971684051000</t>
-  </si>
-  <si>
-    <t>23652365142254222000</t>
-  </si>
-  <si>
-    <t>32658012367712548745</t>
-  </si>
-  <si>
-    <t>63516541828944000984</t>
-  </si>
-  <si>
-    <t>32628484504115151115</t>
-  </si>
-  <si>
-    <t>21416325811510005514</t>
-  </si>
-  <si>
-    <t>20960583831234500000</t>
-  </si>
-  <si>
-    <t>65168874641561561500</t>
-  </si>
-  <si>
-    <t>36952365020014425254</t>
-  </si>
-  <si>
-    <t>20960043033000100000</t>
-  </si>
-  <si>
-    <t>24304263W</t>
-  </si>
-  <si>
-    <t>25165151118666365100</t>
-  </si>
-  <si>
-    <t>62581542713690044508</t>
-  </si>
-  <si>
-    <t>33218885441445121022</t>
-  </si>
-  <si>
-    <t>33620012937852100256</t>
-  </si>
-  <si>
-    <t>09548486J</t>
-  </si>
-  <si>
-    <t>09548827D</t>
-  </si>
-  <si>
-    <t>44875664127231645789</t>
-  </si>
-  <si>
-    <t>36154231712500312566</t>
-  </si>
-  <si>
-    <t>31624561042546920007</t>
-  </si>
-  <si>
-    <t>12548523465214585214</t>
-  </si>
-  <si>
-    <t>36585214290025478551</t>
-  </si>
-  <si>
-    <t>21651651812511133551</t>
-  </si>
-  <si>
-    <t>09611087P</t>
-  </si>
-  <si>
-    <t>51651487910005118185</t>
-  </si>
-  <si>
-    <t>20008521528775113366</t>
-  </si>
-  <si>
-    <t>36521452736500658485</t>
-  </si>
-  <si>
-    <t>32154697195423121000</t>
-  </si>
-  <si>
-    <t>25635478321002541225</t>
-  </si>
-  <si>
-    <t>20960043043075700000</t>
-  </si>
-  <si>
-    <t>09548295Y</t>
-  </si>
-  <si>
-    <t>22631245526916432102</t>
-  </si>
-  <si>
-    <t>01821135910205540000</t>
-  </si>
-  <si>
-    <t>X8996448K</t>
-  </si>
-  <si>
-    <t>66552211148855332200</t>
-  </si>
-  <si>
-    <t>51651681961210656510</t>
-  </si>
-  <si>
-    <t>21654587985156484454</t>
-  </si>
-  <si>
-    <t>20960043042158800000</t>
-  </si>
-  <si>
-    <t>20960043073071400000</t>
-  </si>
-  <si>
-    <t>24571671N</t>
-  </si>
-  <si>
-    <t>24587946032003165464</t>
-  </si>
-  <si>
-    <t>85461325251978750005</t>
-  </si>
-  <si>
-    <t>96536214865214585214</t>
-  </si>
-  <si>
-    <t>23164897642213030615</t>
-  </si>
-  <si>
-    <t>25187786311225455548</t>
-  </si>
-  <si>
-    <t>21346154503164978451</t>
-  </si>
-  <si>
-    <t>21508149175421346497</t>
-  </si>
-  <si>
-    <t>22515651915640081000</t>
-  </si>
-  <si>
-    <t>36250012804785523365</t>
-  </si>
-  <si>
-    <t>52198484752100515144</t>
-  </si>
-  <si>
-    <t>23185484465641685100</t>
-  </si>
-  <si>
-    <t>66649444162310000255</t>
-  </si>
-  <si>
-    <t>34698752714600549403</t>
-  </si>
-  <si>
-    <t>64578946740051516490</t>
-  </si>
-  <si>
-    <t>25516848021156151054</t>
-  </si>
-  <si>
-    <t>56187775315550000651</t>
-  </si>
-  <si>
-    <t>12669681115112121210</t>
-  </si>
-  <si>
-    <t>20960043032159000000</t>
-  </si>
-  <si>
-    <t>09741995T</t>
-  </si>
-  <si>
-    <t>23455254943263234457</t>
-  </si>
-  <si>
-    <t>Y0806930N</t>
-  </si>
-  <si>
-    <t>00750184310702510000</t>
-  </si>
-  <si>
-    <t>20960043023096200000</t>
-  </si>
-  <si>
-    <t>15953684811254695203</t>
-  </si>
-  <si>
-    <t>25030000114574745458</t>
-  </si>
-  <si>
-    <t>96431245118150005156</t>
-  </si>
-  <si>
-    <t>25894363475485700145</t>
-  </si>
-  <si>
-    <t>21584976902154655487</t>
-  </si>
-  <si>
-    <t>23215465315456411515</t>
-  </si>
-  <si>
-    <t>32566221522587754554</t>
-  </si>
-  <si>
-    <t>21564975243245467995</t>
-  </si>
-  <si>
-    <t>Y1337652D</t>
-  </si>
-  <si>
-    <t>21651484690980008984</t>
-  </si>
-  <si>
-    <t>20125003305201112544</t>
-  </si>
-  <si>
-    <t>36520125638451012515</t>
-  </si>
-  <si>
-    <t>24561937521546497521</t>
-  </si>
-  <si>
-    <t>32569523016220165156</t>
-  </si>
-  <si>
-    <t>65614874165615445616</t>
-  </si>
-  <si>
-    <t>31645124473461205164</t>
-  </si>
-  <si>
-    <t>Gerardo</t>
-  </si>
-  <si>
-    <t>Moncada</t>
-  </si>
-  <si>
-    <t>Genaro</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Giovani</t>
-  </si>
-  <si>
-    <t>FechaBajaLaboral</t>
-  </si>
-  <si>
-    <t>FechaAltaLaboral</t>
-  </si>
-  <si>
-    <t>MEI EMPRESARIO</t>
-  </si>
-  <si>
-    <t>MEI TRABAJADOR</t>
-  </si>
-  <si>
-    <t>19898Y</t>
-  </si>
-  <si>
-    <t>ss738010V</t>
-  </si>
-  <si>
-    <t>X3387K</t>
-  </si>
-  <si>
-    <t>w9314602Q</t>
-  </si>
-  <si>
-    <t>0945</t>
-  </si>
-  <si>
-    <t>09548416N</t>
-  </si>
-  <si>
     <t>GMM00@TecnoLeonSL.com</t>
   </si>
   <si>
@@ -1303,15 +1333,6 @@
   </si>
   <si>
     <t>MAP00@PBlankSA.com</t>
-  </si>
-  <si>
-    <t>ACP00@APhonSA.com</t>
-  </si>
-  <si>
-    <t>LBP00@Asoftware.com</t>
-  </si>
-  <si>
-    <t>AGP00@PBlankSA.com</t>
   </si>
   <si>
     <t>LBR00@Asoftware.com</t>
@@ -2278,23 +2299,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="28.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="19.109375"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875"/>
-    <col min="12" max="12" style="2" width="11.44140625"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125"/>
+    <col min="12" max="12" style="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>60</v>
@@ -2333,33 +2354,33 @@
         <v>61</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>515</v>
+        <v>410</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>522</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>38</v>
@@ -2374,7 +2395,7 @@
         <v>133</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>46</v>
@@ -2386,39 +2407,39 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>516</v>
+        <v>409</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>523</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>38</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>139</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>118</v>
@@ -2427,27 +2448,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>517</v>
+        <v>408</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>524</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>11</v>
@@ -2456,7 +2477,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>47</v>
@@ -2468,27 +2489,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>518</v>
+        <v>407</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>525</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>11</v>
@@ -2503,45 +2524,45 @@
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>519</v>
+        <v>406</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>526</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I6" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="K6" t="s" s="0">
         <v>223</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>230</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>222</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>127</v>
@@ -2549,28 +2570,31 @@
       <c r="M6" t="s" s="0">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>520</v>
+        <v>399</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>527</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E7" s="1">
-        <v>43222</v>
+        <v>43221</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>10</v>
@@ -2579,39 +2603,36 @@
         <v>113</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>528</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>40</v>
@@ -2626,33 +2647,33 @@
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>522</v>
+        <v>404</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>529</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>40</v>
@@ -2667,33 +2688,33 @@
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>523</v>
+        <v>65</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>530</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>8</v>
@@ -2705,7 +2726,7 @@
         <v>120</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
@@ -2714,27 +2735,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>524</v>
+        <v>402</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>531</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>40</v>
@@ -2743,27 +2764,27 @@
         <v>248</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K11" t="s" s="0">
         <v>247</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>525</v>
+        <v>401</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>532</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>425</v>
@@ -2772,133 +2793,136 @@
         <v>41030</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>310</v>
+        <v>422</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>526</v>
+        <v>400</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>533</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>145</v>
+        <v>422</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>527</v>
+        <v>392</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>534</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>11</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>528</v>
+        <v>398</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>535</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>9</v>
@@ -2913,33 +2937,33 @@
         <v>282</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>529</v>
+        <v>396</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>536</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>8</v>
@@ -2960,27 +2984,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>530</v>
+        <v>395</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>537</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>8</v>
@@ -2995,24 +3019,24 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>531</v>
+        <v>394</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>538</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E19" s="1">
         <v>40909</v>
@@ -3021,7 +3045,7 @@
         <v>18</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="0">
         <v>41</v>
@@ -3033,7 +3057,7 @@
         <v>143</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>181</v>
@@ -3041,28 +3065,34 @@
       <c r="M19" t="s" s="0">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="1">
+        <v>44835</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>532</v>
+        <v>393</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>539</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E20" s="1">
         <v>40269</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="0">
         <v>9</v>
@@ -3074,27 +3104,27 @@
         <v>129</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>533</v>
+        <v>392</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>540</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E21" s="1">
         <v>43282</v>
@@ -3103,16 +3133,16 @@
         <v>18</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="0">
         <v>138</v>
@@ -3124,18 +3154,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>534</v>
+        <v>390</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>541</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E22" s="1">
         <v>41306</v>
@@ -3144,45 +3174,45 @@
         <v>18</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="0">
         <v>11</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>535</v>
+        <v>66</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>542</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>9</v>
@@ -3194,80 +3224,80 @@
         <v>104</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>536</v>
+        <v>388</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>543</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M24" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>537</v>
+        <v>387</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>544</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
@@ -3276,27 +3306,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>538</v>
+        <v>386</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>545</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>8</v>
@@ -3308,7 +3341,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>100</v>
@@ -3317,27 +3350,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>539</v>
+        <v>385</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>546</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>12</v>
@@ -3358,18 +3391,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>540</v>
+        <v>384</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>547</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E29" s="1">
         <v>35827</v>
@@ -3378,19 +3411,19 @@
         <v>18</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="0">
         <v>42</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>124</v>
@@ -3399,33 +3432,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>541</v>
+        <v>383</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>548</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>38</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s" s="0">
         <v>105</v>
@@ -3440,18 +3473,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>542</v>
+        <v>382</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>549</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="E31" s="1">
         <v>38139</v>
@@ -3460,7 +3493,7 @@
         <v>18</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="0">
         <v>56</v>
@@ -3469,30 +3502,30 @@
         <v>278</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>543</v>
+        <v>381</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>550</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E32" s="1">
         <v>37530</v>
@@ -3501,39 +3534,48 @@
         <v>18</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="0">
         <v>11</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>178</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>544</v>
+        <v>377</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>551</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="E36" s="1">
         <v>35551</v>
@@ -3542,7 +3584,7 @@
         <v>18</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="0">
         <v>44</v>
@@ -3551,39 +3593,39 @@
         <v>272</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>545</v>
+        <v>376</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>552</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>39</v>
@@ -3598,33 +3640,33 @@
         <v>142</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>546</v>
+        <v>375</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>553</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="0">
         <v>9</v>
@@ -3639,74 +3681,74 @@
         <v>128</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>547</v>
+        <v>374</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>554</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="0">
         <v>11</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J39" t="s" s="0">
         <v>27</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>55</v>
+        <v>420</v>
       </c>
       <c r="M39" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>548</v>
+        <v>373</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>555</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H40" t="s" s="0">
         <v>44</v>
@@ -3715,39 +3757,39 @@
         <v>114</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K40" t="s" s="0">
         <v>169</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M40" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>549</v>
+        <v>372</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>556</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="0">
         <v>10</v>
@@ -3759,7 +3801,7 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>184</v>
@@ -3768,33 +3810,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>550</v>
+        <v>371</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>557</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="0">
         <v>39</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>34</v>
@@ -3803,33 +3845,33 @@
         <v>180</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>145</v>
+        <v>424</v>
       </c>
       <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>551</v>
+        <v>369</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>558</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="0">
         <v>38</v>
@@ -3841,36 +3883,36 @@
         <v>143</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>552</v>
+        <v>368</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>559</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>10</v>
@@ -3891,27 +3933,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>553</v>
+        <v>367</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>560</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>10</v>
@@ -3923,27 +3965,27 @@
         <v>129</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>554</v>
+        <v>366</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>561</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E46" s="1">
         <v>39052</v>
@@ -3952,48 +3994,48 @@
         <v>18</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="0">
         <v>11</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="0">
         <v>108</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>555</v>
+        <v>365</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>562</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="0">
         <v>44</v>
@@ -4005,42 +4047,42 @@
         <v>28</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M47" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>556</v>
+        <v>66</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>563</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J48" t="s" s="0">
         <v>28</v>
@@ -4049,33 +4091,33 @@
         <v>188</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>252</v>
+        <v>421</v>
       </c>
       <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>557</v>
+        <v>362</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>564</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="0">
         <v>44</v>
@@ -4090,65 +4132,65 @@
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>558</v>
+        <v>361</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>565</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J50" t="s" s="0">
         <v>175</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>559</v>
+        <v>359</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>566</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E51" s="1">
         <v>44013</v>
@@ -4157,48 +4199,48 @@
         <v>18</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="0">
         <v>8</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J51" t="s" s="0">
         <v>123</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>560</v>
+        <v>358</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>567</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H52" t="s" s="0">
         <v>11</v>
@@ -4219,27 +4261,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>561</v>
+        <v>357</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>568</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>9</v>
@@ -4248,10 +4290,10 @@
         <v>28</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>187</v>
@@ -4260,59 +4302,59 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>562</v>
+        <v>356</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>569</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K54" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>410</v>
+        <v>168</v>
       </c>
       <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>563</v>
+        <v>355</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>570</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E55" s="1">
         <v>40330</v>
@@ -4321,13 +4363,13 @@
         <v>18</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J55" t="s" s="0">
         <v>122</v>
@@ -4342,39 +4384,51 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>564</v>
+        <v>338</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>571</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>38</v>
       </c>
       <c r="I60" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>269</v>
@@ -4383,39 +4437,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>565</v>
+        <v>350</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>572</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>56</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>273</v>
@@ -4424,27 +4478,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>566</v>
+        <v>349</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>573</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G62" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="0">
         <v>11</v>
@@ -4453,39 +4507,39 @@
         <v>114</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>567</v>
+        <v>348</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>574</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s" s="0">
         <v>9</v>
@@ -4497,7 +4551,7 @@
         <v>182</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
@@ -4506,65 +4560,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>568</v>
+        <v>347</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>575</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H64" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K64" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M64" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>569</v>
+        <v>346</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>576</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H65" t="s" s="0">
         <v>41</v>
@@ -4573,7 +4627,7 @@
         <v>29</v>
       </c>
       <c r="K65" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>115</v>
@@ -4582,65 +4636,65 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>570</v>
+      <c r="C66" t="s" s="2">
+        <v>577</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I66" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K66" t="s" s="0">
         <v>282</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M66" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>571</v>
+        <v>343</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>578</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="0">
         <v>39</v>
@@ -4655,33 +4709,33 @@
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>572</v>
+        <v>342</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>579</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H68" t="s" s="0">
         <v>9</v>
@@ -4696,33 +4750,33 @@
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>573</v>
+        <v>341</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>580</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H69" t="s" s="0">
         <v>11</v>
@@ -4734,7 +4788,7 @@
         <v>99</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>111</v>
@@ -4743,27 +4797,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>574</v>
+        <v>340</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>581</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H70" t="s" s="0">
         <v>44</v>
@@ -4775,36 +4829,36 @@
         <v>175</v>
       </c>
       <c r="K70" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>564</v>
+        <v>338</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>571</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H71" t="s" s="0">
         <v>10</v>
@@ -4816,36 +4870,36 @@
         <v>123</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M71" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>575</v>
+        <v>337</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>582</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="0">
         <v>39</v>
@@ -4860,33 +4914,33 @@
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M72" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>576</v>
+        <v>335</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>583</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H73" t="s" s="0">
         <v>38</v>
@@ -4895,30 +4949,30 @@
         <v>140</v>
       </c>
       <c r="J73" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M73" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>577</v>
+        <v>334</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>584</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E74" s="1">
         <v>41061</v>
@@ -4927,19 +4981,19 @@
         <v>18</v>
       </c>
       <c r="G74" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J74" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K74" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>137</v>
@@ -4948,27 +5002,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>578</v>
+        <v>333</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>585</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G75" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="0">
         <v>10</v>
@@ -4980,27 +5034,27 @@
         <v>122</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M75" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>579</v>
+        <v>332</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>586</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="E76" s="1">
         <v>44044</v>
@@ -5009,13 +5063,13 @@
         <v>18</v>
       </c>
       <c r="G76" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s" s="0">
         <v>11</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J76" t="s" s="0">
         <v>130</v>
@@ -5024,74 +5078,74 @@
         <v>249</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>580</v>
+        <v>70</v>
+      </c>
+      <c r="B77" t="s" s="3">
+        <v>515</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>587</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E77" s="1">
-        <v>40027</v>
+        <v>40026</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H77" t="s" s="0">
         <v>44</v>
       </c>
       <c r="I77" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J77" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>411</v>
+        <v>263</v>
       </c>
       <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>581</v>
+        <v>331</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>588</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s" s="0">
         <v>44</v>
@@ -5100,10 +5154,10 @@
         <v>117</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K79" t="s" s="0">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>103</v>
@@ -5112,27 +5166,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>582</v>
+        <v>70</v>
+      </c>
+      <c r="B80" t="s" s="3">
+        <v>516</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>589</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="0">
         <v>12</v>
@@ -5141,7 +5195,7 @@
         <v>28</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K80" t="s" s="0">
         <v>172</v>
@@ -5153,33 +5207,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>583</v>
+        <v>330</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>590</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H81" t="s" s="0">
         <v>45</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J81" t="s" s="0">
         <v>17</v>
@@ -5194,27 +5248,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>584</v>
+        <v>329</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>591</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G82" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s" s="0">
         <v>39</v>
@@ -5223,45 +5277,45 @@
         <v>134</v>
       </c>
       <c r="J82" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K82" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M82" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s" s="0">
-        <v>294</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>585</v>
+        <v>300</v>
+      </c>
+      <c r="B83" t="s" s="3">
+        <v>517</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>592</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H83" t="s" s="0">
         <v>43</v>
       </c>
       <c r="I83" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J83" t="s" s="0">
         <v>182</v>
@@ -5270,24 +5324,24 @@
         <v>274</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>412</v>
+        <v>189</v>
       </c>
       <c r="M83" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>586</v>
+        <v>328</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>593</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E84" s="1">
         <v>41730</v>
@@ -5296,7 +5350,7 @@
         <v>18</v>
       </c>
       <c r="G84" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s" s="0">
         <v>41</v>
@@ -5314,27 +5368,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>587</v>
+        <v>326</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>594</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G86" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="0">
         <v>8</v>
@@ -5343,39 +5400,39 @@
         <v>26</v>
       </c>
       <c r="J86" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K86" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M86" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>588</v>
+        <v>325</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>595</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H87" t="s" s="0">
         <v>9</v>
@@ -5384,7 +5441,7 @@
         <v>177</v>
       </c>
       <c r="J87" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K87" t="s" s="0">
         <v>101</v>
@@ -5396,27 +5453,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>589</v>
+        <v>324</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>596</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G88" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s" s="0">
         <v>8</v>
@@ -5431,33 +5488,33 @@
         <v>267</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M88" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>590</v>
+        <v>323</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>597</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H89" t="s" s="0">
         <v>10</v>
@@ -5466,39 +5523,39 @@
         <v>144</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K89" t="s" s="0">
         <v>270</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>591</v>
+        <v>322</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>598</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H90" t="s" s="0">
         <v>41</v>
@@ -5510,33 +5567,33 @@
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>592</v>
+        <v>321</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>599</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H91" t="s" s="0">
         <v>8</v>
@@ -5545,39 +5602,39 @@
         <v>114</v>
       </c>
       <c r="J91" t="s" s="0">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K91" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M91" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>593</v>
+        <v>320</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>600</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H92" t="s" s="0">
         <v>8</v>
@@ -5589,42 +5646,42 @@
         <v>173</v>
       </c>
       <c r="K92" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M92" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>594</v>
+        <v>318</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>601</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H93" t="s" s="0">
         <v>56</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J93" t="s" s="0">
         <v>186</v>
@@ -5639,56 +5696,56 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>595</v>
+        <v>317</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>602</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
       <c r="F94" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H94" t="s" s="0">
         <v>8</v>
       </c>
       <c r="I94" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J94" t="s" s="0">
         <v>33</v>
       </c>
       <c r="K94" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M94" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>596</v>
+        <v>316</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>603</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E95" s="1">
         <v>39661</v>
@@ -5697,13 +5754,13 @@
         <v>18</v>
       </c>
       <c r="G95" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I95" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J95" t="s" s="0">
         <v>33</v>
@@ -5712,33 +5769,45 @@
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s" s="0">
-        <v>284</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>597</v>
+        <v>290</v>
+      </c>
+      <c r="B102" t="s" s="3">
+        <v>518</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>604</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H102" t="s" s="0">
         <v>12</v>
@@ -5750,7 +5819,7 @@
         <v>32</v>
       </c>
       <c r="K102" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>53</v>
@@ -5759,27 +5828,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>598</v>
+        <v>292</v>
+      </c>
+      <c r="B103" t="s" s="3">
+        <v>519</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>605</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H103" t="s" s="0">
         <v>45</v>
@@ -5791,27 +5860,27 @@
         <v>25</v>
       </c>
       <c r="K103" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="M103" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s" s="0">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>599</v>
+        <v>310</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>606</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="E104" s="1">
         <v>41091</v>
@@ -5820,7 +5889,7 @@
         <v>18</v>
       </c>
       <c r="G104" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H104" t="s" s="0">
         <v>39</v>
@@ -5829,86 +5898,86 @@
         <v>24</v>
       </c>
       <c r="J104" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K104" t="s" s="0">
         <v>249</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M104" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>600</v>
+        <v>380</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>607</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E105" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G105" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s" s="0">
         <v>43</v>
       </c>
       <c r="I105" t="s" s="0">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J105" t="s" s="0">
         <v>113</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="M105" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>601</v>
+        <v>291</v>
+      </c>
+      <c r="B106" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>608</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E106" s="1">
-        <v>41093</v>
+        <v>41091</v>
       </c>
       <c r="F106" t="s" s="0">
         <v>18</v>
       </c>
       <c r="G106" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H106" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="J106" t="s" s="0">
         <v>17</v>
@@ -5917,33 +5986,33 @@
         <v>133</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M106" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>602</v>
+        <v>312</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>609</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
       </c>
       <c r="F127" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G127" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H127" t="s" s="0">
         <v>12</v>
@@ -5955,7 +6024,7 @@
         <v>277</v>
       </c>
       <c r="K127" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>281</v>
@@ -5964,27 +6033,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s" s="0">
-        <v>287</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>603</v>
+        <v>293</v>
+      </c>
+      <c r="B128" t="s" s="3">
+        <v>521</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>610</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
       </c>
       <c r="F128" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G128" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H128" t="s" s="0">
         <v>45</v>
@@ -5993,10 +6062,10 @@
         <v>140</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K128" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>36</v>
@@ -6005,68 +6074,68 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>604</v>
+        <v>327</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>611</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
       </c>
       <c r="F129" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G129" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H129" t="s" s="0">
         <v>39</v>
       </c>
       <c r="I129" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J129" t="s" s="0">
         <v>265</v>
       </c>
       <c r="K129" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M129" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>605</v>
+        <v>315</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>612</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
       </c>
       <c r="F130" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G130" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H130" t="s" s="0">
         <v>43</v>
@@ -6081,39 +6150,39 @@
         <v>267</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M130" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>606</v>
+        <v>314</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>613</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
       </c>
       <c r="F131" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G131" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H131" t="s" s="0">
         <v>41</v>
       </c>
       <c r="I131" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J131" t="s" s="0">
         <v>268</v>
@@ -6128,18 +6197,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>607</v>
+        <v>64</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>614</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E132" s="1">
         <v>40909</v>
@@ -6148,13 +6217,13 @@
         <v>18</v>
       </c>
       <c r="G132" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H132" t="s" s="0">
         <v>9</v>
       </c>
       <c r="I132" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J132" t="s" s="0">
         <v>271</v>
@@ -6163,24 +6232,24 @@
         <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M132" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>608</v>
+        <v>352</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>615</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
@@ -6189,7 +6258,7 @@
         <v>18</v>
       </c>
       <c r="G133" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H133" t="s" s="0">
         <v>8</v>
@@ -6210,27 +6279,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>609</v>
+        <v>354</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>616</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
       </c>
       <c r="F134" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G134" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H134" t="s" s="0">
         <v>9</v>
@@ -6242,36 +6311,36 @@
         <v>25</v>
       </c>
       <c r="K134" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M134" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>610</v>
+        <v>379</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>617</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
       </c>
       <c r="F135" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G135" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H135" t="s" s="0">
         <v>8</v>
@@ -6280,7 +6349,7 @@
         <v>28</v>
       </c>
       <c r="J135" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K135" t="s" s="0">
         <v>112</v>
@@ -6289,39 +6358,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>611</v>
+        <v>378</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>618</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G136" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H136" t="s" s="0">
         <v>10</v>
       </c>
       <c r="I136" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J136" t="s" s="0">
         <v>113</v>
       </c>
       <c r="K136" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>246</v>
@@ -6343,18 +6412,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625"/>
     <col min="6" max="6" customWidth="true" width="16.0"/>
-    <col min="7" max="7" customWidth="true" width="15.88671875"/>
+    <col min="7" max="7" customWidth="true" width="15.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
@@ -6365,158 +6434,158 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
+        <v>14000</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1800</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>19000</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3500</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
+        <v>26000</v>
+      </c>
+      <c r="B4" s="0">
+        <v>4800</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
+        <v>17500</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2750</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
         <v>12500</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B6" s="0">
         <v>1850</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
         <v>13000</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B7" s="0">
         <v>1500</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
-        <v>14000</v>
-      </c>
-      <c r="B4" s="0">
-        <v>1800</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
-        <v>19000</v>
-      </c>
-      <c r="B5" s="0">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
+        <v>20500</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1500</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
+        <v>16500</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1500</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
+        <v>11000</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1100</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
+        <v>31000</v>
+      </c>
+      <c r="B11" s="0">
+        <v>5500</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="0">
+        <v>21000</v>
+      </c>
+      <c r="B12" s="0">
         <v>3500</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
-        <v>26000</v>
-      </c>
-      <c r="B6" s="0">
-        <v>4800</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="0">
-        <v>17500</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2750</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="0">
-        <v>21000</v>
-      </c>
-      <c r="B8" s="0">
-        <v>3500</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="C12" t="s" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="0">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="0">
         <v>31000</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B13" s="0">
         <v>10500</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C13" t="s" s="0">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="0">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="0">
         <v>12500</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B14" s="0">
         <v>1200</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C14" t="s" s="0">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="0">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="0">
         <v>14500</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B15" s="0">
         <v>1350</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C15" t="s" s="0">
         <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="0">
-        <v>20500</v>
-      </c>
-      <c r="B12" s="0">
-        <v>1500</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="0">
-        <v>16500</v>
-      </c>
-      <c r="B13" s="0">
-        <v>1500</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="0">
-        <v>11000</v>
-      </c>
-      <c r="B14" s="0">
-        <v>1100</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="0">
-        <v>31000</v>
-      </c>
-      <c r="B15" s="0">
-        <v>5500</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6532,21 +6601,21 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.33203125"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -6554,7 +6623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -6562,7 +6631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -6570,7 +6639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -6578,7 +6647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -6586,7 +6655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -6594,7 +6663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -6602,7 +6671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -6610,7 +6679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -6618,7 +6687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -6626,7 +6695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -6634,7 +6703,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -6642,7 +6711,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -6650,7 +6719,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -6658,7 +6727,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -6666,7 +6735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="0">
         <v>16</v>
       </c>
@@ -6674,7 +6743,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="0">
         <v>17</v>
       </c>
@@ -6682,7 +6751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="0">
         <v>18</v>
       </c>
@@ -6699,17 +6768,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="41.44140625"/>
-    <col min="8" max="8" customWidth="true" width="41.5546875"/>
+    <col min="6" max="6" customWidth="true" width="41.42578125"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
@@ -6717,13 +6786,13 @@
         <v>15</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G1" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>12000</v>
       </c>
@@ -6731,13 +6800,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="0">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>13000</v>
       </c>
@@ -6745,13 +6814,13 @@
         <v>3.6</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="0">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
         <v>14000</v>
       </c>
@@ -6759,13 +6828,13 @@
         <v>6.5</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>88</v>
+        <v>419</v>
       </c>
       <c r="G4" s="0">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
         <v>15000</v>
       </c>
@@ -6773,13 +6842,13 @@
         <v>8.5</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>89</v>
+        <v>418</v>
       </c>
       <c r="G5" s="0">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="0">
         <v>16000</v>
       </c>
@@ -6787,13 +6856,13 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G6" s="0">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="0">
         <v>17000</v>
       </c>
@@ -6801,13 +6870,13 @@
         <v>10.55</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G7" s="0">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="0">
         <v>18000</v>
       </c>
@@ -6815,13 +6884,13 @@
         <v>11.15</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G8" s="0">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="0">
         <v>19000</v>
       </c>
@@ -6829,13 +6898,13 @@
         <v>11.75</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>408</v>
+        <v>90</v>
       </c>
       <c r="G9" s="0">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="0">
         <v>20000</v>
       </c>
@@ -6843,13 +6912,13 @@
         <v>12.15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>407</v>
+        <v>91</v>
       </c>
       <c r="G10" s="0">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="0">
         <v>21000</v>
       </c>
@@ -6857,7 +6926,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="0">
         <v>22000</v>
       </c>
@@ -6865,7 +6934,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="0">
         <v>23000</v>
       </c>
@@ -6873,7 +6942,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="0">
         <v>24000</v>
       </c>
@@ -6881,7 +6950,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="0">
         <v>25000</v>
       </c>
@@ -6889,7 +6958,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="0">
         <v>26000</v>
       </c>
@@ -6897,7 +6966,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="0">
         <v>27000</v>
       </c>
@@ -6905,7 +6974,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="0">
         <v>28000</v>
       </c>
@@ -6913,7 +6982,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="0">
         <v>29000</v>
       </c>
@@ -6921,7 +6990,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="0">
         <v>30000</v>
       </c>
@@ -6929,7 +6998,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="0">
         <v>31000</v>
       </c>
@@ -6937,7 +7006,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="0">
         <v>32000</v>
       </c>
@@ -6945,7 +7014,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="0">
         <v>33000</v>
       </c>
@@ -6953,7 +7022,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="0">
         <v>34000</v>
       </c>
@@ -6961,7 +7030,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="0">
         <v>35000</v>
       </c>
@@ -6969,7 +7038,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="0">
         <v>36000</v>
       </c>
@@ -6977,7 +7046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="0">
         <v>37000</v>
       </c>
@@ -6985,7 +7054,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="0">
         <v>38000</v>
       </c>
@@ -6993,7 +7062,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="0">
         <v>39000</v>
       </c>
@@ -7001,7 +7070,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="0">
         <v>40000</v>
       </c>
@@ -7009,7 +7078,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="0">
         <v>41000</v>
       </c>
@@ -7017,7 +7086,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="0">
         <v>42000</v>
       </c>
@@ -7025,7 +7094,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="0">
         <v>43000</v>
       </c>
@@ -7033,7 +7102,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="0">
         <v>44000</v>
       </c>
@@ -7041,7 +7110,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="0">
         <v>45000</v>
       </c>
@@ -7049,7 +7118,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="0">
         <v>46000</v>
       </c>
@@ -7057,7 +7126,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="0">
         <v>47000</v>
       </c>
@@ -7065,7 +7134,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="0">
         <v>48000</v>
       </c>
@@ -7073,7 +7142,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="0">
         <v>49000</v>
       </c>
@@ -7081,7 +7150,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="0">
         <v>50000</v>
       </c>
@@ -7089,7 +7158,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="0">
         <v>51000</v>
       </c>
@@ -7097,7 +7166,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="0">
         <v>52000</v>
       </c>
@@ -7105,7 +7174,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="0">
         <v>53000</v>
       </c>
@@ -7113,7 +7182,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="0">
         <v>54000</v>
       </c>
@@ -7121,7 +7190,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="0">
         <v>55000</v>
       </c>
@@ -7129,7 +7198,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="0">
         <v>56000</v>
       </c>
@@ -7137,7 +7206,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="0">
         <v>57000</v>
       </c>
@@ -7145,7 +7214,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="0">
         <v>58000</v>
       </c>
@@ -7153,7 +7222,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="0">
         <v>59000</v>
       </c>
@@ -7161,7 +7230,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="0">
         <v>60000</v>
       </c>
